--- a/kelimelik_words_app/assets/database/kelimelik_backup.xlsx
+++ b/kelimelik_words_app/assets/database/kelimelik_backup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6954" uniqueCount="6674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6968" uniqueCount="6687">
   <si>
     <t xml:space="preserve">Kelime</t>
   </si>
@@ -6443,6 +6443,12 @@
     <t xml:space="preserve">Finlandiyalı</t>
   </si>
   <si>
+    <t xml:space="preserve">Fink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gönlünce gezip eğlenmek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fino</t>
   </si>
   <si>
@@ -7808,6 +7814,12 @@
     <t xml:space="preserve">Zorlama / Zorunda bırakma</t>
   </si>
   <si>
+    <t xml:space="preserve">Ilgar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dizginleri çekilince atın dört nala koşması</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ilıca</t>
   </si>
   <si>
@@ -10646,6 +10658,12 @@
     <t xml:space="preserve">Deniz ve gölün küçük kara girintileri</t>
   </si>
   <si>
+    <t xml:space="preserve">Koyak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Koyun</t>
   </si>
   <si>
@@ -14228,6 +14246,12 @@
     <t xml:space="preserve">Bir tür savaş gemisi sandalı</t>
   </si>
   <si>
+    <t xml:space="preserve">Pati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kedi, köpeklerin ön ayağı</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marj / Hisse</t>
   </si>
   <si>
@@ -18773,9 +18797,6 @@
     <t xml:space="preserve">Bir şeyin üst tarafı</t>
   </si>
   <si>
-    <t xml:space="preserve">Vadi</t>
-  </si>
-  <si>
     <t xml:space="preserve">İki dağ arasındaki çukurca geçit</t>
   </si>
   <si>
@@ -18809,6 +18830,12 @@
     <t xml:space="preserve">Olay / Hadise</t>
   </si>
   <si>
+    <t xml:space="preserve">Vaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olan / Olmuş</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vakit</t>
   </si>
   <si>
@@ -18842,6 +18869,12 @@
     <t xml:space="preserve">Vallahi</t>
   </si>
   <si>
+    <t xml:space="preserve">Valör</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Değer / Geçerlik / Anlam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vals</t>
   </si>
   <si>
@@ -19890,6 +19923,12 @@
   </si>
   <si>
     <t xml:space="preserve">Zeyil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zıh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İnce kenar pervazı</t>
   </si>
   <si>
     <t xml:space="preserve">Zınk</t>
@@ -29169,15 +29208,15 @@
         <v>2171</v>
       </c>
       <c r="B1110" t="s">
-        <v>706</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="B1111" t="s">
-        <v>2173</v>
+        <v>706</v>
       </c>
     </row>
     <row r="1112">
@@ -29193,15 +29232,15 @@
         <v>2176</v>
       </c>
       <c r="B1113" t="s">
-        <v>1398</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="B1114" t="s">
-        <v>2178</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1115">
@@ -29337,15 +29376,15 @@
         <v>2211</v>
       </c>
       <c r="B1131" t="s">
-        <v>593</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="B1132" t="s">
-        <v>2213</v>
+        <v>593</v>
       </c>
     </row>
     <row r="1133">
@@ -29505,15 +29544,15 @@
         <v>2252</v>
       </c>
       <c r="B1152" t="s">
-        <v>302</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B1153" t="s">
-        <v>2254</v>
+        <v>302</v>
       </c>
     </row>
     <row r="1154">
@@ -29529,15 +29568,15 @@
         <v>2257</v>
       </c>
       <c r="B1155" t="s">
-        <v>183</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="B1156" t="s">
-        <v>2259</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1157">
@@ -29569,15 +29608,15 @@
         <v>2266</v>
       </c>
       <c r="B1160" t="s">
-        <v>1139</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="B1161" t="s">
-        <v>2268</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1162">
@@ -29657,15 +29696,15 @@
         <v>2287</v>
       </c>
       <c r="B1171" t="s">
-        <v>1891</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="B1172" t="s">
-        <v>2289</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1173">
@@ -29937,15 +29976,15 @@
         <v>2356</v>
       </c>
       <c r="B1206" t="s">
-        <v>1589</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="B1207" t="s">
-        <v>2358</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1208">
@@ -30241,15 +30280,15 @@
         <v>2431</v>
       </c>
       <c r="B1244" t="s">
-        <v>1834</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="B1245" t="s">
-        <v>2433</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1246">
@@ -30465,15 +30504,15 @@
         <v>2486</v>
       </c>
       <c r="B1272" t="s">
-        <v>1005</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="B1273" t="s">
-        <v>2488</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1274">
@@ -30537,15 +30576,15 @@
         <v>2503</v>
       </c>
       <c r="B1281" t="s">
-        <v>2388</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B1282" t="s">
-        <v>2505</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1283">
@@ -30921,23 +30960,23 @@
         <v>2598</v>
       </c>
       <c r="B1329" t="s">
-        <v>1305</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="B1330" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="B1331" t="s">
-        <v>2602</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1332">
@@ -31185,23 +31224,23 @@
         <v>2663</v>
       </c>
       <c r="B1362" t="s">
-        <v>2597</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="B1363" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="B1364" t="s">
-        <v>2667</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1365">
@@ -31265,23 +31304,23 @@
         <v>2682</v>
       </c>
       <c r="B1372" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="B1373" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="B1374" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="1375">
@@ -31470,34 +31509,34 @@
     </row>
     <row r="1398">
       <c r="A1398" t="s">
-        <v>1517</v>
+        <v>2733</v>
       </c>
       <c r="B1398" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="B1399" t="s">
-        <v>2587</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="s">
-        <v>2735</v>
+        <v>1517</v>
       </c>
       <c r="B1400" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="B1401" t="s">
-        <v>2738</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1402">
@@ -31550,34 +31589,34 @@
     </row>
     <row r="1408">
       <c r="A1408" t="s">
-        <v>248</v>
+        <v>2751</v>
       </c>
       <c r="B1408" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="B1409" t="s">
-        <v>1947</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="s">
-        <v>2753</v>
+        <v>248</v>
       </c>
       <c r="B1410" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="B1411" t="s">
-        <v>2756</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1412">
@@ -31625,23 +31664,23 @@
         <v>2767</v>
       </c>
       <c r="B1417" t="s">
-        <v>1055</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="B1418" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="B1419" t="s">
-        <v>2771</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1420">
@@ -31681,23 +31720,23 @@
         <v>2780</v>
       </c>
       <c r="B1424" t="s">
-        <v>1617</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="B1425" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="B1426" t="s">
-        <v>2784</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1427">
@@ -31710,23 +31749,23 @@
     </row>
     <row r="1428">
       <c r="A1428" t="s">
-        <v>2771</v>
+        <v>2787</v>
       </c>
       <c r="B1428" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="B1429" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="s">
-        <v>2790</v>
+        <v>2775</v>
       </c>
       <c r="B1430" t="s">
         <v>2791</v>
@@ -31822,18 +31861,18 @@
     </row>
     <row r="1442">
       <c r="A1442" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="B1442" t="s">
-        <v>2700</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="B1443" t="s">
-        <v>2815</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="1444">
@@ -31857,28 +31896,28 @@
         <v>2820</v>
       </c>
       <c r="B1446" t="s">
-        <v>2129</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="s">
-        <v>45</v>
+        <v>2822</v>
       </c>
       <c r="B1447" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="B1448" t="s">
-        <v>2823</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="s">
-        <v>2824</v>
+        <v>45</v>
       </c>
       <c r="B1449" t="s">
         <v>2825</v>
@@ -32145,23 +32184,23 @@
         <v>2890</v>
       </c>
       <c r="B1482" t="s">
-        <v>1780</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1483">
       <c r="A1483" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="B1483" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1484">
       <c r="A1484" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="B1484" t="s">
-        <v>2894</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1485">
@@ -32225,23 +32264,23 @@
         <v>2909</v>
       </c>
       <c r="B1492" t="s">
-        <v>1441</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="1493">
       <c r="A1493" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="B1493" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="1494">
       <c r="A1494" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="B1494" t="s">
-        <v>2913</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1495">
@@ -32249,23 +32288,23 @@
         <v>2914</v>
       </c>
       <c r="B1495" t="s">
-        <v>1139</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="1496">
       <c r="A1496" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="B1496" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="1497">
       <c r="A1497" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="B1497" t="s">
-        <v>2918</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1498">
@@ -32318,42 +32357,42 @@
     </row>
     <row r="1504">
       <c r="A1504" t="s">
-        <v>2916</v>
+        <v>2931</v>
       </c>
       <c r="B1504" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1505">
       <c r="A1505" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="B1505" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1506">
       <c r="A1506" t="s">
-        <v>2934</v>
+        <v>2920</v>
       </c>
       <c r="B1506" t="s">
-        <v>2288</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="1507">
       <c r="A1507" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="B1507" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1508">
       <c r="A1508" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="B1508" t="s">
-        <v>2938</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1509">
@@ -32633,23 +32672,23 @@
         <v>3007</v>
       </c>
       <c r="B1543" t="s">
-        <v>997</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="1544">
       <c r="A1544" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="B1544" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="1545">
       <c r="A1545" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="B1545" t="s">
-        <v>3011</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1546">
@@ -32753,23 +32792,23 @@
         <v>3036</v>
       </c>
       <c r="B1558" t="s">
-        <v>3033</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="B1559" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="B1560" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="1561">
@@ -32817,23 +32856,23 @@
         <v>3051</v>
       </c>
       <c r="B1566" t="s">
-        <v>589</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="B1567" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="B1568" t="s">
-        <v>3055</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1569">
@@ -32854,23 +32893,23 @@
     </row>
     <row r="1571">
       <c r="A1571" t="s">
-        <v>2577</v>
+        <v>3060</v>
       </c>
       <c r="B1571" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="B1572" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="1573">
       <c r="A1573" t="s">
-        <v>3063</v>
+        <v>2579</v>
       </c>
       <c r="B1573" t="s">
         <v>3064</v>
@@ -32910,23 +32949,23 @@
     </row>
     <row r="1578">
       <c r="A1578" t="s">
-        <v>749</v>
+        <v>3073</v>
       </c>
       <c r="B1578" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1579">
       <c r="A1579" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="B1579" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1580">
       <c r="A1580" t="s">
-        <v>3076</v>
+        <v>749</v>
       </c>
       <c r="B1580" t="s">
         <v>3077</v>
@@ -33041,23 +33080,23 @@
         <v>3104</v>
       </c>
       <c r="B1594" t="s">
-        <v>1005</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="B1595" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="B1596" t="s">
-        <v>3108</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="1597">
@@ -33318,23 +33357,23 @@
     </row>
     <row r="1629">
       <c r="A1629" t="s">
-        <v>2807</v>
+        <v>3173</v>
       </c>
       <c r="B1629" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="1630">
       <c r="A1630" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="B1630" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="1631">
       <c r="A1631" t="s">
-        <v>3176</v>
+        <v>2811</v>
       </c>
       <c r="B1631" t="s">
         <v>3177</v>
@@ -33401,23 +33440,23 @@
         <v>3192</v>
       </c>
       <c r="B1639" t="s">
-        <v>1139</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="1640">
       <c r="A1640" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="B1640" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="1641">
       <c r="A1641" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="B1641" t="s">
-        <v>3196</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1642">
@@ -33609,23 +33648,23 @@
         <v>3243</v>
       </c>
       <c r="B1665" t="s">
-        <v>3122</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1666">
       <c r="A1666" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="B1666" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="1667">
       <c r="A1667" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="B1667" t="s">
-        <v>3247</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1668">
@@ -33657,31 +33696,31 @@
         <v>3254</v>
       </c>
       <c r="B1671" t="s">
-        <v>1412</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="1672">
       <c r="A1672" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="B1672" t="s">
-        <v>794</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="1673">
       <c r="A1673" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="B1673" t="s">
-        <v>3257</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1674">
       <c r="A1674" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="B1674" t="s">
-        <v>3259</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1675">
@@ -33841,23 +33880,23 @@
         <v>3298</v>
       </c>
       <c r="B1694" t="s">
-        <v>1883</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="B1695" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1696">
       <c r="A1696" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="B1696" t="s">
-        <v>3302</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1697">
@@ -33929,23 +33968,23 @@
         <v>3319</v>
       </c>
       <c r="B1705" t="s">
-        <v>3317</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1706">
       <c r="A1706" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="B1706" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="B1707" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="1708">
@@ -34081,39 +34120,39 @@
         <v>3356</v>
       </c>
       <c r="B1724" t="s">
-        <v>855</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1725">
       <c r="A1725" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="B1725" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1726">
       <c r="A1726" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="B1726" t="s">
-        <v>897</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1727">
       <c r="A1727" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="B1727" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1728">
       <c r="A1728" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="B1728" t="s">
-        <v>3363</v>
+        <v>897</v>
       </c>
     </row>
     <row r="1729">
@@ -34241,23 +34280,23 @@
         <v>3394</v>
       </c>
       <c r="B1744" t="s">
-        <v>2212</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="1745">
       <c r="A1745" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="B1745" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="1746">
       <c r="A1746" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="B1746" t="s">
-        <v>3398</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1747">
@@ -34390,23 +34429,23 @@
     </row>
     <row r="1763">
       <c r="A1763" t="s">
-        <v>2660</v>
+        <v>3431</v>
       </c>
       <c r="B1763" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="1764">
       <c r="A1764" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="B1764" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="1765">
       <c r="A1765" t="s">
-        <v>3434</v>
+        <v>2664</v>
       </c>
       <c r="B1765" t="s">
         <v>3435</v>
@@ -34497,23 +34536,23 @@
         <v>3456</v>
       </c>
       <c r="B1776" t="s">
-        <v>706</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1777">
       <c r="A1777" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="B1777" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1778">
       <c r="A1778" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="B1778" t="s">
-        <v>3460</v>
+        <v>706</v>
       </c>
     </row>
     <row r="1779">
@@ -34526,23 +34565,23 @@
     </row>
     <row r="1780">
       <c r="A1780" t="s">
-        <v>2447</v>
+        <v>3463</v>
       </c>
       <c r="B1780" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="1781">
       <c r="A1781" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="B1781" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="1782">
       <c r="A1782" t="s">
-        <v>3466</v>
+        <v>2449</v>
       </c>
       <c r="B1782" t="s">
         <v>3467</v>
@@ -34638,23 +34677,23 @@
     </row>
     <row r="1794">
       <c r="A1794" t="s">
-        <v>787</v>
+        <v>3490</v>
       </c>
       <c r="B1794" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="1795">
       <c r="A1795" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="B1795" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1796">
       <c r="A1796" t="s">
-        <v>3493</v>
+        <v>787</v>
       </c>
       <c r="B1796" t="s">
         <v>3494</v>
@@ -34753,23 +34792,23 @@
         <v>3517</v>
       </c>
       <c r="B1808" t="s">
-        <v>734</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1809">
       <c r="A1809" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="B1809" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1810">
       <c r="A1810" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="B1810" t="s">
-        <v>3521</v>
+        <v>734</v>
       </c>
     </row>
     <row r="1811">
@@ -34873,31 +34912,31 @@
         <v>3546</v>
       </c>
       <c r="B1823" t="s">
-        <v>1173</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1824">
       <c r="A1824" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="B1824" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="1825">
       <c r="A1825" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="B1825" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1826">
       <c r="A1826" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="B1826" t="s">
-        <v>3552</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1827">
@@ -35185,31 +35224,31 @@
         <v>3623</v>
       </c>
       <c r="B1862" t="s">
-        <v>1374</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1863">
       <c r="A1863" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="B1863" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="1864">
       <c r="A1864" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="B1864" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="1865">
       <c r="A1865" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="B1865" t="s">
-        <v>3629</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1866">
@@ -35270,31 +35309,31 @@
     </row>
     <row r="1873">
       <c r="A1873" t="s">
-        <v>2998</v>
+        <v>3644</v>
       </c>
       <c r="B1873" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="1874">
       <c r="A1874" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="B1874" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="B1875" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="s">
-        <v>3649</v>
+        <v>3002</v>
       </c>
       <c r="B1876" t="s">
         <v>3650</v>
@@ -35321,31 +35360,31 @@
         <v>3655</v>
       </c>
       <c r="B1879" t="s">
-        <v>1256</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="B1880" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="1881">
       <c r="A1881" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="B1881" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="1882">
       <c r="A1882" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="B1882" t="s">
-        <v>3661</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1883">
@@ -35465,52 +35504,52 @@
         <v>3690</v>
       </c>
       <c r="B1897" t="s">
-        <v>1677</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="B1898" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="1899">
       <c r="A1899" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="B1899" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="s">
-        <v>1091</v>
+        <v>3696</v>
       </c>
       <c r="B1900" t="s">
-        <v>3695</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1901">
       <c r="A1901" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="B1901" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="1902">
       <c r="A1902" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="B1902" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="1903">
       <c r="A1903" t="s">
-        <v>3700</v>
+        <v>1091</v>
       </c>
       <c r="B1903" t="s">
         <v>3701</v>
@@ -35593,39 +35632,39 @@
         <v>3720</v>
       </c>
       <c r="B1913" t="s">
-        <v>1664</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="B1914" t="s">
-        <v>1121</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="1915">
       <c r="A1915" t="s">
-        <v>3722</v>
+        <v>3724</v>
       </c>
       <c r="B1915" t="s">
-        <v>3723</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="1916">
       <c r="A1916" t="s">
-        <v>3724</v>
+        <v>3726</v>
       </c>
       <c r="B1916" t="s">
-        <v>3725</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="B1917" t="s">
-        <v>3727</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1918">
@@ -35662,58 +35701,58 @@
     </row>
     <row r="1922">
       <c r="A1922" t="s">
-        <v>301</v>
+        <v>3736</v>
       </c>
       <c r="B1922" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1923">
       <c r="A1923" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="B1923" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="B1924" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="1925">
       <c r="A1925" t="s">
-        <v>3741</v>
+        <v>301</v>
       </c>
       <c r="B1925" t="s">
-        <v>2378</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1926">
       <c r="A1926" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="B1926" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="1927">
       <c r="A1927" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="B1927" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="B1928" t="s">
-        <v>3747</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1929">
@@ -35737,31 +35776,31 @@
         <v>3752</v>
       </c>
       <c r="B1931" t="s">
-        <v>2129</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1932">
       <c r="A1932" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="B1932" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="1933">
       <c r="A1933" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="B1933" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="B1934" t="s">
-        <v>3758</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1935">
@@ -35785,31 +35824,31 @@
         <v>3763</v>
       </c>
       <c r="B1937" t="s">
-        <v>3241</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
       <c r="B1938" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="B1939" t="s">
-        <v>3767</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="1940">
       <c r="A1940" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="B1940" t="s">
-        <v>3769</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1941">
@@ -35889,31 +35928,31 @@
         <v>3788</v>
       </c>
       <c r="B1950" t="s">
-        <v>1139</v>
+        <v>3789</v>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="s">
-        <v>3789</v>
+        <v>3790</v>
       </c>
       <c r="B1951" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1952">
       <c r="A1952" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="B1952" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="B1953" t="s">
-        <v>3794</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1954">
@@ -36025,31 +36064,31 @@
         <v>3821</v>
       </c>
       <c r="B1967" t="s">
-        <v>1374</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="B1968" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="B1969" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="B1970" t="s">
-        <v>3827</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1971">
@@ -36305,31 +36344,31 @@
         <v>3890</v>
       </c>
       <c r="B2002" t="s">
-        <v>1598</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="B2003" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="B2004" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="s">
-        <v>3895</v>
+        <v>3896</v>
       </c>
       <c r="B2005" t="s">
-        <v>3896</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="2006">
@@ -36401,31 +36440,31 @@
         <v>3913</v>
       </c>
       <c r="B2014" t="s">
-        <v>619</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="B2015" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="B2016" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="B2017" t="s">
-        <v>3919</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2018">
@@ -36457,31 +36496,31 @@
         <v>3926</v>
       </c>
       <c r="B2021" t="s">
-        <v>3924</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="B2022" t="s">
-        <v>3928</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="B2023" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="B2024" t="s">
-        <v>3932</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="2025">
@@ -36489,31 +36528,31 @@
         <v>3933</v>
       </c>
       <c r="B2025" t="s">
-        <v>589</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="B2026" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="B2027" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="B2028" t="s">
-        <v>3939</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2029">
@@ -36641,31 +36680,31 @@
         <v>3970</v>
       </c>
       <c r="B2044" t="s">
-        <v>3966</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="B2045" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="s">
-        <v>3973</v>
+        <v>3974</v>
       </c>
       <c r="B2046" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="s">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="B2047" t="s">
-        <v>3976</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="2048">
@@ -36673,55 +36712,55 @@
         <v>3977</v>
       </c>
       <c r="B2048" t="s">
-        <v>3677</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="B2049" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="B2050" t="s">
-        <v>602</v>
+        <v>3982</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="s">
-        <v>3981</v>
+        <v>3983</v>
       </c>
       <c r="B2051" t="s">
-        <v>1</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="s">
-        <v>3982</v>
+        <v>3984</v>
       </c>
       <c r="B2052" t="s">
-        <v>3983</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="s">
-        <v>3984</v>
+        <v>3986</v>
       </c>
       <c r="B2053" t="s">
-        <v>3985</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2054">
       <c r="A2054" t="s">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="B2054" t="s">
-        <v>3987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2055">
@@ -36897,31 +36936,31 @@
         <v>4030</v>
       </c>
       <c r="B2076" t="s">
-        <v>1562</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="2077">
       <c r="A2077" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
       <c r="B2077" t="s">
-        <v>4032</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="2078">
       <c r="A2078" t="s">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="B2078" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="2079">
       <c r="A2079" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="B2079" t="s">
-        <v>4036</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="2080">
@@ -37073,31 +37112,31 @@
         <v>4073</v>
       </c>
       <c r="B2098" t="s">
-        <v>1342</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="2099">
       <c r="A2099" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="B2099" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="2100">
       <c r="A2100" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
       <c r="B2100" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="2101">
       <c r="A2101" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="B2101" t="s">
-        <v>4079</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="2102">
@@ -37241,31 +37280,31 @@
         <v>4114</v>
       </c>
       <c r="B2119" t="s">
-        <v>1127</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="B2120" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="B2121" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="B2122" t="s">
-        <v>4120</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2123">
@@ -37281,31 +37320,31 @@
         <v>4123</v>
       </c>
       <c r="B2124" t="s">
-        <v>3173</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="B2125" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="2126">
       <c r="A2126" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="B2126" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="2127">
       <c r="A2127" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="B2127" t="s">
-        <v>4129</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="2128">
@@ -37377,31 +37416,31 @@
         <v>4146</v>
       </c>
       <c r="B2136" t="s">
-        <v>1789</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="B2137" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="B2138" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="B2139" t="s">
-        <v>4152</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="2140">
@@ -37425,31 +37464,31 @@
         <v>4157</v>
       </c>
       <c r="B2142" t="s">
-        <v>1664</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="2143">
       <c r="A2143" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="B2143" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="2144">
       <c r="A2144" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="B2144" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="2145">
       <c r="A2145" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="B2145" t="s">
-        <v>4163</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="2146">
@@ -37601,47 +37640,47 @@
         <v>4200</v>
       </c>
       <c r="B2164" t="s">
-        <v>3515</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="2165">
       <c r="A2165" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="B2165" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="2166">
       <c r="A2166" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="B2166" t="s">
-        <v>4198</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="2167">
       <c r="A2167" t="s">
-        <v>4204</v>
+        <v>4206</v>
       </c>
       <c r="B2167" t="s">
-        <v>4205</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="B2168" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="2169">
       <c r="A2169" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="B2169" t="s">
-        <v>4209</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="2170">
@@ -37657,31 +37696,31 @@
         <v>4212</v>
       </c>
       <c r="B2171" t="s">
-        <v>4206</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="2172">
       <c r="A2172" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
       <c r="B2172" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="2173">
       <c r="A2173" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="B2173" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="2174">
       <c r="A2174" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="B2174" t="s">
-        <v>4218</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="2175">
@@ -37745,47 +37784,47 @@
         <v>4233</v>
       </c>
       <c r="B2182" t="s">
-        <v>855</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="B2183" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
       <c r="B2184" t="s">
-        <v>3208</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="2185">
       <c r="A2185" t="s">
-        <v>4237</v>
+        <v>4239</v>
       </c>
       <c r="B2185" t="s">
-        <v>4238</v>
+        <v>855</v>
       </c>
     </row>
     <row r="2186">
       <c r="A2186" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="B2186" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="2187">
       <c r="A2187" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="B2187" t="s">
-        <v>4242</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="2188">
@@ -37817,31 +37856,31 @@
         <v>4249</v>
       </c>
       <c r="B2191" t="s">
-        <v>1005</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="2192">
       <c r="A2192" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="B2192" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="2193">
       <c r="A2193" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
       <c r="B2193" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="2194">
       <c r="A2194" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="B2194" t="s">
-        <v>4255</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2195">
@@ -37857,39 +37896,39 @@
         <v>4258</v>
       </c>
       <c r="B2196" t="s">
-        <v>1005</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="2197">
       <c r="A2197" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="B2197" t="s">
-        <v>2940</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="2198">
       <c r="A2198" t="s">
-        <v>4260</v>
+        <v>4262</v>
       </c>
       <c r="B2198" t="s">
-        <v>4261</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" t="s">
-        <v>4262</v>
+        <v>4264</v>
       </c>
       <c r="B2199" t="s">
-        <v>4263</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2200">
       <c r="A2200" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="B2200" t="s">
-        <v>4265</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="2201">
@@ -37897,31 +37936,31 @@
         <v>4266</v>
       </c>
       <c r="B2201" t="s">
-        <v>4145</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="2202">
       <c r="A2202" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
       <c r="B2202" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="2203">
       <c r="A2203" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="B2203" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="2204">
       <c r="A2204" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
       <c r="B2204" t="s">
-        <v>4272</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="2205">
@@ -37977,31 +38016,31 @@
         <v>4285</v>
       </c>
       <c r="B2211" t="s">
-        <v>167</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="2212">
       <c r="A2212" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="B2212" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="B2213" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="2214">
       <c r="A2214" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="B2214" t="s">
-        <v>4291</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2215">
@@ -38225,31 +38264,31 @@
         <v>4346</v>
       </c>
       <c r="B2242" t="s">
-        <v>1414</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="2243">
       <c r="A2243" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="B2243" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="2244">
       <c r="A2244" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="B2244" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="2245">
       <c r="A2245" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="B2245" t="s">
-        <v>4352</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2246">
@@ -38425,31 +38464,31 @@
         <v>4395</v>
       </c>
       <c r="B2267" t="s">
-        <v>706</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="B2268" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="B2269" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="B2270" t="s">
-        <v>4401</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2271">
@@ -38558,31 +38597,31 @@
     </row>
     <row r="2284">
       <c r="A2284" t="s">
-        <v>1664</v>
+        <v>4428</v>
       </c>
       <c r="B2284" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="B2285" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="B2286" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="s">
-        <v>4433</v>
+        <v>1664</v>
       </c>
       <c r="B2287" t="s">
         <v>4434</v>
@@ -38617,31 +38656,31 @@
         <v>4441</v>
       </c>
       <c r="B2291" t="s">
-        <v>3444</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
       <c r="B2292" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="2293">
       <c r="A2293" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="B2293" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
       <c r="B2294" t="s">
-        <v>4447</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="2295">
@@ -38665,31 +38704,31 @@
         <v>4452</v>
       </c>
       <c r="B2297" t="s">
-        <v>1186</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="B2298" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
       <c r="B2299" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="B2300" t="s">
-        <v>4458</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="2301">
@@ -38713,31 +38752,31 @@
         <v>4463</v>
       </c>
       <c r="B2303" t="s">
-        <v>2587</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2304">
       <c r="A2304" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="B2304" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="B2305" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2306">
       <c r="A2306" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="B2306" t="s">
-        <v>4469</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="2307">
@@ -38841,55 +38880,55 @@
         <v>4494</v>
       </c>
       <c r="B2319" t="s">
-        <v>4493</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
       <c r="B2320" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="2321">
       <c r="A2321" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="B2321" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B2322" t="s">
         <v>4499</v>
-      </c>
-      <c r="B2322" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="2323">
       <c r="A2323" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="B2323" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="B2324" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="2325">
       <c r="A2325" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="B2325" t="s">
-        <v>4505</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2326">
@@ -38921,31 +38960,31 @@
         <v>4512</v>
       </c>
       <c r="B2329" t="s">
-        <v>897</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="2330">
       <c r="A2330" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="B2330" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="B2331" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="2332">
       <c r="A2332" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="B2332" t="s">
-        <v>4518</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2333">
@@ -39137,31 +39176,31 @@
         <v>4565</v>
       </c>
       <c r="B2356" t="s">
-        <v>897</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="B2357" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="B2358" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="B2359" t="s">
-        <v>4571</v>
+        <v>897</v>
       </c>
     </row>
     <row r="2360">
@@ -39289,39 +39328,39 @@
         <v>4602</v>
       </c>
       <c r="B2375" t="s">
-        <v>4600</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="B2376" t="s">
-        <v>331</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="2377">
       <c r="A2377" t="s">
-        <v>4604</v>
+        <v>4606</v>
       </c>
       <c r="B2377" t="s">
-        <v>4605</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B2378" t="s">
         <v>4606</v>
-      </c>
-      <c r="B2378" t="s">
-        <v>4607</v>
       </c>
     </row>
     <row r="2379">
       <c r="A2379" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="B2379" t="s">
-        <v>4609</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2380">
@@ -39353,31 +39392,31 @@
         <v>4616</v>
       </c>
       <c r="B2383" t="s">
-        <v>4084</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="B2384" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="B2385" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="B2386" t="s">
-        <v>4622</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="2387">
@@ -39489,52 +39528,52 @@
         <v>4649</v>
       </c>
       <c r="B2400" t="s">
-        <v>2477</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="B2401" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
     </row>
     <row r="2402">
       <c r="A2402" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="B2402" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="s">
-        <v>2879</v>
+        <v>4655</v>
       </c>
       <c r="B2403" t="s">
-        <v>4654</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="B2404" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="B2405" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="s">
-        <v>4659</v>
+        <v>2883</v>
       </c>
       <c r="B2406" t="s">
         <v>4660</v>
@@ -39569,31 +39608,31 @@
         <v>4667</v>
       </c>
       <c r="B2410" t="s">
-        <v>593</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="B2411" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="2412">
       <c r="A2412" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="B2412" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="B2413" t="s">
-        <v>4673</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2414">
@@ -39854,90 +39893,90 @@
     </row>
     <row r="2446">
       <c r="A2446" t="s">
-        <v>4005</v>
+        <v>4738</v>
       </c>
       <c r="B2446" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="2447">
       <c r="A2447" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
       <c r="B2447" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="2448">
       <c r="A2448" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
       <c r="B2448" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="2449">
       <c r="A2449" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
       <c r="B2449" t="s">
-        <v>1615</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="2450">
       <c r="A2450" t="s">
-        <v>4744</v>
+        <v>4011</v>
       </c>
       <c r="B2450" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="2451">
       <c r="A2451" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="B2451" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="2452">
       <c r="A2452" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
       <c r="B2452" t="s">
-        <v>1139</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="2453">
       <c r="A2453" t="s">
-        <v>4749</v>
+        <v>4751</v>
       </c>
       <c r="B2453" t="s">
-        <v>4750</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="2454">
       <c r="A2454" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="B2454" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="2455">
       <c r="A2455" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="B2455" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="2456">
       <c r="A2456" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="B2456" t="s">
-        <v>4756</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="2457">
@@ -40009,39 +40048,39 @@
         <v>4773</v>
       </c>
       <c r="B2465" t="s">
-        <v>4772</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="2466">
       <c r="A2466" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="B2466" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="2467">
       <c r="A2467" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
       <c r="B2467" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="2468">
       <c r="A2468" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
       <c r="B2468" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="2469">
       <c r="A2469" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B2469" t="s">
         <v>4780</v>
-      </c>
-      <c r="B2469" t="s">
-        <v>4781</v>
       </c>
     </row>
     <row r="2470">
@@ -40137,39 +40176,39 @@
         <v>4804</v>
       </c>
       <c r="B2481" t="s">
-        <v>1007</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="2482">
       <c r="A2482" t="s">
-        <v>4805</v>
+        <v>4806</v>
       </c>
       <c r="B2482" t="s">
-        <v>4806</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="2483">
       <c r="A2483" t="s">
-        <v>4807</v>
+        <v>4808</v>
       </c>
       <c r="B2483" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2484">
       <c r="A2484" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
       <c r="B2484" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="2485">
       <c r="A2485" t="s">
-        <v>4811</v>
+        <v>4812</v>
       </c>
       <c r="B2485" t="s">
-        <v>4812</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2486">
@@ -40190,55 +40229,55 @@
     </row>
     <row r="2488">
       <c r="A2488" t="s">
-        <v>2366</v>
+        <v>4817</v>
       </c>
       <c r="B2488" t="s">
-        <v>4817</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="2489">
       <c r="A2489" t="s">
-        <v>4818</v>
+        <v>4819</v>
       </c>
       <c r="B2489" t="s">
-        <v>4819</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="2490">
       <c r="A2490" t="s">
-        <v>3437</v>
+        <v>4821</v>
       </c>
       <c r="B2490" t="s">
-        <v>4820</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="2491">
       <c r="A2491" t="s">
-        <v>4821</v>
+        <v>4823</v>
       </c>
       <c r="B2491" t="s">
-        <v>4822</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="2492">
       <c r="A2492" t="s">
-        <v>4823</v>
+        <v>2368</v>
       </c>
       <c r="B2492" t="s">
-        <v>4824</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="2493">
       <c r="A2493" t="s">
-        <v>4825</v>
+        <v>4826</v>
       </c>
       <c r="B2493" t="s">
-        <v>4826</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="2494">
       <c r="A2494" t="s">
-        <v>4827</v>
+        <v>3441</v>
       </c>
       <c r="B2494" t="s">
         <v>4828</v>
@@ -40289,39 +40328,39 @@
         <v>4839</v>
       </c>
       <c r="B2500" t="s">
-        <v>4836</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="2501">
       <c r="A2501" t="s">
-        <v>4840</v>
+        <v>4841</v>
       </c>
       <c r="B2501" t="s">
-        <v>4841</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="2502">
       <c r="A2502" t="s">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="B2502" t="s">
-        <v>4843</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="2503">
       <c r="A2503" t="s">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="B2503" t="s">
-        <v>4845</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="2504">
       <c r="A2504" t="s">
-        <v>4846</v>
+        <v>4847</v>
       </c>
       <c r="B2504" t="s">
-        <v>4847</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="2505">
@@ -40433,39 +40472,39 @@
         <v>4874</v>
       </c>
       <c r="B2518" t="s">
-        <v>2587</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="2519">
       <c r="A2519" t="s">
-        <v>4875</v>
+        <v>4876</v>
       </c>
       <c r="B2519" t="s">
-        <v>4876</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="2520">
       <c r="A2520" t="s">
-        <v>4877</v>
+        <v>4878</v>
       </c>
       <c r="B2520" t="s">
-        <v>4878</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="2521">
       <c r="A2521" t="s">
-        <v>4879</v>
+        <v>4880</v>
       </c>
       <c r="B2521" t="s">
-        <v>4880</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="2522">
       <c r="A2522" t="s">
-        <v>4881</v>
+        <v>4882</v>
       </c>
       <c r="B2522" t="s">
-        <v>4882</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="2523">
@@ -40729,39 +40768,39 @@
         <v>4947</v>
       </c>
       <c r="B2555" t="s">
-        <v>1007</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="2556">
       <c r="A2556" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
       <c r="B2556" t="s">
-        <v>4949</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="2557">
       <c r="A2557" t="s">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="B2557" t="s">
-        <v>4951</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="2558">
       <c r="A2558" t="s">
-        <v>4952</v>
+        <v>4953</v>
       </c>
       <c r="B2558" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="2559">
       <c r="A2559" t="s">
-        <v>4954</v>
+        <v>4955</v>
       </c>
       <c r="B2559" t="s">
-        <v>4955</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2560">
@@ -40833,39 +40872,39 @@
         <v>4972</v>
       </c>
       <c r="B2568" t="s">
-        <v>1715</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2569">
       <c r="A2569" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="B2569" t="s">
-        <v>4974</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="2570">
       <c r="A2570" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
       <c r="B2570" t="s">
-        <v>4976</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2571">
       <c r="A2571" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
       <c r="B2571" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2572">
       <c r="A2572" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="B2572" t="s">
-        <v>4980</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="2573">
@@ -40905,39 +40944,39 @@
         <v>4989</v>
       </c>
       <c r="B2577" t="s">
-        <v>1005</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="2578">
       <c r="A2578" t="s">
-        <v>4990</v>
+        <v>4991</v>
       </c>
       <c r="B2578" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="2579">
       <c r="A2579" t="s">
-        <v>4992</v>
+        <v>4993</v>
       </c>
       <c r="B2579" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="2580">
       <c r="A2580" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
       <c r="B2580" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="2581">
       <c r="A2581" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
       <c r="B2581" t="s">
-        <v>4997</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2582">
@@ -41137,55 +41176,55 @@
         <v>5046</v>
       </c>
       <c r="B2606" t="s">
-        <v>2381</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="2607">
       <c r="A2607" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
       <c r="B2607" t="s">
-        <v>5048</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="2608">
       <c r="A2608" t="s">
-        <v>1739</v>
+        <v>5050</v>
       </c>
       <c r="B2608" t="s">
-        <v>1738</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="2609">
       <c r="A2609" t="s">
-        <v>5049</v>
+        <v>5052</v>
       </c>
       <c r="B2609" t="s">
-        <v>5050</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="2610">
       <c r="A2610" t="s">
-        <v>5051</v>
+        <v>5054</v>
       </c>
       <c r="B2610" t="s">
-        <v>5052</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="2611">
       <c r="A2611" t="s">
-        <v>5053</v>
+        <v>5055</v>
       </c>
       <c r="B2611" t="s">
-        <v>5054</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="2612">
       <c r="A2612" t="s">
-        <v>5055</v>
+        <v>1739</v>
       </c>
       <c r="B2612" t="s">
-        <v>5056</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="2613">
@@ -41449,47 +41488,47 @@
         <v>5121</v>
       </c>
       <c r="B2645" t="s">
-        <v>4302</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="2646">
       <c r="A2646" t="s">
-        <v>5122</v>
+        <v>5123</v>
       </c>
       <c r="B2646" t="s">
-        <v>1233</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="2647">
       <c r="A2647" t="s">
-        <v>5123</v>
+        <v>5125</v>
       </c>
       <c r="B2647" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="2648">
       <c r="A2648" t="s">
-        <v>5125</v>
+        <v>5127</v>
       </c>
       <c r="B2648" t="s">
-        <v>5126</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="2649">
       <c r="A2649" t="s">
-        <v>5127</v>
+        <v>5129</v>
       </c>
       <c r="B2649" t="s">
-        <v>5128</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="2650">
       <c r="A2650" t="s">
-        <v>5129</v>
+        <v>5130</v>
       </c>
       <c r="B2650" t="s">
-        <v>5130</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="2651">
@@ -41529,39 +41568,39 @@
         <v>5139</v>
       </c>
       <c r="B2655" t="s">
-        <v>1412</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="2656">
       <c r="A2656" t="s">
-        <v>5140</v>
+        <v>5141</v>
       </c>
       <c r="B2656" t="s">
-        <v>5141</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="2657">
       <c r="A2657" t="s">
-        <v>5142</v>
+        <v>5143</v>
       </c>
       <c r="B2657" t="s">
-        <v>5143</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="2658">
       <c r="A2658" t="s">
-        <v>5144</v>
+        <v>5145</v>
       </c>
       <c r="B2658" t="s">
-        <v>5145</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="2659">
       <c r="A2659" t="s">
-        <v>5146</v>
+        <v>5147</v>
       </c>
       <c r="B2659" t="s">
-        <v>5147</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2660">
@@ -41657,39 +41696,39 @@
         <v>5170</v>
       </c>
       <c r="B2671" t="s">
-        <v>855</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2672">
       <c r="A2672" t="s">
-        <v>5171</v>
+        <v>5172</v>
       </c>
       <c r="B2672" t="s">
-        <v>5172</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="2673">
       <c r="A2673" t="s">
-        <v>5173</v>
+        <v>5174</v>
       </c>
       <c r="B2673" t="s">
-        <v>5174</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="2674">
       <c r="A2674" t="s">
-        <v>5175</v>
+        <v>5176</v>
       </c>
       <c r="B2674" t="s">
-        <v>5176</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="2675">
       <c r="A2675" t="s">
-        <v>5177</v>
+        <v>5178</v>
       </c>
       <c r="B2675" t="s">
-        <v>5178</v>
+        <v>855</v>
       </c>
     </row>
     <row r="2676">
@@ -41726,34 +41765,34 @@
     </row>
     <row r="2680">
       <c r="A2680" t="s">
-        <v>5186</v>
+        <v>5187</v>
       </c>
       <c r="B2680" t="s">
-        <v>5187</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="2681">
       <c r="A2681" t="s">
-        <v>5188</v>
+        <v>5189</v>
       </c>
       <c r="B2681" t="s">
-        <v>5189</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="2682">
       <c r="A2682" t="s">
-        <v>5190</v>
+        <v>5191</v>
       </c>
       <c r="B2682" t="s">
-        <v>5191</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="2683">
       <c r="A2683" t="s">
-        <v>5192</v>
+        <v>5193</v>
       </c>
       <c r="B2683" t="s">
-        <v>5193</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="2684">
@@ -41889,39 +41928,39 @@
         <v>5226</v>
       </c>
       <c r="B2700" t="s">
-        <v>295</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="2701">
       <c r="A2701" t="s">
-        <v>5227</v>
+        <v>5228</v>
       </c>
       <c r="B2701" t="s">
-        <v>5228</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="2702">
       <c r="A2702" t="s">
-        <v>5229</v>
+        <v>5230</v>
       </c>
       <c r="B2702" t="s">
-        <v>5230</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="2703">
       <c r="A2703" t="s">
-        <v>5231</v>
+        <v>5232</v>
       </c>
       <c r="B2703" t="s">
-        <v>5232</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="2704">
       <c r="A2704" t="s">
-        <v>5233</v>
+        <v>5234</v>
       </c>
       <c r="B2704" t="s">
-        <v>5234</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2705">
@@ -41961,39 +42000,39 @@
         <v>5243</v>
       </c>
       <c r="B2709" t="s">
-        <v>2338</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="2710">
       <c r="A2710" t="s">
-        <v>5244</v>
+        <v>5245</v>
       </c>
       <c r="B2710" t="s">
-        <v>5245</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="2711">
       <c r="A2711" t="s">
-        <v>5246</v>
+        <v>5247</v>
       </c>
       <c r="B2711" t="s">
-        <v>5247</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="2712">
       <c r="A2712" t="s">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="B2712" t="s">
-        <v>5249</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="2713">
       <c r="A2713" t="s">
-        <v>5250</v>
+        <v>5251</v>
       </c>
       <c r="B2713" t="s">
-        <v>5251</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="2714">
@@ -42089,39 +42128,39 @@
         <v>5274</v>
       </c>
       <c r="B2725" t="s">
-        <v>3122</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="2726">
       <c r="A2726" t="s">
-        <v>5275</v>
+        <v>5276</v>
       </c>
       <c r="B2726" t="s">
-        <v>5276</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="2727">
       <c r="A2727" t="s">
-        <v>5277</v>
+        <v>5278</v>
       </c>
       <c r="B2727" t="s">
-        <v>5278</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="2728">
       <c r="A2728" t="s">
-        <v>5279</v>
+        <v>5280</v>
       </c>
       <c r="B2728" t="s">
-        <v>5280</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="2729">
       <c r="A2729" t="s">
-        <v>5281</v>
+        <v>5282</v>
       </c>
       <c r="B2729" t="s">
-        <v>5282</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="2730">
@@ -42153,55 +42192,55 @@
         <v>5289</v>
       </c>
       <c r="B2733" t="s">
-        <v>512</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="2734">
       <c r="A2734" t="s">
-        <v>5290</v>
+        <v>5291</v>
       </c>
       <c r="B2734" t="s">
-        <v>5291</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="2735">
       <c r="A2735" t="s">
-        <v>5292</v>
+        <v>5293</v>
       </c>
       <c r="B2735" t="s">
-        <v>993</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="2736">
       <c r="A2736" t="s">
-        <v>5293</v>
+        <v>5295</v>
       </c>
       <c r="B2736" t="s">
-        <v>5294</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="2737">
       <c r="A2737" t="s">
-        <v>5295</v>
+        <v>5297</v>
       </c>
       <c r="B2737" t="s">
-        <v>5296</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2738">
       <c r="A2738" t="s">
-        <v>5297</v>
+        <v>5298</v>
       </c>
       <c r="B2738" t="s">
-        <v>5298</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="2739">
       <c r="A2739" t="s">
-        <v>5299</v>
+        <v>5300</v>
       </c>
       <c r="B2739" t="s">
-        <v>5300</v>
+        <v>993</v>
       </c>
     </row>
     <row r="2740">
@@ -42262,63 +42301,63 @@
     </row>
     <row r="2747">
       <c r="A2747" t="s">
-        <v>1069</v>
+        <v>5315</v>
       </c>
       <c r="B2747" t="s">
-        <v>5315</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="2748">
       <c r="A2748" t="s">
-        <v>5316</v>
+        <v>5317</v>
       </c>
       <c r="B2748" t="s">
-        <v>5317</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="2749">
       <c r="A2749" t="s">
-        <v>5318</v>
+        <v>5319</v>
       </c>
       <c r="B2749" t="s">
-        <v>5319</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="2750">
       <c r="A2750" t="s">
-        <v>4928</v>
+        <v>5321</v>
       </c>
       <c r="B2750" t="s">
-        <v>5320</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="2751">
       <c r="A2751" t="s">
-        <v>5321</v>
+        <v>1069</v>
       </c>
       <c r="B2751" t="s">
-        <v>5322</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="2752">
       <c r="A2752" t="s">
-        <v>5323</v>
+        <v>5324</v>
       </c>
       <c r="B2752" t="s">
-        <v>5324</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="2753">
       <c r="A2753" t="s">
-        <v>5325</v>
+        <v>5326</v>
       </c>
       <c r="B2753" t="s">
-        <v>5326</v>
+        <v>5327</v>
       </c>
     </row>
     <row r="2754">
       <c r="A2754" t="s">
-        <v>5327</v>
+        <v>4936</v>
       </c>
       <c r="B2754" t="s">
         <v>5328</v>
@@ -42345,63 +42384,63 @@
         <v>5333</v>
       </c>
       <c r="B2757" t="s">
-        <v>3122</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="2758">
       <c r="A2758" t="s">
-        <v>5334</v>
+        <v>5335</v>
       </c>
       <c r="B2758" t="s">
-        <v>5335</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="2759">
       <c r="A2759" t="s">
-        <v>5336</v>
+        <v>5337</v>
       </c>
       <c r="B2759" t="s">
-        <v>5337</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="2760">
       <c r="A2760" t="s">
-        <v>5338</v>
+        <v>5339</v>
       </c>
       <c r="B2760" t="s">
-        <v>1470</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="2761">
       <c r="A2761" t="s">
-        <v>5339</v>
+        <v>5341</v>
       </c>
       <c r="B2761" t="s">
-        <v>5340</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="2762">
       <c r="A2762" t="s">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="B2762" t="s">
-        <v>5342</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="2763">
       <c r="A2763" t="s">
-        <v>5343</v>
+        <v>5344</v>
       </c>
       <c r="B2763" t="s">
-        <v>5344</v>
+        <v>5345</v>
       </c>
     </row>
     <row r="2764">
       <c r="A2764" t="s">
-        <v>5345</v>
+        <v>5346</v>
       </c>
       <c r="B2764" t="s">
-        <v>5346</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="2765">
@@ -42441,39 +42480,39 @@
         <v>5355</v>
       </c>
       <c r="B2769" t="s">
-        <v>1702</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="2770">
       <c r="A2770" t="s">
-        <v>5356</v>
+        <v>5357</v>
       </c>
       <c r="B2770" t="s">
-        <v>5357</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="2771">
       <c r="A2771" t="s">
-        <v>5358</v>
+        <v>5359</v>
       </c>
       <c r="B2771" t="s">
-        <v>5359</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="2772">
       <c r="A2772" t="s">
-        <v>5360</v>
+        <v>5361</v>
       </c>
       <c r="B2772" t="s">
-        <v>5361</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="2773">
       <c r="A2773" t="s">
-        <v>5362</v>
+        <v>5363</v>
       </c>
       <c r="B2773" t="s">
-        <v>5363</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="2774">
@@ -42641,39 +42680,39 @@
         <v>5404</v>
       </c>
       <c r="B2794" t="s">
-        <v>3614</v>
+        <v>5405</v>
       </c>
     </row>
     <row r="2795">
       <c r="A2795" t="s">
-        <v>5405</v>
+        <v>5406</v>
       </c>
       <c r="B2795" t="s">
-        <v>5406</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="2796">
       <c r="A2796" t="s">
-        <v>5407</v>
+        <v>5408</v>
       </c>
       <c r="B2796" t="s">
-        <v>5408</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="2797">
       <c r="A2797" t="s">
-        <v>5409</v>
+        <v>5410</v>
       </c>
       <c r="B2797" t="s">
-        <v>5410</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="2798">
       <c r="A2798" t="s">
-        <v>5411</v>
+        <v>5412</v>
       </c>
       <c r="B2798" t="s">
-        <v>5412</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="2799">
@@ -42718,138 +42757,138 @@
     </row>
     <row r="2804">
       <c r="A2804" t="s">
-        <v>2616</v>
+        <v>5423</v>
       </c>
       <c r="B2804" t="s">
-        <v>5423</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="2805">
       <c r="A2805" t="s">
-        <v>5424</v>
+        <v>5425</v>
       </c>
       <c r="B2805" t="s">
-        <v>5425</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="2806">
       <c r="A2806" t="s">
-        <v>5426</v>
+        <v>5427</v>
       </c>
       <c r="B2806" t="s">
-        <v>1414</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="2807">
       <c r="A2807" t="s">
-        <v>5427</v>
+        <v>5429</v>
       </c>
       <c r="B2807" t="s">
-        <v>5428</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="2808">
       <c r="A2808" t="s">
-        <v>5429</v>
+        <v>2620</v>
       </c>
       <c r="B2808" t="s">
-        <v>5430</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="2809">
       <c r="A2809" t="s">
-        <v>5431</v>
+        <v>5432</v>
       </c>
       <c r="B2809" t="s">
-        <v>5432</v>
+        <v>5433</v>
       </c>
     </row>
     <row r="2810">
       <c r="A2810" t="s">
-        <v>5433</v>
+        <v>5434</v>
       </c>
       <c r="B2810" t="s">
-        <v>5434</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="2811">
       <c r="A2811" t="s">
-        <v>3725</v>
+        <v>5435</v>
       </c>
       <c r="B2811" t="s">
-        <v>5435</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="2812">
       <c r="A2812" t="s">
-        <v>5436</v>
+        <v>5437</v>
       </c>
       <c r="B2812" t="s">
-        <v>5437</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="2813">
       <c r="A2813" t="s">
-        <v>5438</v>
+        <v>5439</v>
       </c>
       <c r="B2813" t="s">
-        <v>5439</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="2814">
       <c r="A2814" t="s">
-        <v>5440</v>
+        <v>5441</v>
       </c>
       <c r="B2814" t="s">
-        <v>5441</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="2815">
       <c r="A2815" t="s">
-        <v>3</v>
+        <v>3731</v>
       </c>
       <c r="B2815" t="s">
-        <v>5442</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="2816">
       <c r="A2816" t="s">
-        <v>5443</v>
+        <v>5444</v>
       </c>
       <c r="B2816" t="s">
-        <v>5413</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="2817">
       <c r="A2817" t="s">
-        <v>5444</v>
+        <v>5446</v>
       </c>
       <c r="B2817" t="s">
-        <v>5445</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="2818">
       <c r="A2818" t="s">
-        <v>5446</v>
+        <v>5448</v>
       </c>
       <c r="B2818" t="s">
-        <v>5447</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="2819">
       <c r="A2819" t="s">
-        <v>5448</v>
+        <v>3</v>
       </c>
       <c r="B2819" t="s">
-        <v>5449</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="2820">
       <c r="A2820" t="s">
-        <v>5450</v>
+        <v>5451</v>
       </c>
       <c r="B2820" t="s">
-        <v>5451</v>
+        <v>5421</v>
       </c>
     </row>
     <row r="2821">
@@ -42865,68 +42904,68 @@
         <v>5454</v>
       </c>
       <c r="B2822" t="s">
-        <v>2505</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="2823">
       <c r="A2823" t="s">
-        <v>5455</v>
+        <v>5456</v>
       </c>
       <c r="B2823" t="s">
-        <v>5456</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="2824">
       <c r="A2824" t="s">
-        <v>5457</v>
+        <v>5458</v>
       </c>
       <c r="B2824" t="s">
-        <v>5458</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="2825">
       <c r="A2825" t="s">
-        <v>5459</v>
+        <v>5460</v>
       </c>
       <c r="B2825" t="s">
-        <v>5460</v>
+        <v>5461</v>
       </c>
     </row>
     <row r="2826">
       <c r="A2826" t="s">
-        <v>293</v>
+        <v>5462</v>
       </c>
       <c r="B2826" t="s">
-        <v>5461</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="2827">
       <c r="A2827" t="s">
-        <v>5462</v>
+        <v>5463</v>
       </c>
       <c r="B2827" t="s">
-        <v>5463</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="2828">
       <c r="A2828" t="s">
-        <v>5464</v>
+        <v>5465</v>
       </c>
       <c r="B2828" t="s">
-        <v>5465</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="2829">
       <c r="A2829" t="s">
-        <v>5466</v>
+        <v>5467</v>
       </c>
       <c r="B2829" t="s">
-        <v>5467</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="2830">
       <c r="A2830" t="s">
-        <v>5468</v>
+        <v>293</v>
       </c>
       <c r="B2830" t="s">
         <v>5469</v>
@@ -42961,39 +43000,39 @@
         <v>5476</v>
       </c>
       <c r="B2834" t="s">
-        <v>2129</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="2835">
       <c r="A2835" t="s">
-        <v>5477</v>
+        <v>5478</v>
       </c>
       <c r="B2835" t="s">
-        <v>5478</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="2836">
       <c r="A2836" t="s">
-        <v>5479</v>
+        <v>5480</v>
       </c>
       <c r="B2836" t="s">
-        <v>5480</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="2837">
       <c r="A2837" t="s">
-        <v>5481</v>
+        <v>5482</v>
       </c>
       <c r="B2837" t="s">
-        <v>5482</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="2838">
       <c r="A2838" t="s">
-        <v>5483</v>
+        <v>5484</v>
       </c>
       <c r="B2838" t="s">
-        <v>5484</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="2839">
@@ -43025,39 +43064,39 @@
         <v>5491</v>
       </c>
       <c r="B2842" t="s">
-        <v>2540</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="2843">
       <c r="A2843" t="s">
-        <v>5492</v>
+        <v>5493</v>
       </c>
       <c r="B2843" t="s">
-        <v>5493</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="2844">
       <c r="A2844" t="s">
-        <v>5494</v>
+        <v>5495</v>
       </c>
       <c r="B2844" t="s">
-        <v>5495</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="s">
-        <v>5496</v>
+        <v>5497</v>
       </c>
       <c r="B2845" t="s">
-        <v>5497</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="s">
-        <v>5498</v>
+        <v>5499</v>
       </c>
       <c r="B2846" t="s">
-        <v>5499</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="2847">
@@ -43190,39 +43229,39 @@
     </row>
     <row r="2863">
       <c r="A2863" t="s">
-        <v>3044</v>
+        <v>5532</v>
       </c>
       <c r="B2863" t="s">
-        <v>5532</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="2864">
       <c r="A2864" t="s">
-        <v>5533</v>
+        <v>5534</v>
       </c>
       <c r="B2864" t="s">
-        <v>5534</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="s">
-        <v>5535</v>
+        <v>5536</v>
       </c>
       <c r="B2865" t="s">
-        <v>5536</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="s">
-        <v>5537</v>
+        <v>5538</v>
       </c>
       <c r="B2866" t="s">
-        <v>5538</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="s">
-        <v>5539</v>
+        <v>3048</v>
       </c>
       <c r="B2867" t="s">
         <v>5540</v>
@@ -43230,39 +43269,39 @@
     </row>
     <row r="2868">
       <c r="A2868" t="s">
-        <v>730</v>
+        <v>5541</v>
       </c>
       <c r="B2868" t="s">
-        <v>5541</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="2869">
       <c r="A2869" t="s">
-        <v>5542</v>
+        <v>5543</v>
       </c>
       <c r="B2869" t="s">
-        <v>5543</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="2870">
       <c r="A2870" t="s">
-        <v>5544</v>
+        <v>5545</v>
       </c>
       <c r="B2870" t="s">
-        <v>5545</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="2871">
       <c r="A2871" t="s">
-        <v>5546</v>
+        <v>5547</v>
       </c>
       <c r="B2871" t="s">
-        <v>5547</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="2872">
       <c r="A2872" t="s">
-        <v>5548</v>
+        <v>730</v>
       </c>
       <c r="B2872" t="s">
         <v>5549</v>
@@ -43286,39 +43325,39 @@
     </row>
     <row r="2875">
       <c r="A2875" t="s">
-        <v>3531</v>
+        <v>5554</v>
       </c>
       <c r="B2875" t="s">
-        <v>5554</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="s">
-        <v>5555</v>
+        <v>5556</v>
       </c>
       <c r="B2876" t="s">
-        <v>5556</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="s">
-        <v>5557</v>
+        <v>5558</v>
       </c>
       <c r="B2877" t="s">
-        <v>5558</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="s">
-        <v>5559</v>
+        <v>5560</v>
       </c>
       <c r="B2878" t="s">
-        <v>5560</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="2879">
       <c r="A2879" t="s">
-        <v>5561</v>
+        <v>3535</v>
       </c>
       <c r="B2879" t="s">
         <v>5562</v>
@@ -43353,79 +43392,79 @@
         <v>5569</v>
       </c>
       <c r="B2883" t="s">
-        <v>2635</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="2884">
       <c r="A2884" t="s">
-        <v>5570</v>
+        <v>5571</v>
       </c>
       <c r="B2884" t="s">
-        <v>1335</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="2885">
       <c r="A2885" t="s">
-        <v>5571</v>
+        <v>5573</v>
       </c>
       <c r="B2885" t="s">
-        <v>5572</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="2886">
       <c r="A2886" t="s">
-        <v>5573</v>
+        <v>5575</v>
       </c>
       <c r="B2886" t="s">
-        <v>5574</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="2887">
       <c r="A2887" t="s">
-        <v>5575</v>
+        <v>5577</v>
       </c>
       <c r="B2887" t="s">
-        <v>1139</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="2888">
       <c r="A2888" t="s">
-        <v>5576</v>
+        <v>5578</v>
       </c>
       <c r="B2888" t="s">
-        <v>2269</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2889">
       <c r="A2889" t="s">
-        <v>5577</v>
+        <v>5579</v>
       </c>
       <c r="B2889" t="s">
-        <v>5578</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2890">
       <c r="A2890" t="s">
-        <v>5579</v>
+        <v>5581</v>
       </c>
       <c r="B2890" t="s">
-        <v>5580</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="2891">
       <c r="A2891" t="s">
-        <v>5581</v>
+        <v>5583</v>
       </c>
       <c r="B2891" t="s">
-        <v>5582</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="2892">
       <c r="A2892" t="s">
-        <v>5583</v>
+        <v>5584</v>
       </c>
       <c r="B2892" t="s">
-        <v>5584</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="2893">
@@ -43521,71 +43560,71 @@
         <v>5607</v>
       </c>
       <c r="B2904" t="s">
-        <v>5269</v>
+        <v>5608</v>
       </c>
     </row>
     <row r="2905">
       <c r="A2905" t="s">
-        <v>5608</v>
+        <v>5609</v>
       </c>
       <c r="B2905" t="s">
-        <v>5609</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="2906">
       <c r="A2906" t="s">
-        <v>5610</v>
+        <v>5611</v>
       </c>
       <c r="B2906" t="s">
-        <v>5611</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="2907">
       <c r="A2907" t="s">
-        <v>5612</v>
+        <v>5613</v>
       </c>
       <c r="B2907" t="s">
-        <v>5613</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="2908">
       <c r="A2908" t="s">
-        <v>5614</v>
+        <v>5615</v>
       </c>
       <c r="B2908" t="s">
-        <v>294</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="2909">
       <c r="A2909" t="s">
-        <v>5615</v>
+        <v>5616</v>
       </c>
       <c r="B2909" t="s">
-        <v>5616</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="2910">
       <c r="A2910" t="s">
-        <v>5617</v>
+        <v>5618</v>
       </c>
       <c r="B2910" t="s">
-        <v>5618</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="2911">
       <c r="A2911" t="s">
-        <v>5619</v>
+        <v>5620</v>
       </c>
       <c r="B2911" t="s">
-        <v>5620</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="2912">
       <c r="A2912" t="s">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="B2912" t="s">
-        <v>5622</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2913">
@@ -43630,39 +43669,39 @@
     </row>
     <row r="2918">
       <c r="A2918" t="s">
-        <v>3467</v>
+        <v>5633</v>
       </c>
       <c r="B2918" t="s">
-        <v>5633</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="2919">
       <c r="A2919" t="s">
-        <v>5634</v>
+        <v>5635</v>
       </c>
       <c r="B2919" t="s">
-        <v>5635</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="2920">
       <c r="A2920" t="s">
-        <v>5636</v>
+        <v>5637</v>
       </c>
       <c r="B2920" t="s">
-        <v>5637</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="2921">
       <c r="A2921" t="s">
-        <v>5638</v>
+        <v>5639</v>
       </c>
       <c r="B2921" t="s">
-        <v>5639</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="2922">
       <c r="A2922" t="s">
-        <v>5640</v>
+        <v>3471</v>
       </c>
       <c r="B2922" t="s">
         <v>5641</v>
@@ -43681,87 +43720,87 @@
         <v>5644</v>
       </c>
       <c r="B2924" t="s">
-        <v>3674</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="2925">
       <c r="A2925" t="s">
-        <v>5645</v>
+        <v>5646</v>
       </c>
       <c r="B2925" t="s">
-        <v>5646</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="2926">
       <c r="A2926" t="s">
-        <v>5647</v>
+        <v>5648</v>
       </c>
       <c r="B2926" t="s">
-        <v>989</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="2927">
       <c r="A2927" t="s">
-        <v>5648</v>
+        <v>5650</v>
       </c>
       <c r="B2927" t="s">
-        <v>1190</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="2928">
       <c r="A2928" t="s">
-        <v>5649</v>
+        <v>5652</v>
       </c>
       <c r="B2928" t="s">
-        <v>5650</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="2929">
       <c r="A2929" t="s">
-        <v>5651</v>
+        <v>5653</v>
       </c>
       <c r="B2929" t="s">
-        <v>5652</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="2930">
       <c r="A2930" t="s">
-        <v>5653</v>
+        <v>5655</v>
       </c>
       <c r="B2930" t="s">
-        <v>3370</v>
+        <v>989</v>
       </c>
     </row>
     <row r="2931">
       <c r="A2931" t="s">
-        <v>5654</v>
+        <v>5656</v>
       </c>
       <c r="B2931" t="s">
-        <v>5655</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="2932">
       <c r="A2932" t="s">
-        <v>5656</v>
+        <v>5657</v>
       </c>
       <c r="B2932" t="s">
-        <v>5657</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="2933">
       <c r="A2933" t="s">
-        <v>5658</v>
+        <v>5659</v>
       </c>
       <c r="B2933" t="s">
-        <v>5659</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="2934">
       <c r="A2934" t="s">
-        <v>5660</v>
+        <v>5661</v>
       </c>
       <c r="B2934" t="s">
-        <v>5661</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="2935">
@@ -43793,47 +43832,47 @@
         <v>5668</v>
       </c>
       <c r="B2938" t="s">
-        <v>1055</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="2939">
       <c r="A2939" t="s">
-        <v>5669</v>
+        <v>5670</v>
       </c>
       <c r="B2939" t="s">
-        <v>2639</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="2940">
       <c r="A2940" t="s">
-        <v>5670</v>
+        <v>5672</v>
       </c>
       <c r="B2940" t="s">
-        <v>5671</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="2941">
       <c r="A2941" t="s">
-        <v>5672</v>
+        <v>5674</v>
       </c>
       <c r="B2941" t="s">
-        <v>5673</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="2942">
       <c r="A2942" t="s">
-        <v>5674</v>
+        <v>5676</v>
       </c>
       <c r="B2942" t="s">
-        <v>5675</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2943">
       <c r="A2943" t="s">
-        <v>5676</v>
+        <v>5677</v>
       </c>
       <c r="B2943" t="s">
-        <v>5677</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="2944">
@@ -44009,39 +44048,39 @@
         <v>5720</v>
       </c>
       <c r="B2965" t="s">
-        <v>4687</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="2966">
       <c r="A2966" t="s">
-        <v>5721</v>
+        <v>5722</v>
       </c>
       <c r="B2966" t="s">
-        <v>5722</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="2967">
       <c r="A2967" t="s">
-        <v>5723</v>
+        <v>5724</v>
       </c>
       <c r="B2967" t="s">
-        <v>5724</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="2968">
       <c r="A2968" t="s">
-        <v>5725</v>
+        <v>5726</v>
       </c>
       <c r="B2968" t="s">
-        <v>5726</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="2969">
       <c r="A2969" t="s">
-        <v>5727</v>
+        <v>5728</v>
       </c>
       <c r="B2969" t="s">
-        <v>5728</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="2970">
@@ -44198,39 +44237,39 @@
     </row>
     <row r="2989">
       <c r="A2989" t="s">
-        <v>4717</v>
+        <v>5767</v>
       </c>
       <c r="B2989" t="s">
-        <v>5767</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="2990">
       <c r="A2990" t="s">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="B2990" t="s">
-        <v>5769</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="2991">
       <c r="A2991" t="s">
-        <v>5770</v>
+        <v>5771</v>
       </c>
       <c r="B2991" t="s">
-        <v>5771</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="2992">
       <c r="A2992" t="s">
-        <v>5772</v>
+        <v>5773</v>
       </c>
       <c r="B2992" t="s">
-        <v>5773</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="2993">
       <c r="A2993" t="s">
-        <v>5774</v>
+        <v>4723</v>
       </c>
       <c r="B2993" t="s">
         <v>5775</v>
@@ -44254,39 +44293,39 @@
     </row>
     <row r="2996">
       <c r="A2996" t="s">
-        <v>5778</v>
+        <v>5780</v>
       </c>
       <c r="B2996" t="s">
-        <v>5780</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="2997">
       <c r="A2997" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="B2997" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="2998">
       <c r="A2998" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="B2998" t="s">
-        <v>5784</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="2999">
       <c r="A2999" t="s">
-        <v>5785</v>
+        <v>5786</v>
       </c>
       <c r="B2999" t="s">
-        <v>5786</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="3000">
       <c r="A3000" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="B3000" t="s">
         <v>5788</v>
@@ -44390,55 +44429,55 @@
     </row>
     <row r="3013">
       <c r="A3013" t="s">
-        <v>2928</v>
+        <v>5813</v>
       </c>
       <c r="B3013" t="s">
-        <v>5813</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="3014">
       <c r="A3014" t="s">
-        <v>5814</v>
+        <v>5815</v>
       </c>
       <c r="B3014" t="s">
-        <v>5815</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="3015">
       <c r="A3015" t="s">
-        <v>51</v>
+        <v>5817</v>
       </c>
       <c r="B3015" t="s">
-        <v>5816</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="3016">
       <c r="A3016" t="s">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="B3016" t="s">
-        <v>5818</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="3017">
       <c r="A3017" t="s">
-        <v>5819</v>
+        <v>2932</v>
       </c>
       <c r="B3017" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
     </row>
     <row r="3018">
       <c r="A3018" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="B3018" t="s">
-        <v>5822</v>
+        <v>5823</v>
       </c>
     </row>
     <row r="3019">
       <c r="A3019" t="s">
-        <v>5823</v>
+        <v>51</v>
       </c>
       <c r="B3019" t="s">
         <v>5824</v>
@@ -44473,95 +44512,95 @@
         <v>5831</v>
       </c>
       <c r="B3023" t="s">
-        <v>1525</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="3024">
       <c r="A3024" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="B3024" t="s">
-        <v>5833</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="3025">
       <c r="A3025" t="s">
-        <v>5834</v>
+        <v>5835</v>
       </c>
       <c r="B3025" t="s">
-        <v>528</v>
+        <v>5836</v>
       </c>
     </row>
     <row r="3026">
       <c r="A3026" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="B3026" t="s">
-        <v>5836</v>
+        <v>5838</v>
       </c>
     </row>
     <row r="3027">
       <c r="A3027" t="s">
-        <v>5837</v>
+        <v>5839</v>
       </c>
       <c r="B3027" t="s">
-        <v>5838</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="3028">
       <c r="A3028" t="s">
-        <v>5839</v>
+        <v>5840</v>
       </c>
       <c r="B3028" t="s">
-        <v>5840</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="3029">
       <c r="A3029" t="s">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="B3029" t="s">
-        <v>1139</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3030">
       <c r="A3030" t="s">
-        <v>5842</v>
+        <v>5843</v>
       </c>
       <c r="B3030" t="s">
-        <v>1320</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="3031">
       <c r="A3031" t="s">
-        <v>5843</v>
+        <v>5845</v>
       </c>
       <c r="B3031" t="s">
-        <v>5844</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="3032">
       <c r="A3032" t="s">
-        <v>5845</v>
+        <v>5847</v>
       </c>
       <c r="B3032" t="s">
-        <v>5846</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="3033">
       <c r="A3033" t="s">
-        <v>5847</v>
+        <v>5849</v>
       </c>
       <c r="B3033" t="s">
-        <v>5848</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3034">
       <c r="A3034" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="B3034" t="s">
-        <v>5850</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="3035">
@@ -44662,138 +44701,138 @@
     </row>
     <row r="3047">
       <c r="A3047" t="s">
-        <v>5874</v>
+        <v>5875</v>
       </c>
       <c r="B3047" t="s">
-        <v>700</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="3048">
       <c r="A3048" t="s">
-        <v>5875</v>
+        <v>5877</v>
       </c>
       <c r="B3048" t="s">
-        <v>5876</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="3049">
       <c r="A3049" t="s">
-        <v>5877</v>
+        <v>5879</v>
       </c>
       <c r="B3049" t="s">
-        <v>5878</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="3050">
       <c r="A3050" t="s">
-        <v>837</v>
+        <v>5881</v>
       </c>
       <c r="B3050" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="3051">
       <c r="A3051" t="s">
-        <v>5880</v>
+        <v>5882</v>
       </c>
       <c r="B3051" t="s">
-        <v>5881</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3052">
       <c r="A3052" t="s">
-        <v>4687</v>
+        <v>5883</v>
       </c>
       <c r="B3052" t="s">
-        <v>5882</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="3053">
       <c r="A3053" t="s">
-        <v>5883</v>
+        <v>5885</v>
       </c>
       <c r="B3053" t="s">
-        <v>5884</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="3054">
       <c r="A3054" t="s">
-        <v>5885</v>
+        <v>837</v>
       </c>
       <c r="B3054" t="s">
-        <v>5886</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="3055">
       <c r="A3055" t="s">
-        <v>5887</v>
+        <v>5888</v>
       </c>
       <c r="B3055" t="s">
-        <v>5888</v>
+        <v>5889</v>
       </c>
     </row>
     <row r="3056">
       <c r="A3056" t="s">
-        <v>5889</v>
+        <v>4693</v>
       </c>
       <c r="B3056" t="s">
-        <v>5430</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="3057">
       <c r="A3057" t="s">
-        <v>5890</v>
+        <v>5891</v>
       </c>
       <c r="B3057" t="s">
-        <v>5891</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="3058">
       <c r="A3058" t="s">
-        <v>5892</v>
+        <v>5893</v>
       </c>
       <c r="B3058" t="s">
-        <v>5893</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="3059">
       <c r="A3059" t="s">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="B3059" t="s">
-        <v>5612</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="3060">
       <c r="A3060" t="s">
-        <v>5895</v>
+        <v>5897</v>
       </c>
       <c r="B3060" t="s">
-        <v>5896</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="3061">
       <c r="A3061" t="s">
-        <v>5897</v>
+        <v>5898</v>
       </c>
       <c r="B3061" t="s">
-        <v>5898</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="3062">
       <c r="A3062" t="s">
-        <v>5899</v>
+        <v>5900</v>
       </c>
       <c r="B3062" t="s">
-        <v>5900</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="3063">
       <c r="A3063" t="s">
-        <v>5901</v>
+        <v>5902</v>
       </c>
       <c r="B3063" t="s">
-        <v>5902</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="3064">
@@ -44801,39 +44840,39 @@
         <v>5903</v>
       </c>
       <c r="B3064" t="s">
-        <v>4023</v>
+        <v>5904</v>
       </c>
     </row>
     <row r="3065">
       <c r="A3065" t="s">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="B3065" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="3066">
       <c r="A3066" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="B3066" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="3067">
       <c r="A3067" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="B3067" t="s">
-        <v>5909</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="3068">
       <c r="A3068" t="s">
-        <v>5910</v>
+        <v>5911</v>
       </c>
       <c r="B3068" t="s">
-        <v>5911</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="3069">
@@ -45057,87 +45096,87 @@
         <v>5966</v>
       </c>
       <c r="B3096" t="s">
-        <v>5028</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="3097">
       <c r="A3097" t="s">
-        <v>5967</v>
+        <v>5968</v>
       </c>
       <c r="B3097" t="s">
-        <v>5968</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="3098">
       <c r="A3098" t="s">
-        <v>5969</v>
+        <v>5970</v>
       </c>
       <c r="B3098" t="s">
-        <v>1213</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="3099">
       <c r="A3099" t="s">
-        <v>5970</v>
+        <v>5972</v>
       </c>
       <c r="B3099" t="s">
-        <v>5971</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="3100">
       <c r="A3100" t="s">
-        <v>5972</v>
+        <v>5974</v>
       </c>
       <c r="B3100" t="s">
-        <v>5973</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="3101">
       <c r="A3101" t="s">
-        <v>5974</v>
+        <v>5975</v>
       </c>
       <c r="B3101" t="s">
-        <v>5975</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="3102">
       <c r="A3102" t="s">
-        <v>5976</v>
+        <v>5977</v>
       </c>
       <c r="B3102" t="s">
-        <v>5140</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="3103">
       <c r="A3103" t="s">
-        <v>5977</v>
+        <v>5978</v>
       </c>
       <c r="B3103" t="s">
-        <v>5978</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="3104">
       <c r="A3104" t="s">
-        <v>5979</v>
+        <v>5980</v>
       </c>
       <c r="B3104" t="s">
-        <v>5980</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="3105">
       <c r="A3105" t="s">
-        <v>5981</v>
+        <v>5982</v>
       </c>
       <c r="B3105" t="s">
-        <v>5982</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="3106">
       <c r="A3106" t="s">
-        <v>5983</v>
+        <v>5984</v>
       </c>
       <c r="B3106" t="s">
-        <v>5984</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="3107">
@@ -45350,39 +45389,39 @@
     </row>
     <row r="3133">
       <c r="A3133" t="s">
-        <v>6030</v>
+        <v>6037</v>
       </c>
       <c r="B3133" t="s">
-        <v>6037</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="3134">
       <c r="A3134" t="s">
-        <v>6038</v>
+        <v>6039</v>
       </c>
       <c r="B3134" t="s">
-        <v>6039</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="3135">
       <c r="A3135" t="s">
-        <v>6040</v>
+        <v>6041</v>
       </c>
       <c r="B3135" t="s">
-        <v>6041</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="3136">
       <c r="A3136" t="s">
-        <v>6042</v>
+        <v>6043</v>
       </c>
       <c r="B3136" t="s">
-        <v>6043</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="3137">
       <c r="A3137" t="s">
-        <v>6044</v>
+        <v>6038</v>
       </c>
       <c r="B3137" t="s">
         <v>6045</v>
@@ -45409,39 +45448,39 @@
         <v>6050</v>
       </c>
       <c r="B3140" t="s">
-        <v>6035</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="3141">
       <c r="A3141" t="s">
-        <v>6051</v>
+        <v>6052</v>
       </c>
       <c r="B3141" t="s">
-        <v>6052</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="3142">
       <c r="A3142" t="s">
-        <v>6053</v>
+        <v>6054</v>
       </c>
       <c r="B3142" t="s">
-        <v>6054</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="3143">
       <c r="A3143" t="s">
-        <v>6055</v>
+        <v>6056</v>
       </c>
       <c r="B3143" t="s">
-        <v>6056</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="3144">
       <c r="A3144" t="s">
-        <v>6057</v>
+        <v>6058</v>
       </c>
       <c r="B3144" t="s">
-        <v>6058</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="3145">
@@ -45553,39 +45592,39 @@
         <v>6085</v>
       </c>
       <c r="B3158" t="s">
-        <v>2269</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="3159">
       <c r="A3159" t="s">
-        <v>6086</v>
+        <v>6087</v>
       </c>
       <c r="B3159" t="s">
-        <v>6087</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="3160">
       <c r="A3160" t="s">
-        <v>6088</v>
+        <v>6089</v>
       </c>
       <c r="B3160" t="s">
-        <v>6089</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="3161">
       <c r="A3161" t="s">
-        <v>6090</v>
+        <v>6091</v>
       </c>
       <c r="B3161" t="s">
-        <v>6091</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="3162">
       <c r="A3162" t="s">
-        <v>6092</v>
+        <v>6093</v>
       </c>
       <c r="B3162" t="s">
-        <v>6093</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="3163">
@@ -45633,39 +45672,39 @@
         <v>6104</v>
       </c>
       <c r="B3168" t="s">
-        <v>4853</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="3169">
       <c r="A3169" t="s">
-        <v>6105</v>
+        <v>6106</v>
       </c>
       <c r="B3169" t="s">
-        <v>6106</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="3170">
       <c r="A3170" t="s">
-        <v>6107</v>
+        <v>6108</v>
       </c>
       <c r="B3170" t="s">
-        <v>6108</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="3171">
       <c r="A3171" t="s">
-        <v>6109</v>
+        <v>6110</v>
       </c>
       <c r="B3171" t="s">
-        <v>6110</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="3172">
       <c r="A3172" t="s">
-        <v>6111</v>
+        <v>6112</v>
       </c>
       <c r="B3172" t="s">
-        <v>6112</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="3173">
@@ -45745,39 +45784,39 @@
         <v>6131</v>
       </c>
       <c r="B3182" t="s">
-        <v>4177</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="3183">
       <c r="A3183" t="s">
-        <v>6132</v>
+        <v>6133</v>
       </c>
       <c r="B3183" t="s">
-        <v>6133</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="3184">
       <c r="A3184" t="s">
-        <v>6134</v>
+        <v>6135</v>
       </c>
       <c r="B3184" t="s">
-        <v>6135</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="3185">
       <c r="A3185" t="s">
-        <v>6136</v>
+        <v>6137</v>
       </c>
       <c r="B3185" t="s">
-        <v>6137</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="3186">
       <c r="A3186" t="s">
-        <v>6138</v>
+        <v>6139</v>
       </c>
       <c r="B3186" t="s">
-        <v>6139</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="3187">
@@ -45785,71 +45824,71 @@
         <v>6140</v>
       </c>
       <c r="B3187" t="s">
-        <v>2414</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="3188">
       <c r="A3188" t="s">
-        <v>6141</v>
+        <v>6142</v>
       </c>
       <c r="B3188" t="s">
-        <v>6142</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="3189">
       <c r="A3189" t="s">
-        <v>6143</v>
+        <v>6144</v>
       </c>
       <c r="B3189" t="s">
-        <v>6144</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="3190">
       <c r="A3190" t="s">
-        <v>6145</v>
+        <v>6146</v>
       </c>
       <c r="B3190" t="s">
-        <v>4580</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="3191">
       <c r="A3191" t="s">
-        <v>6146</v>
+        <v>6148</v>
       </c>
       <c r="B3191" t="s">
-        <v>1298</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="3192">
       <c r="A3192" t="s">
-        <v>6147</v>
+        <v>6149</v>
       </c>
       <c r="B3192" t="s">
-        <v>6148</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="3193">
       <c r="A3193" t="s">
-        <v>6149</v>
+        <v>6151</v>
       </c>
       <c r="B3193" t="s">
-        <v>6150</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="3194">
       <c r="A3194" t="s">
-        <v>6151</v>
+        <v>6153</v>
       </c>
       <c r="B3194" t="s">
-        <v>6152</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="3195">
       <c r="A3195" t="s">
-        <v>6153</v>
+        <v>6154</v>
       </c>
       <c r="B3195" t="s">
-        <v>6154</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="3196">
@@ -45862,42 +45901,42 @@
     </row>
     <row r="3197">
       <c r="A3197" t="s">
-        <v>6084</v>
+        <v>6157</v>
       </c>
       <c r="B3197" t="s">
-        <v>6083</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="3198">
       <c r="A3198" t="s">
-        <v>6157</v>
+        <v>6159</v>
       </c>
       <c r="B3198" t="s">
-        <v>6158</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="3199">
       <c r="A3199" t="s">
-        <v>6159</v>
+        <v>6161</v>
       </c>
       <c r="B3199" t="s">
-        <v>6160</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="3200">
       <c r="A3200" t="s">
-        <v>6161</v>
+        <v>6163</v>
       </c>
       <c r="B3200" t="s">
-        <v>6162</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="3201">
       <c r="A3201" t="s">
-        <v>6163</v>
+        <v>6092</v>
       </c>
       <c r="B3201" t="s">
-        <v>6164</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="3202">
@@ -45929,63 +45968,63 @@
         <v>6171</v>
       </c>
       <c r="B3205" t="s">
-        <v>205</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="3206">
       <c r="A3206" t="s">
-        <v>6172</v>
+        <v>6173</v>
       </c>
       <c r="B3206" t="s">
-        <v>6173</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="3207">
       <c r="A3207" t="s">
-        <v>6174</v>
+        <v>6175</v>
       </c>
       <c r="B3207" t="s">
-        <v>6175</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="3208">
       <c r="A3208" t="s">
-        <v>6176</v>
+        <v>6177</v>
       </c>
       <c r="B3208" t="s">
-        <v>4386</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="3209">
       <c r="A3209" t="s">
-        <v>6177</v>
+        <v>6179</v>
       </c>
       <c r="B3209" t="s">
-        <v>6178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3210">
       <c r="A3210" t="s">
-        <v>6179</v>
+        <v>6180</v>
       </c>
       <c r="B3210" t="s">
-        <v>6180</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="3211">
       <c r="A3211" t="s">
-        <v>6181</v>
+        <v>6182</v>
       </c>
       <c r="B3211" t="s">
-        <v>6182</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="3212">
       <c r="A3212" t="s">
-        <v>6183</v>
+        <v>6184</v>
       </c>
       <c r="B3212" t="s">
-        <v>6184</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="3213">
@@ -46022,39 +46061,39 @@
     </row>
     <row r="3217">
       <c r="A3217" t="s">
-        <v>2610</v>
+        <v>6193</v>
       </c>
       <c r="B3217" t="s">
-        <v>6193</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="3218">
       <c r="A3218" t="s">
-        <v>6194</v>
+        <v>6195</v>
       </c>
       <c r="B3218" t="s">
-        <v>6195</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="3219">
       <c r="A3219" t="s">
-        <v>6196</v>
+        <v>6197</v>
       </c>
       <c r="B3219" t="s">
-        <v>6197</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="3220">
       <c r="A3220" t="s">
-        <v>6198</v>
+        <v>6199</v>
       </c>
       <c r="B3220" t="s">
-        <v>6199</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="3221">
       <c r="A3221" t="s">
-        <v>6200</v>
+        <v>2614</v>
       </c>
       <c r="B3221" t="s">
         <v>6201</v>
@@ -46073,39 +46112,39 @@
         <v>6204</v>
       </c>
       <c r="B3223" t="s">
-        <v>897</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="3224">
       <c r="A3224" t="s">
-        <v>6205</v>
+        <v>6206</v>
       </c>
       <c r="B3224" t="s">
-        <v>6206</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="3225">
       <c r="A3225" t="s">
-        <v>6207</v>
+        <v>6208</v>
       </c>
       <c r="B3225" t="s">
-        <v>6208</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="3226">
       <c r="A3226" t="s">
-        <v>6209</v>
+        <v>6210</v>
       </c>
       <c r="B3226" t="s">
-        <v>6210</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="3227">
       <c r="A3227" t="s">
-        <v>6211</v>
+        <v>6212</v>
       </c>
       <c r="B3227" t="s">
-        <v>6212</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3228">
@@ -46113,92 +46152,92 @@
         <v>6213</v>
       </c>
       <c r="B3228" t="s">
-        <v>6138</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="3229">
       <c r="A3229" t="s">
-        <v>6214</v>
+        <v>6215</v>
       </c>
       <c r="B3229" t="s">
-        <v>4005</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="3230">
       <c r="A3230" t="s">
-        <v>6215</v>
+        <v>6217</v>
       </c>
       <c r="B3230" t="s">
-        <v>6216</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="3231">
       <c r="A3231" t="s">
-        <v>6217</v>
+        <v>6219</v>
       </c>
       <c r="B3231" t="s">
-        <v>6218</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="3232">
       <c r="A3232" t="s">
-        <v>6219</v>
+        <v>6221</v>
       </c>
       <c r="B3232" t="s">
-        <v>6220</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="3233">
       <c r="A3233" t="s">
-        <v>5141</v>
+        <v>6222</v>
       </c>
       <c r="B3233" t="s">
-        <v>6221</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="3234">
       <c r="A3234" t="s">
-        <v>6222</v>
+        <v>6223</v>
       </c>
       <c r="B3234" t="s">
-        <v>6223</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="3235">
       <c r="A3235" t="s">
-        <v>4309</v>
+        <v>6225</v>
       </c>
       <c r="B3235" t="s">
-        <v>6224</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="3236">
       <c r="A3236" t="s">
-        <v>6225</v>
+        <v>6227</v>
       </c>
       <c r="B3236" t="s">
-        <v>6226</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="3237">
       <c r="A3237" t="s">
-        <v>6227</v>
+        <v>5149</v>
       </c>
       <c r="B3237" t="s">
-        <v>6228</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="3238">
       <c r="A3238" t="s">
-        <v>6229</v>
+        <v>6230</v>
       </c>
       <c r="B3238" t="s">
-        <v>6230</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="3239">
       <c r="A3239" t="s">
-        <v>6231</v>
+        <v>4315</v>
       </c>
       <c r="B3239" t="s">
         <v>6232</v>
@@ -46318,26 +46357,26 @@
     </row>
     <row r="3254">
       <c r="A3254" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B3254" t="s">
         <v>6261</v>
-      </c>
-      <c r="B3254" t="s">
-        <v>6262</v>
       </c>
     </row>
     <row r="3255">
       <c r="A3255" t="s">
+        <v>6262</v>
+      </c>
+      <c r="B3255" t="s">
         <v>6263</v>
-      </c>
-      <c r="B3255" t="s">
-        <v>6264</v>
       </c>
     </row>
     <row r="3256">
       <c r="A3256" t="s">
+        <v>6264</v>
+      </c>
+      <c r="B3256" t="s">
         <v>6265</v>
-      </c>
-      <c r="B3256" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="3257">
@@ -46377,23 +46416,23 @@
         <v>6274</v>
       </c>
       <c r="B3261" t="s">
-        <v>6275</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="3262">
       <c r="A3262" t="s">
+        <v>6275</v>
+      </c>
+      <c r="B3262" t="s">
         <v>6276</v>
-      </c>
-      <c r="B3262" t="s">
-        <v>6277</v>
       </c>
     </row>
     <row r="3263">
       <c r="A3263" t="s">
+        <v>6277</v>
+      </c>
+      <c r="B3263" t="s">
         <v>6278</v>
-      </c>
-      <c r="B3263" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="3264">
@@ -46441,132 +46480,132 @@
         <v>6289</v>
       </c>
       <c r="B3269" t="s">
-        <v>6290</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3270">
       <c r="A3270" t="s">
+        <v>6290</v>
+      </c>
+      <c r="B3270" t="s">
         <v>6291</v>
-      </c>
-      <c r="B3270" t="s">
-        <v>6292</v>
       </c>
     </row>
     <row r="3271">
       <c r="A3271" t="s">
+        <v>6292</v>
+      </c>
+      <c r="B3271" t="s">
         <v>6293</v>
-      </c>
-      <c r="B3271" t="s">
-        <v>6294</v>
       </c>
     </row>
     <row r="3272">
       <c r="A3272" t="s">
-        <v>6178</v>
+        <v>6294</v>
       </c>
       <c r="B3272" t="s">
-        <v>704</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="3273">
       <c r="A3273" t="s">
-        <v>6295</v>
+        <v>6296</v>
       </c>
       <c r="B3273" t="s">
-        <v>6296</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="3274">
       <c r="A3274" t="s">
-        <v>6297</v>
+        <v>6298</v>
       </c>
       <c r="B3274" t="s">
-        <v>1139</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="3275">
       <c r="A3275" t="s">
-        <v>5820</v>
+        <v>6300</v>
       </c>
       <c r="B3275" t="s">
-        <v>6298</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="3276">
       <c r="A3276" t="s">
-        <v>6299</v>
+        <v>6302</v>
       </c>
       <c r="B3276" t="s">
-        <v>6300</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="3277">
       <c r="A3277" t="s">
-        <v>6301</v>
+        <v>6304</v>
       </c>
       <c r="B3277" t="s">
-        <v>6302</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="3278">
       <c r="A3278" t="s">
-        <v>6303</v>
+        <v>6186</v>
       </c>
       <c r="B3278" t="s">
-        <v>4341</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3279">
       <c r="A3279" t="s">
-        <v>1780</v>
+        <v>6306</v>
       </c>
       <c r="B3279" t="s">
-        <v>6304</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="3280">
       <c r="A3280" t="s">
-        <v>6305</v>
+        <v>6308</v>
       </c>
       <c r="B3280" t="s">
-        <v>6306</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3281">
       <c r="A3281" t="s">
-        <v>6307</v>
+        <v>5828</v>
       </c>
       <c r="B3281" t="s">
-        <v>6306</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="3282">
       <c r="A3282" t="s">
-        <v>6308</v>
+        <v>6310</v>
       </c>
       <c r="B3282" t="s">
-        <v>6309</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="3283">
       <c r="A3283" t="s">
-        <v>6310</v>
+        <v>6312</v>
       </c>
       <c r="B3283" t="s">
-        <v>6311</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="3284">
       <c r="A3284" t="s">
-        <v>6312</v>
+        <v>6314</v>
       </c>
       <c r="B3284" t="s">
-        <v>6313</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="3285">
       <c r="A3285" t="s">
-        <v>6314</v>
+        <v>1780</v>
       </c>
       <c r="B3285" t="s">
         <v>6315</v>
@@ -46585,311 +46624,311 @@
         <v>6318</v>
       </c>
       <c r="B3287" t="s">
-        <v>6319</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="3288">
       <c r="A3288" t="s">
+        <v>6319</v>
+      </c>
+      <c r="B3288" t="s">
         <v>6320</v>
-      </c>
-      <c r="B3288" t="s">
-        <v>6321</v>
       </c>
     </row>
     <row r="3289">
       <c r="A3289" t="s">
+        <v>6321</v>
+      </c>
+      <c r="B3289" t="s">
         <v>6322</v>
-      </c>
-      <c r="B3289" t="s">
-        <v>6323</v>
       </c>
     </row>
     <row r="3290">
       <c r="A3290" t="s">
+        <v>6323</v>
+      </c>
+      <c r="B3290" t="s">
         <v>6324</v>
-      </c>
-      <c r="B3290" t="s">
-        <v>6325</v>
       </c>
     </row>
     <row r="3291">
       <c r="A3291" t="s">
+        <v>6325</v>
+      </c>
+      <c r="B3291" t="s">
         <v>6326</v>
-      </c>
-      <c r="B3291" t="s">
-        <v>6327</v>
       </c>
     </row>
     <row r="3292">
       <c r="A3292" t="s">
+        <v>6327</v>
+      </c>
+      <c r="B3292" t="s">
         <v>6328</v>
-      </c>
-      <c r="B3292" t="s">
-        <v>6329</v>
       </c>
     </row>
     <row r="3293">
       <c r="A3293" t="s">
+        <v>6329</v>
+      </c>
+      <c r="B3293" t="s">
         <v>6330</v>
-      </c>
-      <c r="B3293" t="s">
-        <v>6331</v>
       </c>
     </row>
     <row r="3294">
       <c r="A3294" t="s">
+        <v>6331</v>
+      </c>
+      <c r="B3294" t="s">
         <v>6332</v>
-      </c>
-      <c r="B3294" t="s">
-        <v>6333</v>
       </c>
     </row>
     <row r="3295">
       <c r="A3295" t="s">
+        <v>6333</v>
+      </c>
+      <c r="B3295" t="s">
         <v>6334</v>
-      </c>
-      <c r="B3295" t="s">
-        <v>6335</v>
       </c>
     </row>
     <row r="3296">
       <c r="A3296" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B3296" t="s">
         <v>6336</v>
-      </c>
-      <c r="B3296" t="s">
-        <v>6337</v>
       </c>
     </row>
     <row r="3297">
       <c r="A3297" t="s">
+        <v>6337</v>
+      </c>
+      <c r="B3297" t="s">
         <v>6338</v>
-      </c>
-      <c r="B3297" t="s">
-        <v>6339</v>
       </c>
     </row>
     <row r="3298">
       <c r="A3298" t="s">
+        <v>6339</v>
+      </c>
+      <c r="B3298" t="s">
         <v>6340</v>
-      </c>
-      <c r="B3298" t="s">
-        <v>6341</v>
       </c>
     </row>
     <row r="3299">
       <c r="A3299" t="s">
+        <v>6341</v>
+      </c>
+      <c r="B3299" t="s">
         <v>6342</v>
-      </c>
-      <c r="B3299" t="s">
-        <v>6343</v>
       </c>
     </row>
     <row r="3300">
       <c r="A3300" t="s">
+        <v>6343</v>
+      </c>
+      <c r="B3300" t="s">
         <v>6344</v>
-      </c>
-      <c r="B3300" t="s">
-        <v>6345</v>
       </c>
     </row>
     <row r="3301">
       <c r="A3301" t="s">
+        <v>6345</v>
+      </c>
+      <c r="B3301" t="s">
         <v>6346</v>
-      </c>
-      <c r="B3301" t="s">
-        <v>6347</v>
       </c>
     </row>
     <row r="3302">
       <c r="A3302" t="s">
+        <v>6347</v>
+      </c>
+      <c r="B3302" t="s">
         <v>6348</v>
-      </c>
-      <c r="B3302" t="s">
-        <v>6349</v>
       </c>
     </row>
     <row r="3303">
       <c r="A3303" t="s">
+        <v>6349</v>
+      </c>
+      <c r="B3303" t="s">
         <v>6350</v>
-      </c>
-      <c r="B3303" t="s">
-        <v>6351</v>
       </c>
     </row>
     <row r="3304">
       <c r="A3304" t="s">
+        <v>6351</v>
+      </c>
+      <c r="B3304" t="s">
         <v>6352</v>
-      </c>
-      <c r="B3304" t="s">
-        <v>6353</v>
       </c>
     </row>
     <row r="3305">
       <c r="A3305" t="s">
+        <v>6353</v>
+      </c>
+      <c r="B3305" t="s">
         <v>6354</v>
-      </c>
-      <c r="B3305" t="s">
-        <v>6355</v>
       </c>
     </row>
     <row r="3306">
       <c r="A3306" t="s">
+        <v>6355</v>
+      </c>
+      <c r="B3306" t="s">
         <v>6356</v>
-      </c>
-      <c r="B3306" t="s">
-        <v>6357</v>
       </c>
     </row>
     <row r="3307">
       <c r="A3307" t="s">
+        <v>6357</v>
+      </c>
+      <c r="B3307" t="s">
         <v>6358</v>
-      </c>
-      <c r="B3307" t="s">
-        <v>6359</v>
       </c>
     </row>
     <row r="3308">
       <c r="A3308" t="s">
+        <v>6359</v>
+      </c>
+      <c r="B3308" t="s">
         <v>6360</v>
-      </c>
-      <c r="B3308" t="s">
-        <v>6361</v>
       </c>
     </row>
     <row r="3309">
       <c r="A3309" t="s">
+        <v>6361</v>
+      </c>
+      <c r="B3309" t="s">
         <v>6362</v>
-      </c>
-      <c r="B3309" t="s">
-        <v>6363</v>
       </c>
     </row>
     <row r="3310">
       <c r="A3310" t="s">
+        <v>6363</v>
+      </c>
+      <c r="B3310" t="s">
         <v>6364</v>
-      </c>
-      <c r="B3310" t="s">
-        <v>6365</v>
       </c>
     </row>
     <row r="3311">
       <c r="A3311" t="s">
+        <v>6365</v>
+      </c>
+      <c r="B3311" t="s">
         <v>6366</v>
-      </c>
-      <c r="B3311" t="s">
-        <v>6367</v>
       </c>
     </row>
     <row r="3312">
       <c r="A3312" t="s">
+        <v>6367</v>
+      </c>
+      <c r="B3312" t="s">
         <v>6368</v>
-      </c>
-      <c r="B3312" t="s">
-        <v>6369</v>
       </c>
     </row>
     <row r="3313">
       <c r="A3313" t="s">
+        <v>6369</v>
+      </c>
+      <c r="B3313" t="s">
         <v>6370</v>
-      </c>
-      <c r="B3313" t="s">
-        <v>6371</v>
       </c>
     </row>
     <row r="3314">
       <c r="A3314" t="s">
+        <v>6371</v>
+      </c>
+      <c r="B3314" t="s">
         <v>6372</v>
-      </c>
-      <c r="B3314" t="s">
-        <v>6373</v>
       </c>
     </row>
     <row r="3315">
       <c r="A3315" t="s">
+        <v>6373</v>
+      </c>
+      <c r="B3315" t="s">
         <v>6374</v>
-      </c>
-      <c r="B3315" t="s">
-        <v>6375</v>
       </c>
     </row>
     <row r="3316">
       <c r="A3316" t="s">
+        <v>6375</v>
+      </c>
+      <c r="B3316" t="s">
         <v>6376</v>
-      </c>
-      <c r="B3316" t="s">
-        <v>6377</v>
       </c>
     </row>
     <row r="3317">
       <c r="A3317" t="s">
+        <v>6377</v>
+      </c>
+      <c r="B3317" t="s">
         <v>6378</v>
-      </c>
-      <c r="B3317" t="s">
-        <v>6379</v>
       </c>
     </row>
     <row r="3318">
       <c r="A3318" t="s">
+        <v>6379</v>
+      </c>
+      <c r="B3318" t="s">
         <v>6380</v>
-      </c>
-      <c r="B3318" t="s">
-        <v>6381</v>
       </c>
     </row>
     <row r="3319">
       <c r="A3319" t="s">
+        <v>6381</v>
+      </c>
+      <c r="B3319" t="s">
         <v>6382</v>
-      </c>
-      <c r="B3319" t="s">
-        <v>6383</v>
       </c>
     </row>
     <row r="3320">
       <c r="A3320" t="s">
+        <v>6383</v>
+      </c>
+      <c r="B3320" t="s">
         <v>6384</v>
-      </c>
-      <c r="B3320" t="s">
-        <v>6385</v>
       </c>
     </row>
     <row r="3321">
       <c r="A3321" t="s">
+        <v>6385</v>
+      </c>
+      <c r="B3321" t="s">
         <v>6386</v>
-      </c>
-      <c r="B3321" t="s">
-        <v>6387</v>
       </c>
     </row>
     <row r="3322">
       <c r="A3322" t="s">
+        <v>6387</v>
+      </c>
+      <c r="B3322" t="s">
         <v>6388</v>
-      </c>
-      <c r="B3322" t="s">
-        <v>6389</v>
       </c>
     </row>
     <row r="3323">
       <c r="A3323" t="s">
+        <v>6389</v>
+      </c>
+      <c r="B3323" t="s">
         <v>6390</v>
-      </c>
-      <c r="B3323" t="s">
-        <v>6391</v>
       </c>
     </row>
     <row r="3324">
       <c r="A3324" t="s">
+        <v>6391</v>
+      </c>
+      <c r="B3324" t="s">
         <v>6392</v>
-      </c>
-      <c r="B3324" t="s">
-        <v>6393</v>
       </c>
     </row>
     <row r="3325">
       <c r="A3325" t="s">
+        <v>6393</v>
+      </c>
+      <c r="B3325" t="s">
         <v>6394</v>
-      </c>
-      <c r="B3325" t="s">
-        <v>5769</v>
       </c>
     </row>
     <row r="3326">
@@ -46937,36 +46976,36 @@
         <v>6405</v>
       </c>
       <c r="B3331" t="s">
-        <v>6406</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="3332">
       <c r="A3332" t="s">
+        <v>6406</v>
+      </c>
+      <c r="B3332" t="s">
         <v>6407</v>
-      </c>
-      <c r="B3332" t="s">
-        <v>6408</v>
       </c>
     </row>
     <row r="3333">
       <c r="A3333" t="s">
+        <v>6408</v>
+      </c>
+      <c r="B3333" t="s">
         <v>6409</v>
-      </c>
-      <c r="B3333" t="s">
-        <v>6410</v>
       </c>
     </row>
     <row r="3334">
       <c r="A3334" t="s">
+        <v>6410</v>
+      </c>
+      <c r="B3334" t="s">
         <v>6411</v>
-      </c>
-      <c r="B3334" t="s">
-        <v>6412</v>
       </c>
     </row>
     <row r="3335">
       <c r="A3335" t="s">
-        <v>4399</v>
+        <v>6412</v>
       </c>
       <c r="B3335" t="s">
         <v>6413</v>
@@ -47014,154 +47053,154 @@
     </row>
     <row r="3341">
       <c r="A3341" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B3341" t="s">
         <v>6424</v>
-      </c>
-      <c r="B3341" t="s">
-        <v>6425</v>
       </c>
     </row>
     <row r="3342">
       <c r="A3342" t="s">
+        <v>6425</v>
+      </c>
+      <c r="B3342" t="s">
         <v>6426</v>
-      </c>
-      <c r="B3342" t="s">
-        <v>6427</v>
       </c>
     </row>
     <row r="3343">
       <c r="A3343" t="s">
+        <v>6427</v>
+      </c>
+      <c r="B3343" t="s">
         <v>6428</v>
-      </c>
-      <c r="B3343" t="s">
-        <v>6429</v>
       </c>
     </row>
     <row r="3344">
       <c r="A3344" t="s">
+        <v>6429</v>
+      </c>
+      <c r="B3344" t="s">
         <v>6430</v>
-      </c>
-      <c r="B3344" t="s">
-        <v>6431</v>
       </c>
     </row>
     <row r="3345">
       <c r="A3345" t="s">
+        <v>6431</v>
+      </c>
+      <c r="B3345" t="s">
         <v>6432</v>
-      </c>
-      <c r="B3345" t="s">
-        <v>6433</v>
       </c>
     </row>
     <row r="3346">
       <c r="A3346" t="s">
+        <v>6433</v>
+      </c>
+      <c r="B3346" t="s">
         <v>6434</v>
-      </c>
-      <c r="B3346" t="s">
-        <v>6435</v>
       </c>
     </row>
     <row r="3347">
       <c r="A3347" t="s">
+        <v>6435</v>
+      </c>
+      <c r="B3347" t="s">
         <v>6436</v>
-      </c>
-      <c r="B3347" t="s">
-        <v>4177</v>
       </c>
     </row>
     <row r="3348">
       <c r="A3348" t="s">
-        <v>196</v>
+        <v>6437</v>
       </c>
       <c r="B3348" t="s">
-        <v>6437</v>
+        <v>6438</v>
       </c>
     </row>
     <row r="3349">
       <c r="A3349" t="s">
-        <v>6438</v>
+        <v>6439</v>
       </c>
       <c r="B3349" t="s">
-        <v>6439</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="3350">
       <c r="A3350" t="s">
-        <v>6440</v>
+        <v>6441</v>
       </c>
       <c r="B3350" t="s">
-        <v>6441</v>
+        <v>6442</v>
       </c>
     </row>
     <row r="3351">
       <c r="A3351" t="s">
-        <v>6442</v>
+        <v>6443</v>
       </c>
       <c r="B3351" t="s">
-        <v>6443</v>
+        <v>6444</v>
       </c>
     </row>
     <row r="3352">
       <c r="A3352" t="s">
-        <v>6444</v>
+        <v>6445</v>
       </c>
       <c r="B3352" t="s">
-        <v>6445</v>
+        <v>6446</v>
       </c>
     </row>
     <row r="3353">
       <c r="A3353" t="s">
-        <v>6446</v>
+        <v>6447</v>
       </c>
       <c r="B3353" t="s">
-        <v>6447</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="3354">
       <c r="A3354" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3354" t="s">
         <v>6448</v>
-      </c>
-      <c r="B3354" t="s">
-        <v>6449</v>
       </c>
     </row>
     <row r="3355">
       <c r="A3355" t="s">
+        <v>6449</v>
+      </c>
+      <c r="B3355" t="s">
         <v>6450</v>
-      </c>
-      <c r="B3355" t="s">
-        <v>6451</v>
       </c>
     </row>
     <row r="3356">
       <c r="A3356" t="s">
+        <v>6451</v>
+      </c>
+      <c r="B3356" t="s">
         <v>6452</v>
-      </c>
-      <c r="B3356" t="s">
-        <v>6453</v>
       </c>
     </row>
     <row r="3357">
       <c r="A3357" t="s">
+        <v>6453</v>
+      </c>
+      <c r="B3357" t="s">
         <v>6454</v>
-      </c>
-      <c r="B3357" t="s">
-        <v>6455</v>
       </c>
     </row>
     <row r="3358">
       <c r="A3358" t="s">
+        <v>6455</v>
+      </c>
+      <c r="B3358" t="s">
         <v>6456</v>
-      </c>
-      <c r="B3358" t="s">
-        <v>6457</v>
       </c>
     </row>
     <row r="3359">
       <c r="A3359" t="s">
+        <v>6457</v>
+      </c>
+      <c r="B3359" t="s">
         <v>6458</v>
-      </c>
-      <c r="B3359" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="3360">
@@ -47169,47 +47208,47 @@
         <v>6459</v>
       </c>
       <c r="B3360" t="s">
-        <v>897</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="3361">
       <c r="A3361" t="s">
-        <v>6460</v>
+        <v>6461</v>
       </c>
       <c r="B3361" t="s">
-        <v>6461</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="3362">
       <c r="A3362" t="s">
-        <v>6462</v>
+        <v>6463</v>
       </c>
       <c r="B3362" t="s">
-        <v>6463</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="3363">
       <c r="A3363" t="s">
-        <v>6464</v>
+        <v>6465</v>
       </c>
       <c r="B3363" t="s">
-        <v>6465</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="3364">
       <c r="A3364" t="s">
-        <v>6466</v>
+        <v>6467</v>
       </c>
       <c r="B3364" t="s">
-        <v>6467</v>
+        <v>6468</v>
       </c>
     </row>
     <row r="3365">
       <c r="A3365" t="s">
-        <v>6468</v>
+        <v>6469</v>
       </c>
       <c r="B3365" t="s">
-        <v>6469</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3366">
@@ -47217,7 +47256,7 @@
         <v>6470</v>
       </c>
       <c r="B3366" t="s">
-        <v>6469</v>
+        <v>897</v>
       </c>
     </row>
     <row r="3367">
@@ -47225,47 +47264,47 @@
         <v>6471</v>
       </c>
       <c r="B3367" t="s">
-        <v>672</v>
+        <v>6472</v>
       </c>
     </row>
     <row r="3368">
       <c r="A3368" t="s">
-        <v>6472</v>
+        <v>6473</v>
       </c>
       <c r="B3368" t="s">
-        <v>6473</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="3369">
       <c r="A3369" t="s">
-        <v>6474</v>
+        <v>6475</v>
       </c>
       <c r="B3369" t="s">
-        <v>6475</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="3370">
       <c r="A3370" t="s">
-        <v>6476</v>
+        <v>6477</v>
       </c>
       <c r="B3370" t="s">
-        <v>6477</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="3371">
       <c r="A3371" t="s">
-        <v>6478</v>
+        <v>6479</v>
       </c>
       <c r="B3371" t="s">
-        <v>6479</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="3372">
       <c r="A3372" t="s">
+        <v>6481</v>
+      </c>
+      <c r="B3372" t="s">
         <v>6480</v>
-      </c>
-      <c r="B3372" t="s">
-        <v>6481</v>
       </c>
     </row>
     <row r="3373">
@@ -47273,15 +47312,15 @@
         <v>6482</v>
       </c>
       <c r="B3373" t="s">
-        <v>6483</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3374">
       <c r="A3374" t="s">
+        <v>6483</v>
+      </c>
+      <c r="B3374" t="s">
         <v>6484</v>
-      </c>
-      <c r="B3374" t="s">
-        <v>3677</v>
       </c>
     </row>
     <row r="3375">
@@ -47329,76 +47368,76 @@
         <v>6495</v>
       </c>
       <c r="B3380" t="s">
-        <v>6496</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="3381">
       <c r="A3381" t="s">
+        <v>6496</v>
+      </c>
+      <c r="B3381" t="s">
         <v>6497</v>
-      </c>
-      <c r="B3381" t="s">
-        <v>6498</v>
       </c>
     </row>
     <row r="3382">
       <c r="A3382" t="s">
+        <v>6498</v>
+      </c>
+      <c r="B3382" t="s">
         <v>6499</v>
-      </c>
-      <c r="B3382" t="s">
-        <v>6500</v>
       </c>
     </row>
     <row r="3383">
       <c r="A3383" t="s">
+        <v>6500</v>
+      </c>
+      <c r="B3383" t="s">
         <v>6501</v>
-      </c>
-      <c r="B3383" t="s">
-        <v>6502</v>
       </c>
     </row>
     <row r="3384">
       <c r="A3384" t="s">
+        <v>6502</v>
+      </c>
+      <c r="B3384" t="s">
         <v>6503</v>
-      </c>
-      <c r="B3384" t="s">
-        <v>6504</v>
       </c>
     </row>
     <row r="3385">
       <c r="A3385" t="s">
+        <v>6504</v>
+      </c>
+      <c r="B3385" t="s">
         <v>6505</v>
-      </c>
-      <c r="B3385" t="s">
-        <v>6506</v>
       </c>
     </row>
     <row r="3386">
       <c r="A3386" t="s">
+        <v>6506</v>
+      </c>
+      <c r="B3386" t="s">
         <v>6507</v>
-      </c>
-      <c r="B3386" t="s">
-        <v>6508</v>
       </c>
     </row>
     <row r="3387">
       <c r="A3387" t="s">
+        <v>6508</v>
+      </c>
+      <c r="B3387" t="s">
         <v>6509</v>
-      </c>
-      <c r="B3387" t="s">
-        <v>6510</v>
       </c>
     </row>
     <row r="3388">
       <c r="A3388" t="s">
+        <v>6510</v>
+      </c>
+      <c r="B3388" t="s">
         <v>6511</v>
-      </c>
-      <c r="B3388" t="s">
-        <v>6512</v>
       </c>
     </row>
     <row r="3389">
       <c r="A3389" t="s">
-        <v>5251</v>
+        <v>6512</v>
       </c>
       <c r="B3389" t="s">
         <v>6513</v>
@@ -47417,36 +47456,36 @@
         <v>6516</v>
       </c>
       <c r="B3391" t="s">
-        <v>2606</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="3392">
       <c r="A3392" t="s">
-        <v>6517</v>
+        <v>6518</v>
       </c>
       <c r="B3392" t="s">
-        <v>6518</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="3393">
       <c r="A3393" t="s">
-        <v>6519</v>
+        <v>6520</v>
       </c>
       <c r="B3393" t="s">
-        <v>6520</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="3394">
       <c r="A3394" t="s">
-        <v>6521</v>
+        <v>6522</v>
       </c>
       <c r="B3394" t="s">
-        <v>6522</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="3395">
       <c r="A3395" t="s">
-        <v>6523</v>
+        <v>5259</v>
       </c>
       <c r="B3395" t="s">
         <v>6524</v>
@@ -47465,7 +47504,7 @@
         <v>6527</v>
       </c>
       <c r="B3397" t="s">
-        <v>6522</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="3398">
@@ -47513,15 +47552,15 @@
         <v>6538</v>
       </c>
       <c r="B3403" t="s">
-        <v>6539</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="3404">
       <c r="A3404" t="s">
+        <v>6539</v>
+      </c>
+      <c r="B3404" t="s">
         <v>6540</v>
-      </c>
-      <c r="B3404" t="s">
-        <v>4462</v>
       </c>
     </row>
     <row r="3405">
@@ -47550,55 +47589,55 @@
     </row>
     <row r="3408">
       <c r="A3408" t="s">
-        <v>5401</v>
+        <v>6547</v>
       </c>
       <c r="B3408" t="s">
-        <v>6547</v>
+        <v>6548</v>
       </c>
     </row>
     <row r="3409">
       <c r="A3409" t="s">
-        <v>3935</v>
+        <v>6549</v>
       </c>
       <c r="B3409" t="s">
-        <v>6548</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="3410">
       <c r="A3410" t="s">
-        <v>6549</v>
+        <v>6551</v>
       </c>
       <c r="B3410" t="s">
-        <v>6550</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="3411">
       <c r="A3411" t="s">
-        <v>6551</v>
+        <v>6552</v>
       </c>
       <c r="B3411" t="s">
-        <v>6552</v>
+        <v>6553</v>
       </c>
     </row>
     <row r="3412">
       <c r="A3412" t="s">
-        <v>6553</v>
+        <v>6554</v>
       </c>
       <c r="B3412" t="s">
-        <v>6554</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="3413">
       <c r="A3413" t="s">
-        <v>6555</v>
+        <v>6556</v>
       </c>
       <c r="B3413" t="s">
-        <v>6556</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="3414">
       <c r="A3414" t="s">
-        <v>6557</v>
+        <v>5409</v>
       </c>
       <c r="B3414" t="s">
         <v>6558</v>
@@ -47606,10 +47645,10 @@
     </row>
     <row r="3415">
       <c r="A3415" t="s">
+        <v>3941</v>
+      </c>
+      <c r="B3415" t="s">
         <v>6559</v>
-      </c>
-      <c r="B3415" t="s">
-        <v>6437</v>
       </c>
     </row>
     <row r="3416">
@@ -47657,84 +47696,84 @@
         <v>6570</v>
       </c>
       <c r="B3421" t="s">
-        <v>6571</v>
+        <v>6448</v>
       </c>
     </row>
     <row r="3422">
       <c r="A3422" t="s">
+        <v>6571</v>
+      </c>
+      <c r="B3422" t="s">
         <v>6572</v>
-      </c>
-      <c r="B3422" t="s">
-        <v>6573</v>
       </c>
     </row>
     <row r="3423">
       <c r="A3423" t="s">
+        <v>6573</v>
+      </c>
+      <c r="B3423" t="s">
         <v>6574</v>
-      </c>
-      <c r="B3423" t="s">
-        <v>6575</v>
       </c>
     </row>
     <row r="3424">
       <c r="A3424" t="s">
+        <v>6575</v>
+      </c>
+      <c r="B3424" t="s">
         <v>6576</v>
-      </c>
-      <c r="B3424" t="s">
-        <v>6577</v>
       </c>
     </row>
     <row r="3425">
       <c r="A3425" t="s">
+        <v>6577</v>
+      </c>
+      <c r="B3425" t="s">
         <v>6578</v>
-      </c>
-      <c r="B3425" t="s">
-        <v>6579</v>
       </c>
     </row>
     <row r="3426">
       <c r="A3426" t="s">
+        <v>6579</v>
+      </c>
+      <c r="B3426" t="s">
         <v>6580</v>
-      </c>
-      <c r="B3426" t="s">
-        <v>6581</v>
       </c>
     </row>
     <row r="3427">
       <c r="A3427" t="s">
+        <v>6581</v>
+      </c>
+      <c r="B3427" t="s">
         <v>6582</v>
-      </c>
-      <c r="B3427" t="s">
-        <v>6583</v>
       </c>
     </row>
     <row r="3428">
       <c r="A3428" t="s">
+        <v>6583</v>
+      </c>
+      <c r="B3428" t="s">
         <v>6584</v>
-      </c>
-      <c r="B3428" t="s">
-        <v>6585</v>
       </c>
     </row>
     <row r="3429">
       <c r="A3429" t="s">
+        <v>6585</v>
+      </c>
+      <c r="B3429" t="s">
         <v>6586</v>
-      </c>
-      <c r="B3429" t="s">
-        <v>6587</v>
       </c>
     </row>
     <row r="3430">
       <c r="A3430" t="s">
+        <v>6587</v>
+      </c>
+      <c r="B3430" t="s">
         <v>6588</v>
-      </c>
-      <c r="B3430" t="s">
-        <v>6589</v>
       </c>
     </row>
     <row r="3431">
       <c r="A3431" t="s">
-        <v>107</v>
+        <v>6589</v>
       </c>
       <c r="B3431" t="s">
         <v>6590</v>
@@ -47761,127 +47800,127 @@
         <v>6595</v>
       </c>
       <c r="B3434" t="s">
-        <v>5150</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="3435">
       <c r="A3435" t="s">
-        <v>6596</v>
+        <v>6597</v>
       </c>
       <c r="B3435" t="s">
-        <v>6597</v>
+        <v>6598</v>
       </c>
     </row>
     <row r="3436">
       <c r="A3436" t="s">
-        <v>6598</v>
+        <v>6599</v>
       </c>
       <c r="B3436" t="s">
-        <v>6599</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="3437">
       <c r="A3437" t="s">
-        <v>6600</v>
+        <v>107</v>
       </c>
       <c r="B3437" t="s">
-        <v>3444</v>
+        <v>6601</v>
       </c>
     </row>
     <row r="3438">
       <c r="A3438" t="s">
-        <v>6601</v>
+        <v>6602</v>
       </c>
       <c r="B3438" t="s">
-        <v>6602</v>
+        <v>6603</v>
       </c>
     </row>
     <row r="3439">
       <c r="A3439" t="s">
-        <v>6603</v>
+        <v>6604</v>
       </c>
       <c r="B3439" t="s">
-        <v>6604</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="3440">
       <c r="A3440" t="s">
-        <v>6605</v>
+        <v>6606</v>
       </c>
       <c r="B3440" t="s">
-        <v>1139</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="3441">
       <c r="A3441" t="s">
-        <v>355</v>
+        <v>6607</v>
       </c>
       <c r="B3441" t="s">
-        <v>6606</v>
+        <v>6608</v>
       </c>
     </row>
     <row r="3442">
       <c r="A3442" t="s">
-        <v>6607</v>
+        <v>6609</v>
       </c>
       <c r="B3442" t="s">
-        <v>6608</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="3443">
       <c r="A3443" t="s">
-        <v>6609</v>
+        <v>6611</v>
       </c>
       <c r="B3443" t="s">
-        <v>6610</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="3444">
       <c r="A3444" t="s">
-        <v>6611</v>
+        <v>6612</v>
       </c>
       <c r="B3444" t="s">
-        <v>6612</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="3445">
       <c r="A3445" t="s">
-        <v>6613</v>
+        <v>6614</v>
       </c>
       <c r="B3445" t="s">
-        <v>6614</v>
+        <v>6615</v>
       </c>
     </row>
     <row r="3446">
       <c r="A3446" t="s">
-        <v>6615</v>
+        <v>6616</v>
       </c>
       <c r="B3446" t="s">
-        <v>6616</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3447">
       <c r="A3447" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3447" t="s">
         <v>6617</v>
-      </c>
-      <c r="B3447" t="s">
-        <v>6618</v>
       </c>
     </row>
     <row r="3448">
       <c r="A3448" t="s">
+        <v>6618</v>
+      </c>
+      <c r="B3448" t="s">
         <v>6619</v>
-      </c>
-      <c r="B3448" t="s">
-        <v>6620</v>
       </c>
     </row>
     <row r="3449">
       <c r="A3449" t="s">
+        <v>6620</v>
+      </c>
+      <c r="B3449" t="s">
         <v>6621</v>
-      </c>
-      <c r="B3449" t="s">
-        <v>3088</v>
       </c>
     </row>
     <row r="3450">
@@ -47889,55 +47928,55 @@
         <v>6622</v>
       </c>
       <c r="B3450" t="s">
-        <v>2499</v>
+        <v>6623</v>
       </c>
     </row>
     <row r="3451">
       <c r="A3451" t="s">
-        <v>6623</v>
+        <v>6624</v>
       </c>
       <c r="B3451" t="s">
-        <v>6624</v>
+        <v>6625</v>
       </c>
     </row>
     <row r="3452">
       <c r="A3452" t="s">
-        <v>6625</v>
+        <v>6626</v>
       </c>
       <c r="B3452" t="s">
-        <v>1803</v>
+        <v>6627</v>
       </c>
     </row>
     <row r="3453">
       <c r="A3453" t="s">
-        <v>6626</v>
+        <v>6628</v>
       </c>
       <c r="B3453" t="s">
-        <v>6627</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="3454">
       <c r="A3454" t="s">
-        <v>6628</v>
+        <v>6630</v>
       </c>
       <c r="B3454" t="s">
-        <v>6629</v>
+        <v>6631</v>
       </c>
     </row>
     <row r="3455">
       <c r="A3455" t="s">
-        <v>6630</v>
+        <v>6632</v>
       </c>
       <c r="B3455" t="s">
-        <v>6631</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="3456">
       <c r="A3456" t="s">
-        <v>6632</v>
+        <v>6633</v>
       </c>
       <c r="B3456" t="s">
-        <v>6633</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="3457">
@@ -47953,63 +47992,63 @@
         <v>6636</v>
       </c>
       <c r="B3458" t="s">
-        <v>6637</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="3459">
       <c r="A3459" t="s">
+        <v>6637</v>
+      </c>
+      <c r="B3459" t="s">
         <v>6638</v>
-      </c>
-      <c r="B3459" t="s">
-        <v>6639</v>
       </c>
     </row>
     <row r="3460">
       <c r="A3460" t="s">
+        <v>6639</v>
+      </c>
+      <c r="B3460" t="s">
         <v>6640</v>
-      </c>
-      <c r="B3460" t="s">
-        <v>6641</v>
       </c>
     </row>
     <row r="3461">
       <c r="A3461" t="s">
+        <v>6641</v>
+      </c>
+      <c r="B3461" t="s">
         <v>6642</v>
-      </c>
-      <c r="B3461" t="s">
-        <v>6643</v>
       </c>
     </row>
     <row r="3462">
       <c r="A3462" t="s">
+        <v>6643</v>
+      </c>
+      <c r="B3462" t="s">
         <v>6644</v>
-      </c>
-      <c r="B3462" t="s">
-        <v>6645</v>
       </c>
     </row>
     <row r="3463">
       <c r="A3463" t="s">
+        <v>6645</v>
+      </c>
+      <c r="B3463" t="s">
         <v>6646</v>
-      </c>
-      <c r="B3463" t="s">
-        <v>6647</v>
       </c>
     </row>
     <row r="3464">
       <c r="A3464" t="s">
+        <v>6647</v>
+      </c>
+      <c r="B3464" t="s">
         <v>6648</v>
-      </c>
-      <c r="B3464" t="s">
-        <v>6649</v>
       </c>
     </row>
     <row r="3465">
       <c r="A3465" t="s">
+        <v>6649</v>
+      </c>
+      <c r="B3465" t="s">
         <v>6650</v>
-      </c>
-      <c r="B3465" t="s">
-        <v>2635</v>
       </c>
     </row>
     <row r="3466">
@@ -48033,39 +48072,39 @@
         <v>6655</v>
       </c>
       <c r="B3468" t="s">
-        <v>4050</v>
+        <v>6656</v>
       </c>
     </row>
     <row r="3469">
       <c r="A3469" t="s">
-        <v>6656</v>
+        <v>6657</v>
       </c>
       <c r="B3469" t="s">
-        <v>6657</v>
+        <v>6658</v>
       </c>
     </row>
     <row r="3470">
       <c r="A3470" t="s">
-        <v>6658</v>
+        <v>6659</v>
       </c>
       <c r="B3470" t="s">
-        <v>6659</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="3471">
       <c r="A3471" t="s">
-        <v>6660</v>
+        <v>6661</v>
       </c>
       <c r="B3471" t="s">
-        <v>6661</v>
+        <v>6662</v>
       </c>
     </row>
     <row r="3472">
       <c r="A3472" t="s">
-        <v>6662</v>
+        <v>6663</v>
       </c>
       <c r="B3472" t="s">
-        <v>6663</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="3473">
@@ -48089,23 +48128,79 @@
         <v>6668</v>
       </c>
       <c r="B3475" t="s">
-        <v>6669</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="3476">
       <c r="A3476" t="s">
+        <v>6669</v>
+      </c>
+      <c r="B3476" t="s">
         <v>6670</v>
-      </c>
-      <c r="B3476" t="s">
-        <v>6671</v>
       </c>
     </row>
     <row r="3477">
       <c r="A3477" t="s">
+        <v>6671</v>
+      </c>
+      <c r="B3477" t="s">
         <v>6672</v>
       </c>
-      <c r="B3477" t="s">
+    </row>
+    <row r="3478">
+      <c r="A3478" t="s">
         <v>6673</v>
+      </c>
+      <c r="B3478" t="s">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" t="s">
+        <v>6675</v>
+      </c>
+      <c r="B3479" t="s">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" t="s">
+        <v>6677</v>
+      </c>
+      <c r="B3480" t="s">
+        <v>6678</v>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" t="s">
+        <v>6679</v>
+      </c>
+      <c r="B3481" t="s">
+        <v>6680</v>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" t="s">
+        <v>6681</v>
+      </c>
+      <c r="B3482" t="s">
+        <v>6682</v>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" t="s">
+        <v>6683</v>
+      </c>
+      <c r="B3483" t="s">
+        <v>6684</v>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" t="s">
+        <v>6685</v>
+      </c>
+      <c r="B3484" t="s">
+        <v>6686</v>
       </c>
     </row>
   </sheetData>

--- a/kelimelik_words_app/assets/database/kelimelik_backup.xlsx
+++ b/kelimelik_words_app/assets/database/kelimelik_backup.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7280" count="7280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7284" count="7284">
   <si>
     <t>word</t>
   </si>
@@ -956,6 +956,12 @@
     <t>Anası olan</t>
   </si>
   <si>
+    <t>Analık</t>
+  </si>
+  <si>
+    <t>Üvey anne</t>
+  </si>
+  <si>
     <t>Anam</t>
   </si>
   <si>
@@ -16413,6 +16419,12 @@
   </si>
   <si>
     <t>Ithalatta bir malın bedeli</t>
+  </si>
+  <si>
+    <t>Siga</t>
+  </si>
+  <si>
+    <t>Fiil çekimi</t>
   </si>
   <si>
     <t>Sik</t>
@@ -23524,16 +23536,16 @@
         <v>348</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C176"/>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C177"/>
     </row>
@@ -23719,10 +23731,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C198"/>
     </row>
@@ -24352,16 +24364,16 @@
         <v>530</v>
       </c>
       <c r="B268" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
+        <v>532</v>
+      </c>
+      <c r="B269" t="s">
         <v>531</v>
-      </c>
-      <c r="B269" t="s">
-        <v>532</v>
       </c>
       <c r="C269"/>
     </row>
@@ -25387,16 +25399,16 @@
         <v>759</v>
       </c>
       <c r="B383" t="s">
-        <v>265</v>
+        <v>760</v>
       </c>
       <c r="C383"/>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B384" t="s">
-        <v>761</v>
+        <v>265</v>
       </c>
       <c r="C384"/>
     </row>
@@ -25522,16 +25534,16 @@
         <v>788</v>
       </c>
       <c r="B398" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="C398"/>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B399" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C399"/>
     </row>
@@ -26719,16 +26731,16 @@
         <v>1053</v>
       </c>
       <c r="B531" t="s">
-        <v>1020</v>
+        <v>1054</v>
       </c>
       <c r="C531"/>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B532" t="s">
-        <v>1055</v>
+        <v>1022</v>
       </c>
       <c r="C532"/>
     </row>
@@ -26764,16 +26776,16 @@
         <v>1062</v>
       </c>
       <c r="B536" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="C536"/>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B537" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C537"/>
     </row>
@@ -26791,16 +26803,16 @@
         <v>1067</v>
       </c>
       <c r="B539" t="s">
-        <v>1020</v>
+        <v>1068</v>
       </c>
       <c r="C539"/>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B540" t="s">
-        <v>1069</v>
+        <v>1022</v>
       </c>
       <c r="C540"/>
     </row>
@@ -27034,25 +27046,25 @@
         <v>1120</v>
       </c>
       <c r="B566" t="s">
-        <v>734</v>
+        <v>1121</v>
       </c>
       <c r="C566"/>
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B567" t="s">
-        <v>1118</v>
+        <v>736</v>
       </c>
       <c r="C567"/>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B568" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C568"/>
     </row>
@@ -27169,16 +27181,16 @@
         <v>1148</v>
       </c>
       <c r="B581" t="s">
-        <v>330</v>
+        <v>1149</v>
       </c>
       <c r="C581"/>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B582" t="s">
-        <v>1150</v>
+        <v>332</v>
       </c>
       <c r="C582"/>
     </row>
@@ -27871,16 +27883,16 @@
         <v>1303</v>
       </c>
       <c r="B659" t="s">
-        <v>143</v>
+        <v>1304</v>
       </c>
       <c r="C659"/>
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B660" t="s">
-        <v>1305</v>
+        <v>143</v>
       </c>
       <c r="C660"/>
     </row>
@@ -27952,16 +27964,16 @@
         <v>1320</v>
       </c>
       <c r="B668" t="s">
-        <v>11</v>
+        <v>1321</v>
       </c>
       <c r="C668"/>
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B669" t="s">
-        <v>1322</v>
+        <v>11</v>
       </c>
       <c r="C669"/>
     </row>
@@ -28321,16 +28333,16 @@
         <v>1401</v>
       </c>
       <c r="B709" t="s">
-        <v>752</v>
+        <v>1402</v>
       </c>
       <c r="C709"/>
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B710" t="s">
-        <v>1403</v>
+        <v>754</v>
       </c>
       <c r="C710"/>
     </row>
@@ -28609,16 +28621,16 @@
         <v>1464</v>
       </c>
       <c r="B741" t="s">
-        <v>1268</v>
+        <v>1465</v>
       </c>
       <c r="C741"/>
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B742" t="s">
-        <v>1466</v>
+        <v>1270</v>
       </c>
       <c r="C742"/>
     </row>
@@ -28651,16 +28663,16 @@
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>1396</v>
+        <v>1473</v>
       </c>
       <c r="B746" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C746"/>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>1474</v>
+        <v>1398</v>
       </c>
       <c r="B747" t="s">
         <v>1475</v>
@@ -28762,16 +28774,16 @@
         <v>1496</v>
       </c>
       <c r="B758" t="s">
-        <v>265</v>
+        <v>1497</v>
       </c>
       <c r="C758"/>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B759" t="s">
-        <v>1498</v>
+        <v>265</v>
       </c>
       <c r="C759"/>
     </row>
@@ -29014,16 +29026,16 @@
         <v>1551</v>
       </c>
       <c r="B786" t="s">
-        <v>1455</v>
+        <v>1552</v>
       </c>
       <c r="C786"/>
     </row>
     <row r="787">
       <c r="A787" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B787" t="s">
-        <v>1553</v>
+        <v>1457</v>
       </c>
       <c r="C787"/>
     </row>
@@ -29491,22 +29503,22 @@
         <v>1656</v>
       </c>
       <c r="B839" t="s">
-        <v>765</v>
+        <v>1657</v>
       </c>
       <c r="C839"/>
     </row>
     <row r="840">
       <c r="A840" t="s">
-        <v>1294</v>
+        <v>1658</v>
       </c>
       <c r="B840" t="s">
-        <v>1657</v>
+        <v>767</v>
       </c>
       <c r="C840"/>
     </row>
     <row r="841">
       <c r="A841" t="s">
-        <v>1658</v>
+        <v>1296</v>
       </c>
       <c r="B841" t="s">
         <v>1659</v>
@@ -29527,16 +29539,16 @@
         <v>1662</v>
       </c>
       <c r="B843" t="s">
-        <v>160</v>
+        <v>1663</v>
       </c>
       <c r="C843"/>
     </row>
     <row r="844">
       <c r="A844" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B844" t="s">
-        <v>1664</v>
+        <v>160</v>
       </c>
       <c r="C844"/>
     </row>
@@ -29569,16 +29581,16 @@
     </row>
     <row r="848">
       <c r="A848" t="s">
-        <v>57</v>
+        <v>1671</v>
       </c>
       <c r="B848" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C848"/>
     </row>
     <row r="849">
       <c r="A849" t="s">
-        <v>1672</v>
+        <v>57</v>
       </c>
       <c r="B849" t="s">
         <v>1673</v>
@@ -29590,16 +29602,16 @@
         <v>1674</v>
       </c>
       <c r="B850" t="s">
-        <v>1628</v>
+        <v>1675</v>
       </c>
       <c r="C850"/>
     </row>
     <row r="851">
       <c r="A851" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B851" t="s">
-        <v>1676</v>
+        <v>1630</v>
       </c>
       <c r="C851"/>
     </row>
@@ -29623,28 +29635,28 @@
     </row>
     <row r="854">
       <c r="A854" t="s">
-        <v>532</v>
+        <v>1681</v>
       </c>
       <c r="B854" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C854"/>
     </row>
     <row r="855">
       <c r="A855" t="s">
-        <v>1682</v>
+        <v>534</v>
       </c>
       <c r="B855" t="s">
-        <v>1136</v>
+        <v>1683</v>
       </c>
       <c r="C855"/>
     </row>
     <row r="856">
       <c r="A856" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B856" t="s">
-        <v>1684</v>
+        <v>1138</v>
       </c>
       <c r="C856"/>
     </row>
@@ -29707,16 +29719,16 @@
         <v>1697</v>
       </c>
       <c r="B863" t="s">
-        <v>21</v>
+        <v>1698</v>
       </c>
       <c r="C863"/>
     </row>
     <row r="864">
       <c r="A864" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B864" t="s">
-        <v>1699</v>
+        <v>21</v>
       </c>
       <c r="C864"/>
     </row>
@@ -29815,16 +29827,16 @@
         <v>1720</v>
       </c>
       <c r="B875" t="s">
-        <v>967</v>
+        <v>1721</v>
       </c>
       <c r="C875"/>
     </row>
     <row r="876">
       <c r="A876" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B876" t="s">
-        <v>1722</v>
+        <v>969</v>
       </c>
       <c r="C876"/>
     </row>
@@ -29968,16 +29980,16 @@
         <v>1753</v>
       </c>
       <c r="B892" t="s">
-        <v>549</v>
+        <v>1754</v>
       </c>
       <c r="C892"/>
     </row>
     <row r="893">
       <c r="A893" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B893" t="s">
-        <v>1755</v>
+        <v>551</v>
       </c>
       <c r="C893"/>
     </row>
@@ -29992,16 +30004,16 @@
     </row>
     <row r="895">
       <c r="A895" t="s">
-        <v>1516</v>
+        <v>1758</v>
       </c>
       <c r="B895" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C895"/>
     </row>
     <row r="896">
       <c r="A896" t="s">
-        <v>1759</v>
+        <v>1518</v>
       </c>
       <c r="B896" t="s">
         <v>1760</v>
@@ -30076,16 +30088,16 @@
         <v>1775</v>
       </c>
       <c r="B904" t="s">
-        <v>62</v>
+        <v>1776</v>
       </c>
       <c r="C904"/>
     </row>
     <row r="905">
       <c r="A905" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="B905" t="s">
-        <v>1777</v>
+        <v>62</v>
       </c>
       <c r="C905"/>
     </row>
@@ -30094,16 +30106,16 @@
         <v>1778</v>
       </c>
       <c r="B906" t="s">
-        <v>263</v>
+        <v>1779</v>
       </c>
       <c r="C906"/>
     </row>
     <row r="907">
       <c r="A907" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="B907" t="s">
-        <v>1780</v>
+        <v>263</v>
       </c>
       <c r="C907"/>
     </row>
@@ -30328,16 +30340,16 @@
         <v>1829</v>
       </c>
       <c r="B932" t="s">
-        <v>882</v>
+        <v>1830</v>
       </c>
       <c r="C932"/>
     </row>
     <row r="933">
       <c r="A933" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B933" t="s">
-        <v>1831</v>
+        <v>884</v>
       </c>
       <c r="C933"/>
     </row>
@@ -30373,16 +30385,16 @@
         <v>1838</v>
       </c>
       <c r="B937" t="s">
-        <v>1780</v>
+        <v>1839</v>
       </c>
       <c r="C937"/>
     </row>
     <row r="938">
       <c r="A938" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B938" t="s">
-        <v>1840</v>
+        <v>1782</v>
       </c>
       <c r="C938"/>
     </row>
@@ -30400,16 +30412,16 @@
         <v>1843</v>
       </c>
       <c r="B940" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="C940"/>
     </row>
     <row r="941">
       <c r="A941" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B941" t="s">
-        <v>1845</v>
+        <v>1838</v>
       </c>
       <c r="C941"/>
     </row>
@@ -30478,16 +30490,16 @@
     </row>
     <row r="949">
       <c r="A949" t="s">
-        <v>1833</v>
+        <v>1860</v>
       </c>
       <c r="B949" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C949"/>
     </row>
     <row r="950">
       <c r="A950" t="s">
-        <v>1861</v>
+        <v>1835</v>
       </c>
       <c r="B950" t="s">
         <v>1862</v>
@@ -30721,16 +30733,16 @@
     </row>
     <row r="976">
       <c r="A976" t="s">
-        <v>960</v>
+        <v>1913</v>
       </c>
       <c r="B976" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C976"/>
     </row>
     <row r="977">
       <c r="A977" t="s">
-        <v>1914</v>
+        <v>962</v>
       </c>
       <c r="B977" t="s">
         <v>1915</v>
@@ -30886,16 +30898,16 @@
         <v>1948</v>
       </c>
       <c r="B994" t="s">
-        <v>1530</v>
+        <v>1949</v>
       </c>
       <c r="C994"/>
     </row>
     <row r="995">
       <c r="A995" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B995" t="s">
-        <v>1950</v>
+        <v>1532</v>
       </c>
       <c r="C995"/>
     </row>
@@ -31012,16 +31024,16 @@
         <v>1975</v>
       </c>
       <c r="B1008" t="s">
-        <v>1601</v>
+        <v>1976</v>
       </c>
       <c r="C1008"/>
     </row>
     <row r="1009">
       <c r="A1009" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1009" t="s">
-        <v>1977</v>
+        <v>1603</v>
       </c>
       <c r="C1009"/>
     </row>
@@ -31075,16 +31087,16 @@
         <v>1988</v>
       </c>
       <c r="B1015" t="s">
-        <v>969</v>
+        <v>1989</v>
       </c>
       <c r="C1015"/>
     </row>
     <row r="1016">
       <c r="A1016" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1016" t="s">
-        <v>1990</v>
+        <v>971</v>
       </c>
       <c r="C1016"/>
     </row>
@@ -31264,16 +31276,16 @@
         <v>2029</v>
       </c>
       <c r="B1036" t="s">
-        <v>1268</v>
+        <v>2030</v>
       </c>
       <c r="C1036"/>
     </row>
     <row r="1037">
       <c r="A1037" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B1037" t="s">
-        <v>2031</v>
+        <v>1270</v>
       </c>
       <c r="C1037"/>
     </row>
@@ -31525,16 +31537,16 @@
         <v>2086</v>
       </c>
       <c r="B1065" t="s">
-        <v>661</v>
+        <v>2087</v>
       </c>
       <c r="C1065"/>
     </row>
     <row r="1066">
       <c r="A1066" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="B1066" t="s">
-        <v>2088</v>
+        <v>663</v>
       </c>
       <c r="C1066"/>
     </row>
@@ -31642,16 +31654,16 @@
         <v>2111</v>
       </c>
       <c r="B1078" t="s">
-        <v>1014</v>
+        <v>2112</v>
       </c>
       <c r="C1078"/>
     </row>
     <row r="1079">
       <c r="A1079" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B1079" t="s">
-        <v>2113</v>
+        <v>1016</v>
       </c>
       <c r="C1079"/>
     </row>
@@ -31732,16 +31744,16 @@
         <v>2130</v>
       </c>
       <c r="B1088" t="s">
-        <v>265</v>
+        <v>2131</v>
       </c>
       <c r="C1088"/>
     </row>
     <row r="1089">
       <c r="A1089" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="B1089" t="s">
-        <v>2132</v>
+        <v>265</v>
       </c>
       <c r="C1089"/>
     </row>
@@ -31849,16 +31861,16 @@
         <v>2155</v>
       </c>
       <c r="B1101" t="s">
-        <v>1162</v>
+        <v>2156</v>
       </c>
       <c r="C1101"/>
     </row>
     <row r="1102">
       <c r="A1102" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="B1102" t="s">
-        <v>2157</v>
+        <v>1164</v>
       </c>
       <c r="C1102"/>
     </row>
@@ -31930,16 +31942,16 @@
         <v>2172</v>
       </c>
       <c r="B1110" t="s">
-        <v>561</v>
+        <v>2173</v>
       </c>
       <c r="C1110"/>
     </row>
     <row r="1111">
       <c r="A1111" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="B1111" t="s">
-        <v>2174</v>
+        <v>563</v>
       </c>
       <c r="C1111"/>
     </row>
@@ -32218,16 +32230,16 @@
         <v>2235</v>
       </c>
       <c r="B1142" t="s">
-        <v>284</v>
+        <v>2236</v>
       </c>
       <c r="C1142"/>
     </row>
     <row r="1143">
       <c r="A1143" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B1143" t="s">
-        <v>2237</v>
+        <v>284</v>
       </c>
       <c r="C1143"/>
     </row>
@@ -32245,16 +32257,16 @@
         <v>2240</v>
       </c>
       <c r="B1145" t="s">
-        <v>143</v>
+        <v>2241</v>
       </c>
       <c r="C1145"/>
     </row>
     <row r="1146">
       <c r="A1146" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="B1146" t="s">
-        <v>2242</v>
+        <v>143</v>
       </c>
       <c r="C1146"/>
     </row>
@@ -32290,16 +32302,16 @@
         <v>2249</v>
       </c>
       <c r="B1150" t="s">
-        <v>1268</v>
+        <v>2250</v>
       </c>
       <c r="C1150"/>
     </row>
     <row r="1151">
       <c r="A1151" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="B1151" t="s">
-        <v>2251</v>
+        <v>1270</v>
       </c>
       <c r="C1151"/>
     </row>
@@ -32389,16 +32401,16 @@
         <v>2270</v>
       </c>
       <c r="B1161" t="s">
-        <v>1822</v>
+        <v>2271</v>
       </c>
       <c r="C1161"/>
     </row>
     <row r="1162">
       <c r="A1162" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B1162" t="s">
-        <v>2272</v>
+        <v>1824</v>
       </c>
       <c r="C1162"/>
     </row>
@@ -32596,16 +32608,16 @@
         <v>2315</v>
       </c>
       <c r="B1184" t="s">
-        <v>1514</v>
+        <v>2316</v>
       </c>
       <c r="C1184"/>
     </row>
     <row r="1185">
       <c r="A1185" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="B1185" t="s">
-        <v>2317</v>
+        <v>1516</v>
       </c>
       <c r="C1185"/>
     </row>
@@ -33109,16 +33121,16 @@
         <v>2428</v>
       </c>
       <c r="B1241" t="s">
-        <v>1762</v>
+        <v>2429</v>
       </c>
       <c r="C1241"/>
     </row>
     <row r="1242">
       <c r="A1242" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="B1242" t="s">
-        <v>2430</v>
+        <v>1764</v>
       </c>
       <c r="C1242"/>
     </row>
@@ -33379,16 +33391,16 @@
         <v>2487</v>
       </c>
       <c r="B1271" t="s">
-        <v>1111</v>
+        <v>2488</v>
       </c>
       <c r="C1271"/>
     </row>
     <row r="1272">
       <c r="A1272" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="B1272" t="s">
-        <v>2489</v>
+        <v>1113</v>
       </c>
       <c r="C1272"/>
     </row>
@@ -33478,16 +33490,16 @@
         <v>2508</v>
       </c>
       <c r="B1282" t="s">
-        <v>2371</v>
+        <v>2509</v>
       </c>
       <c r="C1282"/>
     </row>
     <row r="1283">
       <c r="A1283" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B1283" t="s">
-        <v>2510</v>
+        <v>2373</v>
       </c>
       <c r="C1283"/>
     </row>
@@ -34081,16 +34093,16 @@
         <v>2641</v>
       </c>
       <c r="B1349" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="C1349"/>
     </row>
     <row r="1350">
       <c r="A1350" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1350" t="s">
         <v>2642</v>
-      </c>
-      <c r="B1350" t="s">
-        <v>2643</v>
       </c>
       <c r="C1350"/>
     </row>
@@ -34261,16 +34273,16 @@
         <v>2680</v>
       </c>
       <c r="B1369" t="s">
-        <v>2592</v>
+        <v>2681</v>
       </c>
       <c r="C1369"/>
     </row>
     <row r="1370">
       <c r="A1370" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="B1370" t="s">
-        <v>2682</v>
+        <v>2594</v>
       </c>
       <c r="C1370"/>
     </row>
@@ -34303,28 +34315,28 @@
     </row>
     <row r="1374">
       <c r="A1374" t="s">
-        <v>1435</v>
+        <v>2689</v>
       </c>
       <c r="B1374" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="C1374"/>
     </row>
     <row r="1375">
       <c r="A1375" t="s">
-        <v>2690</v>
+        <v>1437</v>
       </c>
       <c r="B1375" t="s">
-        <v>2626</v>
+        <v>2691</v>
       </c>
       <c r="C1375"/>
     </row>
     <row r="1376">
       <c r="A1376" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="B1376" t="s">
-        <v>2692</v>
+        <v>2628</v>
       </c>
       <c r="C1376"/>
     </row>
@@ -34366,16 +34378,16 @@
     </row>
     <row r="1381">
       <c r="A1381" t="s">
-        <v>218</v>
+        <v>2701</v>
       </c>
       <c r="B1381" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="C1381"/>
     </row>
     <row r="1382">
       <c r="A1382" t="s">
-        <v>2702</v>
+        <v>218</v>
       </c>
       <c r="B1382" t="s">
         <v>2703</v>
@@ -34387,16 +34399,16 @@
         <v>2704</v>
       </c>
       <c r="B1383" t="s">
-        <v>1881</v>
+        <v>2705</v>
       </c>
       <c r="C1383"/>
     </row>
     <row r="1384">
       <c r="A1384" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="B1384" t="s">
-        <v>2706</v>
+        <v>1883</v>
       </c>
       <c r="C1384"/>
     </row>
@@ -34468,16 +34480,16 @@
         <v>2721</v>
       </c>
       <c r="B1392" t="s">
-        <v>706</v>
+        <v>2722</v>
       </c>
       <c r="C1392"/>
     </row>
     <row r="1393">
       <c r="A1393" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="B1393" t="s">
-        <v>2723</v>
+        <v>708</v>
       </c>
       <c r="C1393"/>
     </row>
@@ -34513,16 +34525,16 @@
         <v>2730</v>
       </c>
       <c r="B1397" t="s">
-        <v>1160</v>
+        <v>2731</v>
       </c>
       <c r="C1397"/>
     </row>
     <row r="1398">
       <c r="A1398" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="B1398" t="s">
-        <v>2732</v>
+        <v>1162</v>
       </c>
       <c r="C1398"/>
     </row>
@@ -34576,16 +34588,16 @@
         <v>2743</v>
       </c>
       <c r="B1404" t="s">
-        <v>1550</v>
+        <v>2744</v>
       </c>
       <c r="C1404"/>
     </row>
     <row r="1405">
       <c r="A1405" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="B1405" t="s">
-        <v>2745</v>
+        <v>1552</v>
       </c>
       <c r="C1405"/>
     </row>
@@ -34609,16 +34621,16 @@
     </row>
     <row r="1408">
       <c r="A1408" t="s">
-        <v>2734</v>
+        <v>2750</v>
       </c>
       <c r="B1408" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="C1408"/>
     </row>
     <row r="1409">
       <c r="A1409" t="s">
-        <v>2751</v>
+        <v>2736</v>
       </c>
       <c r="B1409" t="s">
         <v>2752</v>
@@ -34780,16 +34792,16 @@
     </row>
     <row r="1427">
       <c r="A1427" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="B1427" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="C1427"/>
     </row>
     <row r="1428">
       <c r="A1428" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B1428" t="s">
         <v>2789</v>
@@ -34864,22 +34876,22 @@
         <v>2804</v>
       </c>
       <c r="B1436" t="s">
-        <v>2081</v>
+        <v>2805</v>
       </c>
       <c r="C1436"/>
     </row>
     <row r="1437">
       <c r="A1437" t="s">
-        <v>49</v>
+        <v>2806</v>
       </c>
       <c r="B1437" t="s">
-        <v>2805</v>
+        <v>2083</v>
       </c>
       <c r="C1437"/>
     </row>
     <row r="1438">
       <c r="A1438" t="s">
-        <v>2806</v>
+        <v>49</v>
       </c>
       <c r="B1438" t="s">
         <v>2807</v>
@@ -35260,16 +35272,16 @@
         <v>2890</v>
       </c>
       <c r="B1480" t="s">
-        <v>1719</v>
+        <v>2891</v>
       </c>
       <c r="C1480"/>
     </row>
     <row r="1481">
       <c r="A1481" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="B1481" t="s">
-        <v>2892</v>
+        <v>1721</v>
       </c>
       <c r="C1481"/>
     </row>
@@ -35422,25 +35434,25 @@
         <v>2925</v>
       </c>
       <c r="B1498" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="C1498"/>
     </row>
     <row r="1499">
       <c r="A1499" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="B1499" t="s">
-        <v>2786</v>
+        <v>2925</v>
       </c>
       <c r="C1499"/>
     </row>
     <row r="1500">
       <c r="A1500" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="B1500" t="s">
-        <v>2928</v>
+        <v>2788</v>
       </c>
       <c r="C1500"/>
     </row>
@@ -35638,16 +35650,16 @@
         <v>2971</v>
       </c>
       <c r="B1522" t="s">
-        <v>1268</v>
+        <v>2972</v>
       </c>
       <c r="C1522"/>
     </row>
     <row r="1523">
       <c r="A1523" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="B1523" t="s">
-        <v>2973</v>
+        <v>1270</v>
       </c>
       <c r="C1523"/>
     </row>
@@ -35743,16 +35755,16 @@
     </row>
     <row r="1534">
       <c r="A1534" t="s">
-        <v>2973</v>
+        <v>2994</v>
       </c>
       <c r="B1534" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="C1534"/>
     </row>
     <row r="1535">
       <c r="A1535" t="s">
-        <v>2995</v>
+        <v>2975</v>
       </c>
       <c r="B1535" t="s">
         <v>2996</v>
@@ -35764,16 +35776,16 @@
         <v>2997</v>
       </c>
       <c r="B1536" t="s">
-        <v>2275</v>
+        <v>2998</v>
       </c>
       <c r="C1536"/>
     </row>
     <row r="1537">
       <c r="A1537" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="B1537" t="s">
-        <v>2999</v>
+        <v>2277</v>
       </c>
       <c r="C1537"/>
     </row>
@@ -36007,16 +36019,16 @@
         <v>3050</v>
       </c>
       <c r="B1563" t="s">
-        <v>1101</v>
+        <v>3051</v>
       </c>
       <c r="C1563"/>
     </row>
     <row r="1564">
       <c r="A1564" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="B1564" t="s">
-        <v>3052</v>
+        <v>1103</v>
       </c>
       <c r="C1564"/>
     </row>
@@ -36187,16 +36199,16 @@
         <v>3089</v>
       </c>
       <c r="B1583" t="s">
-        <v>3082</v>
+        <v>3090</v>
       </c>
       <c r="C1583"/>
     </row>
     <row r="1584">
       <c r="A1584" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="B1584" t="s">
-        <v>3091</v>
+        <v>3084</v>
       </c>
       <c r="C1584"/>
     </row>
@@ -36232,16 +36244,16 @@
         <v>3098</v>
       </c>
       <c r="B1588" t="s">
-        <v>557</v>
+        <v>3099</v>
       </c>
       <c r="C1588"/>
     </row>
     <row r="1589">
       <c r="A1589" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="B1589" t="s">
-        <v>3100</v>
+        <v>559</v>
       </c>
       <c r="C1589"/>
     </row>
@@ -36274,16 +36286,16 @@
     </row>
     <row r="1593">
       <c r="A1593" t="s">
-        <v>2578</v>
+        <v>3107</v>
       </c>
       <c r="B1593" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="C1593"/>
     </row>
     <row r="1594">
       <c r="A1594" t="s">
-        <v>3108</v>
+        <v>2580</v>
       </c>
       <c r="B1594" t="s">
         <v>3109</v>
@@ -36355,16 +36367,16 @@
     </row>
     <row r="1602">
       <c r="A1602" t="s">
-        <v>808</v>
+        <v>3124</v>
       </c>
       <c r="B1602" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C1602"/>
     </row>
     <row r="1603">
       <c r="A1603" t="s">
-        <v>3125</v>
+        <v>810</v>
       </c>
       <c r="B1603" t="s">
         <v>3126</v>
@@ -36511,16 +36523,16 @@
         <v>3157</v>
       </c>
       <c r="B1619" t="s">
-        <v>1111</v>
+        <v>3158</v>
       </c>
       <c r="C1619"/>
     </row>
     <row r="1620">
       <c r="A1620" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="B1620" t="s">
-        <v>3159</v>
+        <v>1113</v>
       </c>
       <c r="C1620"/>
     </row>
@@ -36850,16 +36862,16 @@
     </row>
     <row r="1657">
       <c r="A1657" t="s">
-        <v>2778</v>
+        <v>3232</v>
       </c>
       <c r="B1657" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="C1657"/>
     </row>
     <row r="1658">
       <c r="A1658" t="s">
-        <v>3233</v>
+        <v>2780</v>
       </c>
       <c r="B1658" t="s">
         <v>3234</v>
@@ -37051,16 +37063,16 @@
         <v>3275</v>
       </c>
       <c r="B1679" t="s">
-        <v>1268</v>
+        <v>3276</v>
       </c>
       <c r="C1679"/>
     </row>
     <row r="1680">
       <c r="A1680" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="B1680" t="s">
-        <v>3277</v>
+        <v>1270</v>
       </c>
       <c r="C1680"/>
     </row>
@@ -37276,16 +37288,16 @@
         <v>3324</v>
       </c>
       <c r="B1704" t="s">
-        <v>3264</v>
+        <v>3325</v>
       </c>
       <c r="C1704"/>
     </row>
     <row r="1705">
       <c r="A1705" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="B1705" t="s">
-        <v>3326</v>
+        <v>3266</v>
       </c>
       <c r="C1705"/>
     </row>
@@ -37339,16 +37351,16 @@
         <v>3337</v>
       </c>
       <c r="B1711" t="s">
-        <v>927</v>
+        <v>3338</v>
       </c>
       <c r="C1711"/>
     </row>
     <row r="1712">
       <c r="A1712" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="B1712" t="s">
-        <v>3339</v>
+        <v>929</v>
       </c>
       <c r="C1712"/>
     </row>
@@ -37618,16 +37630,16 @@
         <v>3398</v>
       </c>
       <c r="B1742" t="s">
-        <v>1814</v>
+        <v>3399</v>
       </c>
       <c r="C1742"/>
     </row>
     <row r="1743">
       <c r="A1743" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="B1743" t="s">
-        <v>3400</v>
+        <v>1816</v>
       </c>
       <c r="C1743"/>
     </row>
@@ -37645,16 +37657,16 @@
         <v>3403</v>
       </c>
       <c r="B1745" t="s">
-        <v>2173</v>
+        <v>3404</v>
       </c>
       <c r="C1745"/>
     </row>
     <row r="1746">
       <c r="A1746" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="B1746" t="s">
-        <v>3405</v>
+        <v>2175</v>
       </c>
       <c r="C1746"/>
     </row>
@@ -37822,16 +37834,16 @@
     </row>
     <row r="1765">
       <c r="A1765" t="s">
-        <v>2622</v>
+        <v>3442</v>
       </c>
       <c r="B1765" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="C1765"/>
     </row>
     <row r="1766">
       <c r="A1766" t="s">
-        <v>3443</v>
+        <v>2624</v>
       </c>
       <c r="B1766" t="s">
         <v>3444</v>
@@ -37978,16 +37990,16 @@
         <v>3475</v>
       </c>
       <c r="B1782" t="s">
-        <v>265</v>
+        <v>3476</v>
       </c>
       <c r="C1782"/>
     </row>
     <row r="1783">
       <c r="A1783" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="B1783" t="s">
-        <v>3477</v>
+        <v>265</v>
       </c>
       <c r="C1783"/>
     </row>
@@ -38137,16 +38149,16 @@
     </row>
     <row r="1800">
       <c r="A1800" t="s">
-        <v>842</v>
+        <v>3510</v>
       </c>
       <c r="B1800" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="C1800"/>
     </row>
     <row r="1801">
       <c r="A1801" t="s">
-        <v>3511</v>
+        <v>844</v>
       </c>
       <c r="B1801" t="s">
         <v>3512</v>
@@ -38266,16 +38278,16 @@
         <v>3537</v>
       </c>
       <c r="B1814" t="s">
-        <v>787</v>
+        <v>3538</v>
       </c>
       <c r="C1814"/>
     </row>
     <row r="1815">
       <c r="A1815" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="B1815" t="s">
-        <v>3539</v>
+        <v>789</v>
       </c>
       <c r="C1815"/>
     </row>
@@ -38392,16 +38404,16 @@
         <v>3564</v>
       </c>
       <c r="B1828" t="s">
-        <v>1306</v>
+        <v>3565</v>
       </c>
       <c r="C1828"/>
     </row>
     <row r="1829">
       <c r="A1829" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="B1829" t="s">
-        <v>3566</v>
+        <v>1308</v>
       </c>
       <c r="C1829"/>
     </row>
@@ -38419,31 +38431,31 @@
         <v>3569</v>
       </c>
       <c r="B1831" t="s">
-        <v>2039</v>
+        <v>3570</v>
       </c>
       <c r="C1831"/>
     </row>
     <row r="1832">
       <c r="A1832" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="B1832" t="s">
-        <v>3571</v>
+        <v>2041</v>
       </c>
       <c r="C1832"/>
     </row>
     <row r="1833">
       <c r="A1833" t="s">
-        <v>2444</v>
+        <v>3572</v>
       </c>
       <c r="B1833" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="C1833"/>
     </row>
     <row r="1834">
       <c r="A1834" t="s">
-        <v>3573</v>
+        <v>2446</v>
       </c>
       <c r="B1834" t="s">
         <v>3574</v>
@@ -38671,16 +38683,16 @@
         <v>3623</v>
       </c>
       <c r="B1859" t="s">
-        <v>1530</v>
+        <v>3624</v>
       </c>
       <c r="C1859"/>
     </row>
     <row r="1860">
       <c r="A1860" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="B1860" t="s">
-        <v>3625</v>
+        <v>1532</v>
       </c>
       <c r="C1860"/>
     </row>
@@ -38767,16 +38779,16 @@
     </row>
     <row r="1870">
       <c r="A1870" t="s">
-        <v>3041</v>
+        <v>3644</v>
       </c>
       <c r="B1870" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="C1870"/>
     </row>
     <row r="1871">
       <c r="A1871" t="s">
-        <v>3645</v>
+        <v>3043</v>
       </c>
       <c r="B1871" t="s">
         <v>3646</v>
@@ -39082,16 +39094,16 @@
     </row>
     <row r="1905">
       <c r="A1905" t="s">
-        <v>3187</v>
+        <v>3713</v>
       </c>
       <c r="B1905" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="C1905"/>
     </row>
     <row r="1906">
       <c r="A1906" t="s">
-        <v>3714</v>
+        <v>3189</v>
       </c>
       <c r="B1906" t="s">
         <v>3715</v>
@@ -39166,16 +39178,16 @@
         <v>3730</v>
       </c>
       <c r="B1914" t="s">
-        <v>1610</v>
+        <v>3731</v>
       </c>
       <c r="C1914"/>
     </row>
     <row r="1915">
       <c r="A1915" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="B1915" t="s">
-        <v>3732</v>
+        <v>1612</v>
       </c>
       <c r="C1915"/>
     </row>
@@ -39190,16 +39202,16 @@
     </row>
     <row r="1917">
       <c r="A1917" t="s">
-        <v>1216</v>
+        <v>3735</v>
       </c>
       <c r="B1917" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="C1917"/>
     </row>
     <row r="1918">
       <c r="A1918" t="s">
-        <v>3736</v>
+        <v>1218</v>
       </c>
       <c r="B1918" t="s">
         <v>3737</v>
@@ -39490,16 +39502,16 @@
         <v>3800</v>
       </c>
       <c r="B1950" t="s">
-        <v>1020</v>
+        <v>3801</v>
       </c>
       <c r="C1950"/>
     </row>
     <row r="1951">
       <c r="A1951" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="B1951" t="s">
-        <v>3802</v>
+        <v>1022</v>
       </c>
       <c r="C1951"/>
     </row>
@@ -39517,16 +39529,16 @@
         <v>3805</v>
       </c>
       <c r="B1953" t="s">
-        <v>940</v>
+        <v>3806</v>
       </c>
       <c r="C1953"/>
     </row>
     <row r="1954">
       <c r="A1954" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="B1954" t="s">
-        <v>3807</v>
+        <v>942</v>
       </c>
       <c r="C1954"/>
     </row>
@@ -39670,16 +39682,16 @@
         <v>3838</v>
       </c>
       <c r="B1970" t="s">
-        <v>3836</v>
+        <v>3839</v>
       </c>
       <c r="C1970"/>
     </row>
     <row r="1971">
       <c r="A1971" t="s">
-        <v>3839</v>
+        <v>3840</v>
       </c>
       <c r="B1971" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
       <c r="C1971"/>
     </row>
@@ -39697,25 +39709,25 @@
         <v>3843</v>
       </c>
       <c r="B1973" t="s">
-        <v>1601</v>
+        <v>3844</v>
       </c>
       <c r="C1973"/>
     </row>
     <row r="1974">
       <c r="A1974" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="B1974" t="s">
-        <v>1246</v>
+        <v>1603</v>
       </c>
       <c r="C1974"/>
     </row>
     <row r="1975">
       <c r="A1975" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="B1975" t="s">
-        <v>3846</v>
+        <v>1248</v>
       </c>
       <c r="C1975"/>
     </row>
@@ -39766,16 +39778,16 @@
     </row>
     <row r="1981">
       <c r="A1981" t="s">
-        <v>277</v>
+        <v>3857</v>
       </c>
       <c r="B1981" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="C1981"/>
     </row>
     <row r="1982">
       <c r="A1982" t="s">
-        <v>3858</v>
+        <v>277</v>
       </c>
       <c r="B1982" t="s">
         <v>3859</v>
@@ -39805,16 +39817,16 @@
         <v>3864</v>
       </c>
       <c r="B1985" t="s">
-        <v>2357</v>
+        <v>3865</v>
       </c>
       <c r="C1985"/>
     </row>
     <row r="1986">
       <c r="A1986" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="B1986" t="s">
-        <v>3866</v>
+        <v>2359</v>
       </c>
       <c r="C1986"/>
     </row>
@@ -39859,16 +39871,16 @@
         <v>3875</v>
       </c>
       <c r="B1991" t="s">
-        <v>2081</v>
+        <v>3876</v>
       </c>
       <c r="C1991"/>
     </row>
     <row r="1992">
       <c r="A1992" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
       <c r="B1992" t="s">
-        <v>3877</v>
+        <v>2083</v>
       </c>
       <c r="C1992"/>
     </row>
@@ -39922,16 +39934,16 @@
         <v>3888</v>
       </c>
       <c r="B1998" t="s">
-        <v>3322</v>
+        <v>3889</v>
       </c>
       <c r="C1998"/>
     </row>
     <row r="1999">
       <c r="A1999" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="B1999" t="s">
-        <v>3890</v>
+        <v>3324</v>
       </c>
       <c r="C1999"/>
     </row>
@@ -40057,16 +40069,16 @@
         <v>3917</v>
       </c>
       <c r="B2013" t="s">
-        <v>1268</v>
+        <v>3918</v>
       </c>
       <c r="C2013"/>
     </row>
     <row r="2014">
       <c r="A2014" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="B2014" t="s">
-        <v>3919</v>
+        <v>1270</v>
       </c>
       <c r="C2014"/>
     </row>
@@ -40201,16 +40213,16 @@
         <v>3948</v>
       </c>
       <c r="B2029" t="s">
-        <v>1530</v>
+        <v>3949</v>
       </c>
       <c r="C2029"/>
     </row>
     <row r="2030">
       <c r="A2030" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="B2030" t="s">
-        <v>3950</v>
+        <v>1532</v>
       </c>
       <c r="C2030"/>
     </row>
@@ -40426,16 +40438,16 @@
         <v>3997</v>
       </c>
       <c r="B2054" t="s">
-        <v>2755</v>
+        <v>3998</v>
       </c>
       <c r="C2054"/>
     </row>
     <row r="2055">
       <c r="A2055" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="B2055" t="s">
-        <v>3999</v>
+        <v>2757</v>
       </c>
       <c r="C2055"/>
     </row>
@@ -40543,16 +40555,16 @@
         <v>4022</v>
       </c>
       <c r="B2067" t="s">
-        <v>1521</v>
+        <v>4023</v>
       </c>
       <c r="C2067"/>
     </row>
     <row r="2068">
       <c r="A2068" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="B2068" t="s">
-        <v>4024</v>
+        <v>1523</v>
       </c>
       <c r="C2068"/>
     </row>
@@ -40669,16 +40681,16 @@
         <v>4049</v>
       </c>
       <c r="B2081" t="s">
-        <v>581</v>
+        <v>4050</v>
       </c>
       <c r="C2081"/>
     </row>
     <row r="2082">
       <c r="A2082" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="B2082" t="s">
-        <v>4051</v>
+        <v>583</v>
       </c>
       <c r="C2082"/>
     </row>
@@ -40705,16 +40717,16 @@
         <v>4056</v>
       </c>
       <c r="B2085" t="s">
-        <v>4054</v>
+        <v>4057</v>
       </c>
       <c r="C2085"/>
     </row>
     <row r="2086">
       <c r="A2086" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="B2086" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
       <c r="C2086"/>
     </row>
@@ -40750,16 +40762,16 @@
         <v>4065</v>
       </c>
       <c r="B2090" t="s">
-        <v>557</v>
+        <v>4066</v>
       </c>
       <c r="C2090"/>
     </row>
     <row r="2091">
       <c r="A2091" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="B2091" t="s">
-        <v>4067</v>
+        <v>559</v>
       </c>
       <c r="C2091"/>
     </row>
@@ -40930,16 +40942,16 @@
         <v>4104</v>
       </c>
       <c r="B2110" t="s">
-        <v>4098</v>
+        <v>4105</v>
       </c>
       <c r="C2110"/>
     </row>
     <row r="2111">
       <c r="A2111" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="B2111" t="s">
-        <v>4106</v>
+        <v>4100</v>
       </c>
       <c r="C2111"/>
     </row>
@@ -40966,16 +40978,16 @@
         <v>4111</v>
       </c>
       <c r="B2114" t="s">
-        <v>3715</v>
+        <v>4112</v>
       </c>
       <c r="C2114"/>
     </row>
     <row r="2115">
       <c r="A2115" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="B2115" t="s">
-        <v>4113</v>
+        <v>3717</v>
       </c>
       <c r="C2115"/>
     </row>
@@ -40984,16 +40996,16 @@
         <v>4114</v>
       </c>
       <c r="B2116" t="s">
-        <v>572</v>
+        <v>4115</v>
       </c>
       <c r="C2116"/>
     </row>
     <row r="2117">
       <c r="A2117" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="B2117" t="s">
-        <v>4116</v>
+        <v>574</v>
       </c>
       <c r="C2117"/>
     </row>
@@ -41236,16 +41248,16 @@
         <v>4169</v>
       </c>
       <c r="B2144" t="s">
-        <v>1487</v>
+        <v>4170</v>
       </c>
       <c r="C2144"/>
     </row>
     <row r="2145">
       <c r="A2145" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="B2145" t="s">
-        <v>4171</v>
+        <v>1489</v>
       </c>
       <c r="C2145"/>
     </row>
@@ -41506,16 +41518,16 @@
         <v>4228</v>
       </c>
       <c r="B2174" t="s">
-        <v>160</v>
+        <v>4229</v>
       </c>
       <c r="C2174"/>
     </row>
     <row r="2175">
       <c r="A2175" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
       <c r="B2175" t="s">
-        <v>4230</v>
+        <v>160</v>
       </c>
       <c r="C2175"/>
     </row>
@@ -41668,16 +41680,16 @@
         <v>4263</v>
       </c>
       <c r="B2192" t="s">
-        <v>2703</v>
+        <v>4264</v>
       </c>
       <c r="C2192"/>
     </row>
     <row r="2193">
       <c r="A2193" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
       <c r="B2193" t="s">
-        <v>4265</v>
+        <v>2705</v>
       </c>
       <c r="C2193"/>
     </row>
@@ -41695,16 +41707,16 @@
         <v>4268</v>
       </c>
       <c r="B2195" t="s">
-        <v>1252</v>
+        <v>4269</v>
       </c>
       <c r="C2195"/>
     </row>
     <row r="2196">
       <c r="A2196" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="B2196" t="s">
-        <v>4270</v>
+        <v>1254</v>
       </c>
       <c r="C2196"/>
     </row>
@@ -41839,16 +41851,16 @@
         <v>4299</v>
       </c>
       <c r="B2211" t="s">
-        <v>1949</v>
+        <v>4300</v>
       </c>
       <c r="C2211"/>
     </row>
     <row r="2212">
       <c r="A2212" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="B2212" t="s">
-        <v>4301</v>
+        <v>1951</v>
       </c>
       <c r="C2212"/>
     </row>
@@ -41884,16 +41896,16 @@
         <v>4308</v>
       </c>
       <c r="B2216" t="s">
-        <v>3232</v>
+        <v>4309</v>
       </c>
       <c r="C2216"/>
     </row>
     <row r="2217">
       <c r="A2217" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="B2217" t="s">
-        <v>4310</v>
+        <v>3234</v>
       </c>
       <c r="C2217"/>
     </row>
@@ -41902,16 +41914,16 @@
         <v>4311</v>
       </c>
       <c r="B2218" t="s">
-        <v>1601</v>
+        <v>4312</v>
       </c>
       <c r="C2218"/>
     </row>
     <row r="2219">
       <c r="A2219" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="B2219" t="s">
-        <v>4313</v>
+        <v>1603</v>
       </c>
       <c r="C2219"/>
     </row>
@@ -42001,16 +42013,16 @@
         <v>4332</v>
       </c>
       <c r="B2229" t="s">
-        <v>263</v>
+        <v>4333</v>
       </c>
       <c r="C2229"/>
     </row>
     <row r="2230">
       <c r="A2230" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="B2230" t="s">
-        <v>4334</v>
+        <v>263</v>
       </c>
       <c r="C2230"/>
     </row>
@@ -42109,16 +42121,16 @@
         <v>4355</v>
       </c>
       <c r="B2241" t="s">
-        <v>3533</v>
+        <v>4356</v>
       </c>
       <c r="C2241"/>
     </row>
     <row r="2242">
       <c r="A2242" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="B2242" t="s">
-        <v>4357</v>
+        <v>3535</v>
       </c>
       <c r="C2242"/>
     </row>
@@ -42127,16 +42139,16 @@
         <v>4358</v>
       </c>
       <c r="B2243" t="s">
-        <v>4353</v>
+        <v>4359</v>
       </c>
       <c r="C2243"/>
     </row>
     <row r="2244">
       <c r="A2244" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="B2244" t="s">
-        <v>4360</v>
+        <v>4355</v>
       </c>
       <c r="C2244"/>
     </row>
@@ -42172,16 +42184,16 @@
         <v>4367</v>
       </c>
       <c r="B2248" t="s">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="C2248"/>
     </row>
     <row r="2249">
       <c r="A2249" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
       <c r="B2249" t="s">
-        <v>4369</v>
+        <v>4363</v>
       </c>
       <c r="C2249"/>
     </row>
@@ -42289,16 +42301,16 @@
         <v>4392</v>
       </c>
       <c r="B2261" t="s">
-        <v>940</v>
+        <v>4393</v>
       </c>
       <c r="C2261"/>
     </row>
     <row r="2262">
       <c r="A2262" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="B2262" t="s">
-        <v>4394</v>
+        <v>942</v>
       </c>
       <c r="C2262"/>
     </row>
@@ -42307,16 +42319,16 @@
         <v>4395</v>
       </c>
       <c r="B2263" t="s">
-        <v>3285</v>
+        <v>4396</v>
       </c>
       <c r="C2263"/>
     </row>
     <row r="2264">
       <c r="A2264" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="B2264" t="s">
-        <v>4397</v>
+        <v>3287</v>
       </c>
       <c r="C2264"/>
     </row>
@@ -42397,16 +42409,16 @@
         <v>4414</v>
       </c>
       <c r="B2273" t="s">
-        <v>2993</v>
+        <v>4415</v>
       </c>
       <c r="C2273"/>
     </row>
     <row r="2274">
       <c r="A2274" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="B2274" t="s">
-        <v>4416</v>
+        <v>2995</v>
       </c>
       <c r="C2274"/>
     </row>
@@ -42433,25 +42445,25 @@
         <v>4421</v>
       </c>
       <c r="B2277" t="s">
-        <v>1111</v>
+        <v>4422</v>
       </c>
       <c r="C2277"/>
     </row>
     <row r="2278">
       <c r="A2278" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
       <c r="B2278" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C2278"/>
     </row>
     <row r="2279">
       <c r="A2279" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="B2279" t="s">
-        <v>4424</v>
+        <v>1113</v>
       </c>
       <c r="C2279"/>
     </row>
@@ -42460,16 +42472,16 @@
         <v>4425</v>
       </c>
       <c r="B2280" t="s">
-        <v>4298</v>
+        <v>4426</v>
       </c>
       <c r="C2280"/>
     </row>
     <row r="2281">
       <c r="A2281" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="B2281" t="s">
-        <v>4427</v>
+        <v>4300</v>
       </c>
       <c r="C2281"/>
     </row>
@@ -42487,16 +42499,16 @@
         <v>4430</v>
       </c>
       <c r="B2283" t="s">
-        <v>4354</v>
+        <v>4431</v>
       </c>
       <c r="C2283"/>
     </row>
     <row r="2284">
       <c r="A2284" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
       <c r="B2284" t="s">
-        <v>4432</v>
+        <v>4356</v>
       </c>
       <c r="C2284"/>
     </row>
@@ -42529,19 +42541,19 @@
     </row>
     <row r="2288">
       <c r="A2288" t="s">
-        <v>1581</v>
+        <v>4439</v>
       </c>
       <c r="B2288" t="s">
-        <v>1580</v>
+        <v>4440</v>
       </c>
       <c r="C2288"/>
     </row>
     <row r="2289">
       <c r="A2289" t="s">
-        <v>4439</v>
+        <v>1583</v>
       </c>
       <c r="B2289" t="s">
-        <v>4440</v>
+        <v>1582</v>
       </c>
       <c r="C2289"/>
     </row>
@@ -42577,16 +42589,16 @@
         <v>4447</v>
       </c>
       <c r="B2293" t="s">
-        <v>129</v>
+        <v>4448</v>
       </c>
       <c r="C2293"/>
     </row>
     <row r="2294">
       <c r="A2294" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="B2294" t="s">
-        <v>4449</v>
+        <v>129</v>
       </c>
       <c r="C2294"/>
     </row>
@@ -42838,16 +42850,16 @@
         <v>4504</v>
       </c>
       <c r="B2322" t="s">
-        <v>3713</v>
+        <v>4505</v>
       </c>
       <c r="C2322"/>
     </row>
     <row r="2323">
       <c r="A2323" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
       <c r="B2323" t="s">
-        <v>4506</v>
+        <v>3715</v>
       </c>
       <c r="C2323"/>
     </row>
@@ -42892,16 +42904,16 @@
         <v>4515</v>
       </c>
       <c r="B2328" t="s">
-        <v>1084</v>
+        <v>4516</v>
       </c>
       <c r="C2328"/>
     </row>
     <row r="2329">
       <c r="A2329" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="B2329" t="s">
-        <v>4517</v>
+        <v>1086</v>
       </c>
       <c r="C2329"/>
     </row>
@@ -43126,16 +43138,16 @@
         <v>4566</v>
       </c>
       <c r="B2354" t="s">
-        <v>265</v>
+        <v>4567</v>
       </c>
       <c r="C2354"/>
     </row>
     <row r="2355">
       <c r="A2355" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="B2355" t="s">
-        <v>4568</v>
+        <v>265</v>
       </c>
       <c r="C2355"/>
     </row>
@@ -43285,16 +43297,16 @@
     </row>
     <row r="2372">
       <c r="A2372" t="s">
-        <v>1601</v>
+        <v>4601</v>
       </c>
       <c r="B2372" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="C2372"/>
     </row>
     <row r="2373">
       <c r="A2373" t="s">
-        <v>4602</v>
+        <v>1603</v>
       </c>
       <c r="B2373" t="s">
         <v>4603</v>
@@ -43351,16 +43363,16 @@
         <v>4614</v>
       </c>
       <c r="B2379" t="s">
-        <v>3469</v>
+        <v>4615</v>
       </c>
       <c r="C2379"/>
     </row>
     <row r="2380">
       <c r="A2380" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="B2380" t="s">
-        <v>4616</v>
+        <v>3471</v>
       </c>
       <c r="C2380"/>
     </row>
@@ -43423,16 +43435,16 @@
         <v>4629</v>
       </c>
       <c r="B2387" t="s">
-        <v>1390</v>
+        <v>4630</v>
       </c>
       <c r="C2387"/>
     </row>
     <row r="2388">
       <c r="A2388" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="B2388" t="s">
-        <v>4631</v>
+        <v>1392</v>
       </c>
       <c r="C2388"/>
     </row>
@@ -43612,16 +43624,16 @@
         <v>4670</v>
       </c>
       <c r="B2408" t="s">
-        <v>4669</v>
+        <v>4671</v>
       </c>
       <c r="C2408"/>
     </row>
     <row r="2409">
       <c r="A2409" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B2409" t="s">
         <v>4671</v>
-      </c>
-      <c r="B2409" t="s">
-        <v>4672</v>
       </c>
       <c r="C2409"/>
     </row>
@@ -43639,16 +43651,16 @@
         <v>4675</v>
       </c>
       <c r="B2411" t="s">
-        <v>706</v>
+        <v>4676</v>
       </c>
       <c r="C2411"/>
     </row>
     <row r="2412">
       <c r="A2412" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="B2412" t="s">
-        <v>4677</v>
+        <v>708</v>
       </c>
       <c r="C2412"/>
     </row>
@@ -43702,16 +43714,16 @@
         <v>4688</v>
       </c>
       <c r="B2418" t="s">
-        <v>1020</v>
+        <v>4689</v>
       </c>
       <c r="C2418"/>
     </row>
     <row r="2419">
       <c r="A2419" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="B2419" t="s">
-        <v>4690</v>
+        <v>1022</v>
       </c>
       <c r="C2419"/>
     </row>
@@ -43963,16 +43975,16 @@
         <v>4745</v>
       </c>
       <c r="B2447" t="s">
-        <v>1020</v>
+        <v>4746</v>
       </c>
       <c r="C2447"/>
     </row>
     <row r="2448">
       <c r="A2448" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="B2448" t="s">
-        <v>4747</v>
+        <v>1022</v>
       </c>
       <c r="C2448"/>
     </row>
@@ -44044,16 +44056,16 @@
         <v>4762</v>
       </c>
       <c r="B2456" t="s">
-        <v>2592</v>
+        <v>4763</v>
       </c>
       <c r="C2456"/>
     </row>
     <row r="2457">
       <c r="A2457" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
       <c r="B2457" t="s">
-        <v>4764</v>
+        <v>2594</v>
       </c>
       <c r="C2457"/>
     </row>
@@ -44062,16 +44074,16 @@
         <v>4765</v>
       </c>
       <c r="B2458" t="s">
-        <v>561</v>
+        <v>4766</v>
       </c>
       <c r="C2458"/>
     </row>
     <row r="2459">
       <c r="A2459" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="B2459" t="s">
-        <v>4767</v>
+        <v>563</v>
       </c>
       <c r="C2459"/>
     </row>
@@ -44188,16 +44200,16 @@
         <v>4792</v>
       </c>
       <c r="B2472" t="s">
-        <v>684</v>
+        <v>4793</v>
       </c>
       <c r="C2472"/>
     </row>
     <row r="2473">
       <c r="A2473" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="B2473" t="s">
-        <v>4794</v>
+        <v>686</v>
       </c>
       <c r="C2473"/>
     </row>
@@ -44347,16 +44359,16 @@
     </row>
     <row r="2490">
       <c r="A2490" t="s">
-        <v>4144</v>
+        <v>4827</v>
       </c>
       <c r="B2490" t="s">
-        <v>4827</v>
+        <v>4828</v>
       </c>
       <c r="C2490"/>
     </row>
     <row r="2491">
       <c r="A2491" t="s">
-        <v>4828</v>
+        <v>4146</v>
       </c>
       <c r="B2491" t="s">
         <v>4829</v>
@@ -44377,16 +44389,16 @@
         <v>4832</v>
       </c>
       <c r="B2493" t="s">
-        <v>1548</v>
+        <v>4833</v>
       </c>
       <c r="C2493"/>
     </row>
     <row r="2494">
       <c r="A2494" t="s">
-        <v>4833</v>
+        <v>4834</v>
       </c>
       <c r="B2494" t="s">
-        <v>4834</v>
+        <v>1550</v>
       </c>
       <c r="C2494"/>
     </row>
@@ -44458,16 +44470,16 @@
         <v>4849</v>
       </c>
       <c r="B2502" t="s">
-        <v>1268</v>
+        <v>4850</v>
       </c>
       <c r="C2502"/>
     </row>
     <row r="2503">
       <c r="A2503" t="s">
-        <v>4850</v>
+        <v>4851</v>
       </c>
       <c r="B2503" t="s">
-        <v>4851</v>
+        <v>1270</v>
       </c>
       <c r="C2503"/>
     </row>
@@ -44566,16 +44578,16 @@
         <v>4872</v>
       </c>
       <c r="B2514" t="s">
-        <v>4871</v>
+        <v>4873</v>
       </c>
       <c r="C2514"/>
     </row>
     <row r="2515">
       <c r="A2515" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B2515" t="s">
         <v>4873</v>
-      </c>
-      <c r="B2515" t="s">
-        <v>4874</v>
       </c>
       <c r="C2515"/>
     </row>
@@ -44692,16 +44704,16 @@
         <v>4899</v>
       </c>
       <c r="B2528" t="s">
-        <v>1113</v>
+        <v>4900</v>
       </c>
       <c r="C2528"/>
     </row>
     <row r="2529">
       <c r="A2529" t="s">
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="B2529" t="s">
-        <v>4901</v>
+        <v>1115</v>
       </c>
       <c r="C2529"/>
     </row>
@@ -44752,16 +44764,16 @@
     </row>
     <row r="2535">
       <c r="A2535" t="s">
-        <v>2327</v>
+        <v>4912</v>
       </c>
       <c r="B2535" t="s">
-        <v>4912</v>
+        <v>4913</v>
       </c>
       <c r="C2535"/>
     </row>
     <row r="2536">
       <c r="A2536" t="s">
-        <v>4913</v>
+        <v>2329</v>
       </c>
       <c r="B2536" t="s">
         <v>4914</v>
@@ -44770,16 +44782,16 @@
     </row>
     <row r="2537">
       <c r="A2537" t="s">
-        <v>3450</v>
+        <v>4915</v>
       </c>
       <c r="B2537" t="s">
-        <v>4915</v>
+        <v>4916</v>
       </c>
       <c r="C2537"/>
     </row>
     <row r="2538">
       <c r="A2538" t="s">
-        <v>4916</v>
+        <v>3452</v>
       </c>
       <c r="B2538" t="s">
         <v>4917</v>
@@ -44899,16 +44911,16 @@
         <v>4942</v>
       </c>
       <c r="B2551" t="s">
-        <v>4937</v>
+        <v>4943</v>
       </c>
       <c r="C2551"/>
     </row>
     <row r="2552">
       <c r="A2552" t="s">
-        <v>4943</v>
+        <v>4944</v>
       </c>
       <c r="B2552" t="s">
-        <v>4944</v>
+        <v>4939</v>
       </c>
       <c r="C2552"/>
     </row>
@@ -45133,16 +45145,16 @@
         <v>4993</v>
       </c>
       <c r="B2577" t="s">
-        <v>2592</v>
+        <v>4994</v>
       </c>
       <c r="C2577"/>
     </row>
     <row r="2578">
       <c r="A2578" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
       <c r="B2578" t="s">
-        <v>4995</v>
+        <v>2594</v>
       </c>
       <c r="C2578"/>
     </row>
@@ -45367,16 +45379,16 @@
         <v>5044</v>
       </c>
       <c r="B2603" t="s">
-        <v>2306</v>
+        <v>5045</v>
       </c>
       <c r="C2603"/>
     </row>
     <row r="2604">
       <c r="A2604" t="s">
-        <v>5045</v>
+        <v>5046</v>
       </c>
       <c r="B2604" t="s">
-        <v>5046</v>
+        <v>2308</v>
       </c>
       <c r="C2604"/>
     </row>
@@ -45484,16 +45496,16 @@
         <v>5069</v>
       </c>
       <c r="B2616" t="s">
-        <v>1113</v>
+        <v>5070</v>
       </c>
       <c r="C2616"/>
     </row>
     <row r="2617">
       <c r="A2617" t="s">
-        <v>5070</v>
+        <v>5071</v>
       </c>
       <c r="B2617" t="s">
-        <v>5071</v>
+        <v>1115</v>
       </c>
       <c r="C2617"/>
     </row>
@@ -45508,16 +45520,16 @@
     </row>
     <row r="2619">
       <c r="A2619" t="s">
-        <v>3791</v>
+        <v>5074</v>
       </c>
       <c r="B2619" t="s">
-        <v>5074</v>
+        <v>5075</v>
       </c>
       <c r="C2619"/>
     </row>
     <row r="2620">
       <c r="A2620" t="s">
-        <v>5075</v>
+        <v>3793</v>
       </c>
       <c r="B2620" t="s">
         <v>5076</v>
@@ -45637,16 +45649,16 @@
         <v>5101</v>
       </c>
       <c r="B2633" t="s">
-        <v>1645</v>
+        <v>5102</v>
       </c>
       <c r="C2633"/>
     </row>
     <row r="2634">
       <c r="A2634" t="s">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="B2634" t="s">
-        <v>5103</v>
+        <v>1647</v>
       </c>
       <c r="C2634"/>
     </row>
@@ -45709,16 +45721,16 @@
         <v>5116</v>
       </c>
       <c r="B2641" t="s">
-        <v>1111</v>
+        <v>5117</v>
       </c>
       <c r="C2641"/>
     </row>
     <row r="2642">
       <c r="A2642" t="s">
-        <v>5117</v>
+        <v>5118</v>
       </c>
       <c r="B2642" t="s">
-        <v>5118</v>
+        <v>1113</v>
       </c>
       <c r="C2642"/>
     </row>
@@ -45988,16 +46000,16 @@
         <v>5177</v>
       </c>
       <c r="B2672" t="s">
-        <v>2362</v>
+        <v>5178</v>
       </c>
       <c r="C2672"/>
     </row>
     <row r="2673">
       <c r="A2673" t="s">
-        <v>5178</v>
+        <v>5179</v>
       </c>
       <c r="B2673" t="s">
-        <v>5179</v>
+        <v>2364</v>
       </c>
       <c r="C2673"/>
     </row>
@@ -46021,19 +46033,19 @@
     </row>
     <row r="2676">
       <c r="A2676" t="s">
-        <v>1678</v>
+        <v>5184</v>
       </c>
       <c r="B2676" t="s">
-        <v>1677</v>
+        <v>5185</v>
       </c>
       <c r="C2676"/>
     </row>
     <row r="2677">
       <c r="A2677" t="s">
-        <v>5184</v>
+        <v>1680</v>
       </c>
       <c r="B2677" t="s">
-        <v>5185</v>
+        <v>1679</v>
       </c>
       <c r="C2677"/>
     </row>
@@ -46294,16 +46306,16 @@
         <v>5242</v>
       </c>
       <c r="B2706" t="s">
-        <v>4464</v>
+        <v>5243</v>
       </c>
       <c r="C2706"/>
     </row>
     <row r="2707">
       <c r="A2707" t="s">
-        <v>5243</v>
+        <v>5244</v>
       </c>
       <c r="B2707" t="s">
-        <v>5244</v>
+        <v>4466</v>
       </c>
       <c r="C2707"/>
     </row>
@@ -46357,16 +46369,16 @@
         <v>5255</v>
       </c>
       <c r="B2713" t="s">
-        <v>1362</v>
+        <v>5256</v>
       </c>
       <c r="C2713"/>
     </row>
     <row r="2714">
       <c r="A2714" t="s">
-        <v>5256</v>
+        <v>5257</v>
       </c>
       <c r="B2714" t="s">
-        <v>5257</v>
+        <v>1364</v>
       </c>
       <c r="C2714"/>
     </row>
@@ -46393,16 +46405,16 @@
         <v>5262</v>
       </c>
       <c r="B2717" t="s">
-        <v>3336</v>
+        <v>5263</v>
       </c>
       <c r="C2717"/>
     </row>
     <row r="2718">
       <c r="A2718" t="s">
-        <v>5263</v>
+        <v>5264</v>
       </c>
       <c r="B2718" t="s">
-        <v>5264</v>
+        <v>3338</v>
       </c>
       <c r="C2718"/>
     </row>
@@ -46582,16 +46594,16 @@
         <v>5303</v>
       </c>
       <c r="B2738" t="s">
-        <v>940</v>
+        <v>5304</v>
       </c>
       <c r="C2738"/>
     </row>
     <row r="2739">
       <c r="A2739" t="s">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="B2739" t="s">
-        <v>5305</v>
+        <v>942</v>
       </c>
       <c r="C2739"/>
     </row>
@@ -46615,10 +46627,10 @@
     </row>
     <row r="2742">
       <c r="A2742" t="s">
-        <v>5309</v>
+        <v>5310</v>
       </c>
       <c r="B2742" t="s">
-        <v>5310</v>
+        <v>5311</v>
       </c>
       <c r="C2742"/>
     </row>
@@ -46696,16 +46708,16 @@
     </row>
     <row r="2751">
       <c r="A2751" t="s">
-        <v>1020</v>
+        <v>5327</v>
       </c>
       <c r="B2751" t="s">
-        <v>5327</v>
+        <v>5328</v>
       </c>
       <c r="C2751"/>
     </row>
     <row r="2752">
       <c r="A2752" t="s">
-        <v>5328</v>
+        <v>1022</v>
       </c>
       <c r="B2752" t="s">
         <v>5329</v>
@@ -46915,16 +46927,16 @@
         <v>5374</v>
       </c>
       <c r="B2775" t="s">
-        <v>263</v>
+        <v>5375</v>
       </c>
       <c r="C2775"/>
     </row>
     <row r="2776">
       <c r="A2776" t="s">
-        <v>5375</v>
+        <v>5376</v>
       </c>
       <c r="B2776" t="s">
-        <v>5376</v>
+        <v>263</v>
       </c>
       <c r="C2776"/>
     </row>
@@ -46996,16 +47008,16 @@
         <v>5391</v>
       </c>
       <c r="B2784" t="s">
-        <v>2330</v>
+        <v>5392</v>
       </c>
       <c r="C2784"/>
     </row>
     <row r="2785">
       <c r="A2785" t="s">
-        <v>5392</v>
+        <v>5393</v>
       </c>
       <c r="B2785" t="s">
-        <v>5393</v>
+        <v>2332</v>
       </c>
       <c r="C2785"/>
     </row>
@@ -47140,16 +47152,16 @@
         <v>5422</v>
       </c>
       <c r="B2800" t="s">
-        <v>3264</v>
+        <v>5423</v>
       </c>
       <c r="C2800"/>
     </row>
     <row r="2801">
       <c r="A2801" t="s">
-        <v>5423</v>
+        <v>5424</v>
       </c>
       <c r="B2801" t="s">
-        <v>5424</v>
+        <v>3266</v>
       </c>
       <c r="C2801"/>
     </row>
@@ -47176,16 +47188,16 @@
         <v>5429</v>
       </c>
       <c r="B2804" t="s">
-        <v>5424</v>
+        <v>5430</v>
       </c>
       <c r="C2804"/>
     </row>
     <row r="2805">
       <c r="A2805" t="s">
-        <v>5430</v>
+        <v>5431</v>
       </c>
       <c r="B2805" t="s">
-        <v>5431</v>
+        <v>5426</v>
       </c>
       <c r="C2805"/>
     </row>
@@ -47230,16 +47242,16 @@
         <v>5440</v>
       </c>
       <c r="B2810" t="s">
-        <v>703</v>
+        <v>5441</v>
       </c>
       <c r="C2810"/>
     </row>
     <row r="2811">
       <c r="A2811" t="s">
-        <v>5441</v>
+        <v>5442</v>
       </c>
       <c r="B2811" t="s">
-        <v>5442</v>
+        <v>705</v>
       </c>
       <c r="C2811"/>
     </row>
@@ -47248,16 +47260,16 @@
         <v>5443</v>
       </c>
       <c r="B2812" t="s">
-        <v>1146</v>
+        <v>5444</v>
       </c>
       <c r="C2812"/>
     </row>
     <row r="2813">
       <c r="A2813" t="s">
-        <v>5444</v>
+        <v>5445</v>
       </c>
       <c r="B2813" t="s">
-        <v>5445</v>
+        <v>1148</v>
       </c>
       <c r="C2813"/>
     </row>
@@ -47347,16 +47359,16 @@
         <v>5464</v>
       </c>
       <c r="B2823" t="s">
-        <v>3264</v>
+        <v>5465</v>
       </c>
       <c r="C2823"/>
     </row>
     <row r="2824">
       <c r="A2824" t="s">
-        <v>5465</v>
+        <v>5466</v>
       </c>
       <c r="B2824" t="s">
-        <v>5466</v>
+        <v>3266</v>
       </c>
       <c r="C2824"/>
     </row>
@@ -47455,25 +47467,25 @@
         <v>5487</v>
       </c>
       <c r="B2835" t="s">
-        <v>1661</v>
+        <v>5488</v>
       </c>
       <c r="C2835"/>
     </row>
     <row r="2836">
       <c r="A2836" t="s">
-        <v>5488</v>
+        <v>5489</v>
       </c>
       <c r="B2836" t="s">
-        <v>5489</v>
+        <v>5490</v>
       </c>
       <c r="C2836"/>
     </row>
     <row r="2837">
       <c r="A2837" t="s">
-        <v>5490</v>
+        <v>5491</v>
       </c>
       <c r="B2837" t="s">
-        <v>5491</v>
+        <v>1663</v>
       </c>
       <c r="C2837"/>
     </row>
@@ -47725,25 +47737,25 @@
         <v>5546</v>
       </c>
       <c r="B2865" t="s">
-        <v>3612</v>
+        <v>5547</v>
       </c>
       <c r="C2865"/>
     </row>
     <row r="2866">
       <c r="A2866" t="s">
-        <v>5547</v>
+        <v>5548</v>
       </c>
       <c r="B2866" t="s">
-        <v>5548</v>
+        <v>5549</v>
       </c>
       <c r="C2866"/>
     </row>
     <row r="2867">
       <c r="A2867" t="s">
-        <v>5549</v>
+        <v>5550</v>
       </c>
       <c r="B2867" t="s">
-        <v>5550</v>
+        <v>3614</v>
       </c>
       <c r="C2867"/>
     </row>
@@ -47821,25 +47833,25 @@
     </row>
     <row r="2876">
       <c r="A2876" t="s">
-        <v>2819</v>
+        <v>5567</v>
       </c>
       <c r="B2876" t="s">
-        <v>5567</v>
+        <v>5568</v>
       </c>
       <c r="C2876"/>
     </row>
     <row r="2877">
       <c r="A2877" t="s">
-        <v>5568</v>
+        <v>5569</v>
       </c>
       <c r="B2877" t="s">
-        <v>5569</v>
+        <v>5570</v>
       </c>
       <c r="C2877"/>
     </row>
     <row r="2878">
       <c r="A2878" t="s">
-        <v>5570</v>
+        <v>2821</v>
       </c>
       <c r="B2878" t="s">
         <v>5571</v>
@@ -47884,37 +47896,37 @@
     </row>
     <row r="2883">
       <c r="A2883" t="s">
-        <v>3</v>
+        <v>5580</v>
       </c>
       <c r="B2883" t="s">
-        <v>5580</v>
+        <v>5581</v>
       </c>
       <c r="C2883"/>
     </row>
     <row r="2884">
       <c r="A2884" t="s">
-        <v>5581</v>
+        <v>5582</v>
       </c>
       <c r="B2884" t="s">
-        <v>5557</v>
+        <v>5583</v>
       </c>
       <c r="C2884"/>
     </row>
     <row r="2885">
       <c r="A2885" t="s">
-        <v>5582</v>
+        <v>3</v>
       </c>
       <c r="B2885" t="s">
-        <v>5583</v>
+        <v>5584</v>
       </c>
       <c r="C2885"/>
     </row>
     <row r="2886">
       <c r="A2886" t="s">
-        <v>5584</v>
+        <v>5585</v>
       </c>
       <c r="B2886" t="s">
-        <v>5585</v>
+        <v>5561</v>
       </c>
       <c r="C2886"/>
     </row>
@@ -47941,25 +47953,25 @@
         <v>5590</v>
       </c>
       <c r="B2889" t="s">
-        <v>2510</v>
+        <v>5591</v>
       </c>
       <c r="C2889"/>
     </row>
     <row r="2890">
       <c r="A2890" t="s">
-        <v>5591</v>
+        <v>5592</v>
       </c>
       <c r="B2890" t="s">
-        <v>5592</v>
+        <v>5593</v>
       </c>
       <c r="C2890"/>
     </row>
     <row r="2891">
       <c r="A2891" t="s">
-        <v>5593</v>
+        <v>5594</v>
       </c>
       <c r="B2891" t="s">
-        <v>5594</v>
+        <v>2512</v>
       </c>
       <c r="C2891"/>
     </row>
@@ -47974,25 +47986,25 @@
     </row>
     <row r="2893">
       <c r="A2893" t="s">
-        <v>259</v>
+        <v>5597</v>
       </c>
       <c r="B2893" t="s">
-        <v>5597</v>
+        <v>5598</v>
       </c>
       <c r="C2893"/>
     </row>
     <row r="2894">
       <c r="A2894" t="s">
-        <v>5598</v>
+        <v>5599</v>
       </c>
       <c r="B2894" t="s">
-        <v>5599</v>
+        <v>5600</v>
       </c>
       <c r="C2894"/>
     </row>
     <row r="2895">
       <c r="A2895" t="s">
-        <v>5600</v>
+        <v>259</v>
       </c>
       <c r="B2895" t="s">
         <v>5601</v>
@@ -48049,25 +48061,25 @@
         <v>5612</v>
       </c>
       <c r="B2901" t="s">
-        <v>2081</v>
+        <v>5613</v>
       </c>
       <c r="C2901"/>
     </row>
     <row r="2902">
       <c r="A2902" t="s">
-        <v>5613</v>
+        <v>5614</v>
       </c>
       <c r="B2902" t="s">
-        <v>5614</v>
+        <v>5615</v>
       </c>
       <c r="C2902"/>
     </row>
     <row r="2903">
       <c r="A2903" t="s">
-        <v>5615</v>
+        <v>5616</v>
       </c>
       <c r="B2903" t="s">
-        <v>5616</v>
+        <v>2083</v>
       </c>
       <c r="C2903"/>
     </row>
@@ -48085,25 +48097,25 @@
         <v>5619</v>
       </c>
       <c r="B2905" t="s">
-        <v>3713</v>
+        <v>5620</v>
       </c>
       <c r="C2905"/>
     </row>
     <row r="2906">
       <c r="A2906" t="s">
-        <v>5620</v>
+        <v>5621</v>
       </c>
       <c r="B2906" t="s">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="C2906"/>
     </row>
     <row r="2907">
       <c r="A2907" t="s">
-        <v>5622</v>
+        <v>5623</v>
       </c>
       <c r="B2907" t="s">
-        <v>5623</v>
+        <v>3715</v>
       </c>
       <c r="C2907"/>
     </row>
@@ -48127,25 +48139,25 @@
     </row>
     <row r="2910">
       <c r="A2910" t="s">
-        <v>3848</v>
+        <v>5628</v>
       </c>
       <c r="B2910" t="s">
-        <v>5628</v>
+        <v>5629</v>
       </c>
       <c r="C2910"/>
     </row>
     <row r="2911">
       <c r="A2911" t="s">
-        <v>5629</v>
+        <v>5630</v>
       </c>
       <c r="B2911" t="s">
-        <v>5630</v>
+        <v>5631</v>
       </c>
       <c r="C2911"/>
     </row>
     <row r="2912">
       <c r="A2912" t="s">
-        <v>5631</v>
+        <v>3850</v>
       </c>
       <c r="B2912" t="s">
         <v>5632</v>
@@ -48193,25 +48205,25 @@
         <v>5641</v>
       </c>
       <c r="B2917" t="s">
-        <v>2605</v>
+        <v>5642</v>
       </c>
       <c r="C2917"/>
     </row>
     <row r="2918">
       <c r="A2918" t="s">
-        <v>5642</v>
+        <v>5643</v>
       </c>
       <c r="B2918" t="s">
-        <v>5643</v>
+        <v>5644</v>
       </c>
       <c r="C2918"/>
     </row>
     <row r="2919">
       <c r="A2919" t="s">
-        <v>5644</v>
+        <v>5645</v>
       </c>
       <c r="B2919" t="s">
-        <v>5645</v>
+        <v>2607</v>
       </c>
       <c r="C2919"/>
     </row>
@@ -48280,25 +48292,25 @@
     </row>
     <row r="2927">
       <c r="A2927" t="s">
-        <v>1176</v>
+        <v>5660</v>
       </c>
       <c r="B2927" t="s">
-        <v>5660</v>
+        <v>5661</v>
       </c>
       <c r="C2927"/>
     </row>
     <row r="2928">
       <c r="A2928" t="s">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="B2928" t="s">
-        <v>5662</v>
+        <v>5663</v>
       </c>
       <c r="C2928"/>
     </row>
     <row r="2929">
       <c r="A2929" t="s">
-        <v>5663</v>
+        <v>1178</v>
       </c>
       <c r="B2929" t="s">
         <v>5664</v>
@@ -48307,25 +48319,25 @@
     </row>
     <row r="2930">
       <c r="A2930" t="s">
-        <v>2306</v>
+        <v>5665</v>
       </c>
       <c r="B2930" t="s">
-        <v>5665</v>
+        <v>5666</v>
       </c>
       <c r="C2930"/>
     </row>
     <row r="2931">
       <c r="A2931" t="s">
-        <v>5666</v>
+        <v>5667</v>
       </c>
       <c r="B2931" t="s">
-        <v>5667</v>
+        <v>5668</v>
       </c>
       <c r="C2931"/>
     </row>
     <row r="2932">
       <c r="A2932" t="s">
-        <v>5668</v>
+        <v>2308</v>
       </c>
       <c r="B2932" t="s">
         <v>5669</v>
@@ -48553,25 +48565,25 @@
         <v>5718</v>
       </c>
       <c r="B2957" t="s">
-        <v>4775</v>
+        <v>5719</v>
       </c>
       <c r="C2957"/>
     </row>
     <row r="2958">
       <c r="A2958" t="s">
-        <v>5719</v>
+        <v>5720</v>
       </c>
       <c r="B2958" t="s">
-        <v>5720</v>
+        <v>5721</v>
       </c>
       <c r="C2958"/>
     </row>
     <row r="2959">
       <c r="A2959" t="s">
-        <v>5721</v>
+        <v>5722</v>
       </c>
       <c r="B2959" t="s">
-        <v>5722</v>
+        <v>4777</v>
       </c>
       <c r="C2959"/>
     </row>
@@ -48838,25 +48850,25 @@
     </row>
     <row r="2989">
       <c r="A2989" t="s">
-        <v>4804</v>
+        <v>5781</v>
       </c>
       <c r="B2989" t="s">
-        <v>5781</v>
+        <v>5782</v>
       </c>
       <c r="C2989"/>
     </row>
     <row r="2990">
       <c r="A2990" t="s">
-        <v>5782</v>
+        <v>5783</v>
       </c>
       <c r="B2990" t="s">
-        <v>5783</v>
+        <v>5784</v>
       </c>
       <c r="C2990"/>
     </row>
     <row r="2991">
       <c r="A2991" t="s">
-        <v>5784</v>
+        <v>4806</v>
       </c>
       <c r="B2991" t="s">
         <v>5785</v>
@@ -48946,25 +48958,25 @@
     </row>
     <row r="3001">
       <c r="A3001" t="s">
-        <v>5802</v>
+        <v>5804</v>
       </c>
       <c r="B3001" t="s">
-        <v>5804</v>
+        <v>5805</v>
       </c>
       <c r="C3001"/>
     </row>
     <row r="3002">
       <c r="A3002" t="s">
-        <v>5805</v>
+        <v>5806</v>
       </c>
       <c r="B3002" t="s">
-        <v>5806</v>
+        <v>5807</v>
       </c>
       <c r="C3002"/>
     </row>
     <row r="3003">
       <c r="A3003" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="B3003" t="s">
         <v>5808</v>
@@ -49018,25 +49030,25 @@
     </row>
     <row r="3009">
       <c r="A3009" t="s">
-        <v>2966</v>
+        <v>5819</v>
       </c>
       <c r="B3009" t="s">
-        <v>5819</v>
+        <v>5820</v>
       </c>
       <c r="C3009"/>
     </row>
     <row r="3010">
       <c r="A3010" t="s">
-        <v>5820</v>
+        <v>5821</v>
       </c>
       <c r="B3010" t="s">
-        <v>5821</v>
+        <v>5822</v>
       </c>
       <c r="C3010"/>
     </row>
     <row r="3011">
       <c r="A3011" t="s">
-        <v>5822</v>
+        <v>2968</v>
       </c>
       <c r="B3011" t="s">
         <v>5823</v>
@@ -49072,25 +49084,25 @@
     </row>
     <row r="3015">
       <c r="A3015" t="s">
-        <v>61</v>
+        <v>5830</v>
       </c>
       <c r="B3015" t="s">
-        <v>5830</v>
+        <v>5831</v>
       </c>
       <c r="C3015"/>
     </row>
     <row r="3016">
       <c r="A3016" t="s">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="B3016" t="s">
-        <v>5832</v>
+        <v>5833</v>
       </c>
       <c r="C3016"/>
     </row>
     <row r="3017">
       <c r="A3017" t="s">
-        <v>5833</v>
+        <v>61</v>
       </c>
       <c r="B3017" t="s">
         <v>5834</v>
@@ -49156,43 +49168,43 @@
         <v>5847</v>
       </c>
       <c r="B3024" t="s">
-        <v>1447</v>
+        <v>5848</v>
       </c>
       <c r="C3024"/>
     </row>
     <row r="3025">
       <c r="A3025" t="s">
-        <v>5848</v>
+        <v>5849</v>
       </c>
       <c r="B3025" t="s">
-        <v>5849</v>
+        <v>5850</v>
       </c>
       <c r="C3025"/>
     </row>
     <row r="3026">
       <c r="A3026" t="s">
-        <v>5850</v>
+        <v>5851</v>
       </c>
       <c r="B3026" t="s">
-        <v>490</v>
+        <v>1449</v>
       </c>
       <c r="C3026"/>
     </row>
     <row r="3027">
       <c r="A3027" t="s">
-        <v>5851</v>
+        <v>5852</v>
       </c>
       <c r="B3027" t="s">
-        <v>5852</v>
+        <v>5853</v>
       </c>
       <c r="C3027"/>
     </row>
     <row r="3028">
       <c r="A3028" t="s">
-        <v>5853</v>
+        <v>5854</v>
       </c>
       <c r="B3028" t="s">
-        <v>5854</v>
+        <v>492</v>
       </c>
       <c r="C3028"/>
     </row>
@@ -49252,37 +49264,37 @@
     </row>
     <row r="3035">
       <c r="A3035" t="s">
-        <v>2985</v>
+        <v>5867</v>
       </c>
       <c r="B3035" t="s">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="C3035"/>
     </row>
     <row r="3036">
       <c r="A3036" t="s">
-        <v>5868</v>
+        <v>5869</v>
       </c>
       <c r="B3036" t="s">
-        <v>1268</v>
+        <v>5870</v>
       </c>
       <c r="C3036"/>
     </row>
     <row r="3037">
       <c r="A3037" t="s">
-        <v>5869</v>
+        <v>2987</v>
       </c>
       <c r="B3037" t="s">
-        <v>5870</v>
+        <v>5871</v>
       </c>
       <c r="C3037"/>
     </row>
     <row r="3038">
       <c r="A3038" t="s">
-        <v>5871</v>
+        <v>5872</v>
       </c>
       <c r="B3038" t="s">
-        <v>5872</v>
+        <v>1270</v>
       </c>
       <c r="C3038"/>
     </row>
@@ -49414,70 +49426,70 @@
     </row>
     <row r="3053">
       <c r="A3053" t="s">
-        <v>5900</v>
+        <v>5901</v>
       </c>
       <c r="B3053" t="s">
-        <v>746</v>
+        <v>5902</v>
       </c>
       <c r="C3053"/>
     </row>
     <row r="3054">
       <c r="A3054" t="s">
-        <v>5901</v>
+        <v>5903</v>
       </c>
       <c r="B3054" t="s">
-        <v>5902</v>
+        <v>5904</v>
       </c>
       <c r="C3054"/>
     </row>
     <row r="3055">
       <c r="A3055" t="s">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="B3055" t="s">
-        <v>5904</v>
+        <v>748</v>
       </c>
       <c r="C3055"/>
     </row>
     <row r="3056">
       <c r="A3056" t="s">
-        <v>894</v>
+        <v>5905</v>
       </c>
       <c r="B3056" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="C3056"/>
     </row>
     <row r="3057">
       <c r="A3057" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="B3057" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="C3057"/>
     </row>
     <row r="3058">
       <c r="A3058" t="s">
-        <v>4775</v>
+        <v>896</v>
       </c>
       <c r="B3058" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="C3058"/>
     </row>
     <row r="3059">
       <c r="A3059" t="s">
-        <v>5909</v>
+        <v>5910</v>
       </c>
       <c r="B3059" t="s">
-        <v>5910</v>
+        <v>5911</v>
       </c>
       <c r="C3059"/>
     </row>
     <row r="3060">
       <c r="A3060" t="s">
-        <v>5911</v>
+        <v>4777</v>
       </c>
       <c r="B3060" t="s">
         <v>5912</v>
@@ -49498,25 +49510,25 @@
         <v>5915</v>
       </c>
       <c r="B3062" t="s">
-        <v>5623</v>
+        <v>5916</v>
       </c>
       <c r="C3062"/>
     </row>
     <row r="3063">
       <c r="A3063" t="s">
-        <v>5916</v>
+        <v>5917</v>
       </c>
       <c r="B3063" t="s">
-        <v>5917</v>
+        <v>5918</v>
       </c>
       <c r="C3063"/>
     </row>
     <row r="3064">
       <c r="A3064" t="s">
-        <v>5918</v>
+        <v>5919</v>
       </c>
       <c r="B3064" t="s">
-        <v>5919</v>
+        <v>5627</v>
       </c>
       <c r="C3064"/>
     </row>
@@ -49570,25 +49582,25 @@
         <v>5930</v>
       </c>
       <c r="B3070" t="s">
-        <v>4160</v>
+        <v>5931</v>
       </c>
       <c r="C3070"/>
     </row>
     <row r="3071">
       <c r="A3071" t="s">
-        <v>5931</v>
+        <v>5932</v>
       </c>
       <c r="B3071" t="s">
-        <v>5932</v>
+        <v>5933</v>
       </c>
       <c r="C3071"/>
     </row>
     <row r="3072">
       <c r="A3072" t="s">
-        <v>5933</v>
+        <v>5934</v>
       </c>
       <c r="B3072" t="s">
-        <v>5934</v>
+        <v>4162</v>
       </c>
       <c r="C3072"/>
     </row>
@@ -49777,43 +49789,43 @@
         <v>5975</v>
       </c>
       <c r="B3093" t="s">
-        <v>5155</v>
+        <v>5976</v>
       </c>
       <c r="C3093"/>
     </row>
     <row r="3094">
       <c r="A3094" t="s">
-        <v>5976</v>
+        <v>5977</v>
       </c>
       <c r="B3094" t="s">
-        <v>5977</v>
+        <v>5978</v>
       </c>
       <c r="C3094"/>
     </row>
     <row r="3095">
       <c r="A3095" t="s">
-        <v>5978</v>
+        <v>5979</v>
       </c>
       <c r="B3095" t="s">
-        <v>1340</v>
+        <v>5157</v>
       </c>
       <c r="C3095"/>
     </row>
     <row r="3096">
       <c r="A3096" t="s">
-        <v>5979</v>
+        <v>5980</v>
       </c>
       <c r="B3096" t="s">
-        <v>5980</v>
+        <v>5981</v>
       </c>
       <c r="C3096"/>
     </row>
     <row r="3097">
       <c r="A3097" t="s">
-        <v>5981</v>
+        <v>5982</v>
       </c>
       <c r="B3097" t="s">
-        <v>5982</v>
+        <v>1342</v>
       </c>
       <c r="C3097"/>
     </row>
@@ -49831,25 +49843,25 @@
         <v>5985</v>
       </c>
       <c r="B3099" t="s">
-        <v>5263</v>
+        <v>5986</v>
       </c>
       <c r="C3099"/>
     </row>
     <row r="3100">
       <c r="A3100" t="s">
-        <v>5986</v>
+        <v>5987</v>
       </c>
       <c r="B3100" t="s">
-        <v>5987</v>
+        <v>5988</v>
       </c>
       <c r="C3100"/>
     </row>
     <row r="3101">
       <c r="A3101" t="s">
-        <v>5988</v>
+        <v>5989</v>
       </c>
       <c r="B3101" t="s">
-        <v>5989</v>
+        <v>5265</v>
       </c>
       <c r="C3101"/>
     </row>
@@ -50071,25 +50083,25 @@
     </row>
     <row r="3126">
       <c r="A3126" t="s">
-        <v>6035</v>
+        <v>6038</v>
       </c>
       <c r="B3126" t="s">
-        <v>6038</v>
+        <v>6039</v>
       </c>
       <c r="C3126"/>
     </row>
     <row r="3127">
       <c r="A3127" t="s">
-        <v>6039</v>
+        <v>6040</v>
       </c>
       <c r="B3127" t="s">
-        <v>6040</v>
+        <v>6041</v>
       </c>
       <c r="C3127"/>
     </row>
     <row r="3128">
       <c r="A3128" t="s">
-        <v>6041</v>
+        <v>6039</v>
       </c>
       <c r="B3128" t="s">
         <v>6042</v>
@@ -50269,25 +50281,25 @@
     </row>
     <row r="3148">
       <c r="A3148" t="s">
-        <v>6056</v>
+        <v>6081</v>
       </c>
       <c r="B3148" t="s">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="C3148"/>
     </row>
     <row r="3149">
       <c r="A3149" t="s">
-        <v>6082</v>
+        <v>6083</v>
       </c>
       <c r="B3149" t="s">
-        <v>6083</v>
+        <v>6084</v>
       </c>
       <c r="C3149"/>
     </row>
     <row r="3150">
       <c r="A3150" t="s">
-        <v>6084</v>
+        <v>6060</v>
       </c>
       <c r="B3150" t="s">
         <v>6085</v>
@@ -50380,25 +50392,25 @@
         <v>6104</v>
       </c>
       <c r="B3160" t="s">
-        <v>2254</v>
+        <v>6105</v>
       </c>
       <c r="C3160"/>
     </row>
     <row r="3161">
       <c r="A3161" t="s">
-        <v>6105</v>
+        <v>6106</v>
       </c>
       <c r="B3161" t="s">
-        <v>6106</v>
+        <v>6107</v>
       </c>
       <c r="C3161"/>
     </row>
     <row r="3162">
       <c r="A3162" t="s">
-        <v>6107</v>
+        <v>6108</v>
       </c>
       <c r="B3162" t="s">
-        <v>6108</v>
+        <v>2256</v>
       </c>
       <c r="C3162"/>
     </row>
@@ -50641,25 +50653,25 @@
         <v>6161</v>
       </c>
       <c r="B3189" t="s">
-        <v>4972</v>
+        <v>6162</v>
       </c>
       <c r="C3189"/>
     </row>
     <row r="3190">
       <c r="A3190" t="s">
-        <v>6162</v>
+        <v>6163</v>
       </c>
       <c r="B3190" t="s">
-        <v>6163</v>
+        <v>6164</v>
       </c>
       <c r="C3190"/>
     </row>
     <row r="3191">
       <c r="A3191" t="s">
-        <v>6164</v>
+        <v>6165</v>
       </c>
       <c r="B3191" t="s">
-        <v>6165</v>
+        <v>4974</v>
       </c>
       <c r="C3191"/>
     </row>
@@ -50704,25 +50716,25 @@
         <v>6174</v>
       </c>
       <c r="B3196" t="s">
-        <v>4329</v>
+        <v>6175</v>
       </c>
       <c r="C3196"/>
     </row>
     <row r="3197">
       <c r="A3197" t="s">
-        <v>6175</v>
+        <v>6176</v>
       </c>
       <c r="B3197" t="s">
-        <v>6176</v>
+        <v>6177</v>
       </c>
       <c r="C3197"/>
     </row>
     <row r="3198">
       <c r="A3198" t="s">
-        <v>6177</v>
+        <v>6178</v>
       </c>
       <c r="B3198" t="s">
-        <v>6178</v>
+        <v>4331</v>
       </c>
       <c r="C3198"/>
     </row>
@@ -50749,25 +50761,25 @@
         <v>6183</v>
       </c>
       <c r="B3201" t="s">
-        <v>2411</v>
+        <v>6184</v>
       </c>
       <c r="C3201"/>
     </row>
     <row r="3202">
       <c r="A3202" t="s">
-        <v>6184</v>
+        <v>6185</v>
       </c>
       <c r="B3202" t="s">
-        <v>6185</v>
+        <v>6186</v>
       </c>
       <c r="C3202"/>
     </row>
     <row r="3203">
       <c r="A3203" t="s">
-        <v>6186</v>
+        <v>6187</v>
       </c>
       <c r="B3203" t="s">
-        <v>6187</v>
+        <v>2413</v>
       </c>
       <c r="C3203"/>
     </row>
@@ -50854,28 +50866,28 @@
     </row>
     <row r="3213">
       <c r="A3213" t="s">
-        <v>6103</v>
+        <v>6206</v>
       </c>
       <c r="B3213" t="s">
-        <v>6102</v>
+        <v>6207</v>
       </c>
       <c r="C3213"/>
     </row>
     <row r="3214">
       <c r="A3214" t="s">
-        <v>6206</v>
+        <v>6208</v>
       </c>
       <c r="B3214" t="s">
-        <v>6207</v>
+        <v>6209</v>
       </c>
       <c r="C3214"/>
     </row>
     <row r="3215">
       <c r="A3215" t="s">
-        <v>6208</v>
+        <v>6107</v>
       </c>
       <c r="B3215" t="s">
-        <v>6209</v>
+        <v>6106</v>
       </c>
       <c r="C3215"/>
     </row>
@@ -50911,25 +50923,25 @@
         <v>6216</v>
       </c>
       <c r="B3219" t="s">
-        <v>1162</v>
+        <v>6217</v>
       </c>
       <c r="C3219"/>
     </row>
     <row r="3220">
       <c r="A3220" t="s">
-        <v>6217</v>
+        <v>6218</v>
       </c>
       <c r="B3220" t="s">
-        <v>6218</v>
+        <v>6219</v>
       </c>
       <c r="C3220"/>
     </row>
     <row r="3221">
       <c r="A3221" t="s">
-        <v>6219</v>
+        <v>6220</v>
       </c>
       <c r="B3221" t="s">
-        <v>6220</v>
+        <v>1164</v>
       </c>
       <c r="C3221"/>
     </row>
@@ -50938,43 +50950,43 @@
         <v>6221</v>
       </c>
       <c r="B3222" t="s">
-        <v>201</v>
+        <v>6222</v>
       </c>
       <c r="C3222"/>
     </row>
     <row r="3223">
       <c r="A3223" t="s">
-        <v>6222</v>
+        <v>6223</v>
       </c>
       <c r="B3223" t="s">
-        <v>6223</v>
+        <v>6224</v>
       </c>
       <c r="C3223"/>
     </row>
     <row r="3224">
       <c r="A3224" t="s">
-        <v>6224</v>
+        <v>6225</v>
       </c>
       <c r="B3224" t="s">
-        <v>4555</v>
+        <v>201</v>
       </c>
       <c r="C3224"/>
     </row>
     <row r="3225">
       <c r="A3225" t="s">
-        <v>6225</v>
+        <v>6226</v>
       </c>
       <c r="B3225" t="s">
-        <v>6226</v>
+        <v>6227</v>
       </c>
       <c r="C3225"/>
     </row>
     <row r="3226">
       <c r="A3226" t="s">
-        <v>6227</v>
+        <v>6228</v>
       </c>
       <c r="B3226" t="s">
-        <v>6228</v>
+        <v>4557</v>
       </c>
       <c r="C3226"/>
     </row>
@@ -51034,25 +51046,25 @@
     </row>
     <row r="3233">
       <c r="A3233" t="s">
-        <v>2799</v>
+        <v>6241</v>
       </c>
       <c r="B3233" t="s">
-        <v>6241</v>
+        <v>6242</v>
       </c>
       <c r="C3233"/>
     </row>
     <row r="3234">
       <c r="A3234" t="s">
-        <v>6242</v>
+        <v>6243</v>
       </c>
       <c r="B3234" t="s">
-        <v>6243</v>
+        <v>6244</v>
       </c>
       <c r="C3234"/>
     </row>
     <row r="3235">
       <c r="A3235" t="s">
-        <v>6244</v>
+        <v>2801</v>
       </c>
       <c r="B3235" t="s">
         <v>6245</v>
@@ -51169,25 +51181,25 @@
     </row>
     <row r="3248">
       <c r="A3248" t="s">
-        <v>3561</v>
+        <v>6270</v>
       </c>
       <c r="B3248" t="s">
-        <v>6270</v>
+        <v>6271</v>
       </c>
       <c r="C3248"/>
     </row>
     <row r="3249">
       <c r="A3249" t="s">
-        <v>6271</v>
+        <v>6272</v>
       </c>
       <c r="B3249" t="s">
-        <v>6272</v>
+        <v>6273</v>
       </c>
       <c r="C3249"/>
     </row>
     <row r="3250">
       <c r="A3250" t="s">
-        <v>6273</v>
+        <v>3563</v>
       </c>
       <c r="B3250" t="s">
         <v>6274</v>
@@ -51235,25 +51247,25 @@
         <v>6283</v>
       </c>
       <c r="B3255" t="s">
-        <v>1491</v>
+        <v>6284</v>
       </c>
       <c r="C3255"/>
     </row>
     <row r="3256">
       <c r="A3256" t="s">
-        <v>6284</v>
+        <v>6285</v>
       </c>
       <c r="B3256" t="s">
-        <v>6285</v>
+        <v>6286</v>
       </c>
       <c r="C3256"/>
     </row>
     <row r="3257">
       <c r="A3257" t="s">
-        <v>6286</v>
+        <v>6287</v>
       </c>
       <c r="B3257" t="s">
-        <v>6287</v>
+        <v>1493</v>
       </c>
       <c r="C3257"/>
     </row>
@@ -51280,25 +51292,25 @@
         <v>6292</v>
       </c>
       <c r="B3260" t="s">
-        <v>309</v>
+        <v>6293</v>
       </c>
       <c r="C3260"/>
     </row>
     <row r="3261">
       <c r="A3261" t="s">
-        <v>6293</v>
+        <v>6294</v>
       </c>
       <c r="B3261" t="s">
-        <v>6294</v>
+        <v>6295</v>
       </c>
       <c r="C3261"/>
     </row>
     <row r="3262">
       <c r="A3262" t="s">
-        <v>6295</v>
+        <v>6296</v>
       </c>
       <c r="B3262" t="s">
-        <v>6296</v>
+        <v>309</v>
       </c>
       <c r="C3262"/>
     </row>
@@ -51316,25 +51328,25 @@
         <v>6299</v>
       </c>
       <c r="B3264" t="s">
-        <v>1111</v>
+        <v>6300</v>
       </c>
       <c r="C3264"/>
     </row>
     <row r="3265">
       <c r="A3265" t="s">
-        <v>6300</v>
+        <v>6301</v>
       </c>
       <c r="B3265" t="s">
-        <v>6301</v>
+        <v>6302</v>
       </c>
       <c r="C3265"/>
     </row>
     <row r="3266">
       <c r="A3266" t="s">
-        <v>6302</v>
+        <v>6303</v>
       </c>
       <c r="B3266" t="s">
-        <v>6303</v>
+        <v>1113</v>
       </c>
       <c r="C3266"/>
     </row>
@@ -51394,28 +51406,28 @@
     </row>
     <row r="3273">
       <c r="A3273" t="s">
-        <v>6226</v>
+        <v>6316</v>
       </c>
       <c r="B3273" t="s">
-        <v>750</v>
+        <v>6317</v>
       </c>
       <c r="C3273"/>
     </row>
     <row r="3274">
       <c r="A3274" t="s">
-        <v>6316</v>
+        <v>6318</v>
       </c>
       <c r="B3274" t="s">
-        <v>6317</v>
+        <v>6319</v>
       </c>
       <c r="C3274"/>
     </row>
     <row r="3275">
       <c r="A3275" t="s">
-        <v>6318</v>
+        <v>6230</v>
       </c>
       <c r="B3275" t="s">
-        <v>6319</v>
+        <v>752</v>
       </c>
       <c r="C3275"/>
     </row>
@@ -51424,31 +51436,31 @@
         <v>6320</v>
       </c>
       <c r="B3276" t="s">
-        <v>1268</v>
+        <v>6321</v>
       </c>
       <c r="C3276"/>
     </row>
     <row r="3277">
       <c r="A3277" t="s">
-        <v>5836</v>
+        <v>6322</v>
       </c>
       <c r="B3277" t="s">
-        <v>6321</v>
+        <v>6323</v>
       </c>
       <c r="C3277"/>
     </row>
     <row r="3278">
       <c r="A3278" t="s">
-        <v>6322</v>
+        <v>6324</v>
       </c>
       <c r="B3278" t="s">
-        <v>6323</v>
+        <v>1270</v>
       </c>
       <c r="C3278"/>
     </row>
     <row r="3279">
       <c r="A3279" t="s">
-        <v>6324</v>
+        <v>5840</v>
       </c>
       <c r="B3279" t="s">
         <v>6325</v>
@@ -51460,52 +51472,52 @@
         <v>6326</v>
       </c>
       <c r="B3280" t="s">
-        <v>4506</v>
+        <v>6327</v>
       </c>
       <c r="C3280"/>
     </row>
     <row r="3281">
       <c r="A3281" t="s">
-        <v>1719</v>
+        <v>6328</v>
       </c>
       <c r="B3281" t="s">
-        <v>6327</v>
+        <v>6329</v>
       </c>
       <c r="C3281"/>
     </row>
     <row r="3282">
       <c r="A3282" t="s">
-        <v>6328</v>
+        <v>6330</v>
       </c>
       <c r="B3282" t="s">
-        <v>6329</v>
+        <v>4508</v>
       </c>
       <c r="C3282"/>
     </row>
     <row r="3283">
       <c r="A3283" t="s">
-        <v>6330</v>
+        <v>1721</v>
       </c>
       <c r="B3283" t="s">
-        <v>6329</v>
+        <v>6331</v>
       </c>
       <c r="C3283"/>
     </row>
     <row r="3284">
       <c r="A3284" t="s">
-        <v>6331</v>
+        <v>6332</v>
       </c>
       <c r="B3284" t="s">
-        <v>6332</v>
+        <v>6333</v>
       </c>
       <c r="C3284"/>
     </row>
     <row r="3285">
       <c r="A3285" t="s">
+        <v>6334</v>
+      </c>
+      <c r="B3285" t="s">
         <v>6333</v>
-      </c>
-      <c r="B3285" t="s">
-        <v>6334</v>
       </c>
       <c r="C3285"/>
     </row>
@@ -51766,25 +51778,25 @@
         <v>6391</v>
       </c>
       <c r="B3314" t="s">
-        <v>224</v>
+        <v>6392</v>
       </c>
       <c r="C3314"/>
     </row>
     <row r="3315">
       <c r="A3315" t="s">
-        <v>6392</v>
+        <v>6393</v>
       </c>
       <c r="B3315" t="s">
-        <v>6393</v>
+        <v>6394</v>
       </c>
       <c r="C3315"/>
     </row>
     <row r="3316">
       <c r="A3316" t="s">
-        <v>6394</v>
+        <v>6395</v>
       </c>
       <c r="B3316" t="s">
-        <v>6395</v>
+        <v>224</v>
       </c>
       <c r="C3316"/>
     </row>
@@ -51874,25 +51886,25 @@
         <v>6414</v>
       </c>
       <c r="B3326" t="s">
-        <v>5787</v>
+        <v>6415</v>
       </c>
       <c r="C3326"/>
     </row>
     <row r="3327">
       <c r="A3327" t="s">
-        <v>6415</v>
+        <v>6416</v>
       </c>
       <c r="B3327" t="s">
-        <v>6416</v>
+        <v>6417</v>
       </c>
       <c r="C3327"/>
     </row>
     <row r="3328">
       <c r="A3328" t="s">
-        <v>6417</v>
+        <v>6418</v>
       </c>
       <c r="B3328" t="s">
-        <v>6418</v>
+        <v>5791</v>
       </c>
       <c r="C3328"/>
     </row>
@@ -51952,25 +51964,25 @@
     </row>
     <row r="3335">
       <c r="A3335" t="s">
-        <v>4570</v>
+        <v>6431</v>
       </c>
       <c r="B3335" t="s">
-        <v>6431</v>
+        <v>6432</v>
       </c>
       <c r="C3335"/>
     </row>
     <row r="3336">
       <c r="A3336" t="s">
-        <v>6432</v>
+        <v>6433</v>
       </c>
       <c r="B3336" t="s">
-        <v>6433</v>
+        <v>6434</v>
       </c>
       <c r="C3336"/>
     </row>
     <row r="3337">
       <c r="A3337" t="s">
-        <v>6434</v>
+        <v>4572</v>
       </c>
       <c r="B3337" t="s">
         <v>6435</v>
@@ -51988,25 +52000,25 @@
     </row>
     <row r="3339">
       <c r="A3339" t="s">
-        <v>5960</v>
+        <v>6438</v>
       </c>
       <c r="B3339" t="s">
-        <v>6438</v>
+        <v>6439</v>
       </c>
       <c r="C3339"/>
     </row>
     <row r="3340">
       <c r="A3340" t="s">
-        <v>6439</v>
+        <v>6440</v>
       </c>
       <c r="B3340" t="s">
-        <v>6440</v>
+        <v>6441</v>
       </c>
       <c r="C3340"/>
     </row>
     <row r="3341">
       <c r="A3341" t="s">
-        <v>6441</v>
+        <v>5964</v>
       </c>
       <c r="B3341" t="s">
         <v>6442</v>
@@ -52015,37 +52027,37 @@
     </row>
     <row r="3342">
       <c r="A3342" t="s">
-        <v>160</v>
+        <v>6443</v>
       </c>
       <c r="B3342" t="s">
-        <v>6443</v>
+        <v>6444</v>
       </c>
       <c r="C3342"/>
     </row>
     <row r="3343">
       <c r="A3343" t="s">
-        <v>6444</v>
+        <v>6445</v>
       </c>
       <c r="B3343" t="s">
-        <v>4329</v>
+        <v>6446</v>
       </c>
       <c r="C3343"/>
     </row>
     <row r="3344">
       <c r="A3344" t="s">
-        <v>6445</v>
+        <v>160</v>
       </c>
       <c r="B3344" t="s">
-        <v>6446</v>
+        <v>6447</v>
       </c>
       <c r="C3344"/>
     </row>
     <row r="3345">
       <c r="A3345" t="s">
-        <v>6447</v>
+        <v>6448</v>
       </c>
       <c r="B3345" t="s">
-        <v>6448</v>
+        <v>4331</v>
       </c>
       <c r="C3345"/>
     </row>
@@ -52225,34 +52237,34 @@
         <v>6487</v>
       </c>
       <c r="B3365" t="s">
-        <v>1268</v>
+        <v>6488</v>
       </c>
       <c r="C3365"/>
     </row>
     <row r="3366">
       <c r="A3366" t="s">
-        <v>6488</v>
+        <v>6489</v>
       </c>
       <c r="B3366" t="s">
-        <v>1020</v>
+        <v>6490</v>
       </c>
       <c r="C3366"/>
     </row>
     <row r="3367">
       <c r="A3367" t="s">
-        <v>6489</v>
+        <v>6491</v>
       </c>
       <c r="B3367" t="s">
-        <v>6490</v>
+        <v>1270</v>
       </c>
       <c r="C3367"/>
     </row>
     <row r="3368">
       <c r="A3368" t="s">
-        <v>6491</v>
+        <v>6492</v>
       </c>
       <c r="B3368" t="s">
-        <v>6492</v>
+        <v>1022</v>
       </c>
       <c r="C3368"/>
     </row>
@@ -52279,22 +52291,22 @@
         <v>6497</v>
       </c>
       <c r="B3371" t="s">
-        <v>6496</v>
+        <v>6498</v>
       </c>
       <c r="C3371"/>
     </row>
     <row r="3372">
       <c r="A3372" t="s">
-        <v>6498</v>
+        <v>6499</v>
       </c>
       <c r="B3372" t="s">
-        <v>734</v>
+        <v>6500</v>
       </c>
       <c r="C3372"/>
     </row>
     <row r="3373">
       <c r="A3373" t="s">
-        <v>6499</v>
+        <v>6501</v>
       </c>
       <c r="B3373" t="s">
         <v>6500</v>
@@ -52303,10 +52315,10 @@
     </row>
     <row r="3374">
       <c r="A3374" t="s">
-        <v>6501</v>
+        <v>6502</v>
       </c>
       <c r="B3374" t="s">
-        <v>6502</v>
+        <v>736</v>
       </c>
       <c r="C3374"/>
     </row>
@@ -52351,25 +52363,25 @@
         <v>6511</v>
       </c>
       <c r="B3379" t="s">
-        <v>3715</v>
+        <v>6512</v>
       </c>
       <c r="C3379"/>
     </row>
     <row r="3380">
       <c r="A3380" t="s">
-        <v>6512</v>
+        <v>6513</v>
       </c>
       <c r="B3380" t="s">
-        <v>6513</v>
+        <v>6514</v>
       </c>
       <c r="C3380"/>
     </row>
     <row r="3381">
       <c r="A3381" t="s">
-        <v>6514</v>
+        <v>6515</v>
       </c>
       <c r="B3381" t="s">
-        <v>6515</v>
+        <v>3717</v>
       </c>
       <c r="C3381"/>
     </row>
@@ -52540,25 +52552,25 @@
         <v>6552</v>
       </c>
       <c r="B3400" t="s">
-        <v>6547</v>
+        <v>6553</v>
       </c>
       <c r="C3400"/>
     </row>
     <row r="3401">
       <c r="A3401" t="s">
-        <v>6553</v>
+        <v>6554</v>
       </c>
       <c r="B3401" t="s">
-        <v>6554</v>
+        <v>6555</v>
       </c>
       <c r="C3401"/>
     </row>
     <row r="3402">
       <c r="A3402" t="s">
-        <v>6555</v>
+        <v>6556</v>
       </c>
       <c r="B3402" t="s">
-        <v>6556</v>
+        <v>6551</v>
       </c>
       <c r="C3402"/>
     </row>
@@ -52603,25 +52615,25 @@
         <v>6565</v>
       </c>
       <c r="B3407" t="s">
-        <v>4639</v>
+        <v>6566</v>
       </c>
       <c r="C3407"/>
     </row>
     <row r="3408">
       <c r="A3408" t="s">
-        <v>6566</v>
+        <v>6567</v>
       </c>
       <c r="B3408" t="s">
-        <v>6567</v>
+        <v>6568</v>
       </c>
       <c r="C3408"/>
     </row>
     <row r="3409">
       <c r="A3409" t="s">
-        <v>6568</v>
+        <v>6569</v>
       </c>
       <c r="B3409" t="s">
-        <v>6569</v>
+        <v>4641</v>
       </c>
       <c r="C3409"/>
     </row>
@@ -52672,64 +52684,64 @@
     </row>
     <row r="3415">
       <c r="A3415" t="s">
-        <v>6315</v>
+        <v>6580</v>
       </c>
       <c r="B3415" t="s">
-        <v>6580</v>
+        <v>6581</v>
       </c>
       <c r="C3415"/>
     </row>
     <row r="3416">
       <c r="A3416" t="s">
-        <v>6581</v>
+        <v>6582</v>
       </c>
       <c r="B3416" t="s">
-        <v>6582</v>
+        <v>6583</v>
       </c>
       <c r="C3416"/>
     </row>
     <row r="3417">
       <c r="A3417" t="s">
-        <v>5539</v>
+        <v>6319</v>
       </c>
       <c r="B3417" t="s">
-        <v>6583</v>
+        <v>6584</v>
       </c>
       <c r="C3417"/>
     </row>
     <row r="3418">
       <c r="A3418" t="s">
-        <v>4067</v>
+        <v>6585</v>
       </c>
       <c r="B3418" t="s">
-        <v>6584</v>
+        <v>6586</v>
       </c>
       <c r="C3418"/>
     </row>
     <row r="3419">
       <c r="A3419" t="s">
-        <v>6585</v>
+        <v>5543</v>
       </c>
       <c r="B3419" t="s">
-        <v>6443</v>
+        <v>6587</v>
       </c>
       <c r="C3419"/>
     </row>
     <row r="3420">
       <c r="A3420" t="s">
-        <v>6586</v>
+        <v>4069</v>
       </c>
       <c r="B3420" t="s">
-        <v>6587</v>
+        <v>6588</v>
       </c>
       <c r="C3420"/>
     </row>
     <row r="3421">
       <c r="A3421" t="s">
-        <v>6588</v>
+        <v>6589</v>
       </c>
       <c r="B3421" t="s">
-        <v>6589</v>
+        <v>6447</v>
       </c>
       <c r="C3421"/>
     </row>
@@ -52780,46 +52792,46 @@
     </row>
     <row r="3427">
       <c r="A3427" t="s">
-        <v>5399</v>
+        <v>6600</v>
       </c>
       <c r="B3427" t="s">
-        <v>6600</v>
+        <v>6601</v>
       </c>
       <c r="C3427"/>
     </row>
     <row r="3428">
       <c r="A3428" t="s">
-        <v>6601</v>
+        <v>6602</v>
       </c>
       <c r="B3428" t="s">
-        <v>6602</v>
+        <v>6603</v>
       </c>
       <c r="C3428"/>
     </row>
     <row r="3429">
       <c r="A3429" t="s">
-        <v>6603</v>
+        <v>5401</v>
       </c>
       <c r="B3429" t="s">
-        <v>2793</v>
+        <v>6604</v>
       </c>
       <c r="C3429"/>
     </row>
     <row r="3430">
       <c r="A3430" t="s">
-        <v>6604</v>
+        <v>6605</v>
       </c>
       <c r="B3430" t="s">
-        <v>6605</v>
+        <v>6606</v>
       </c>
       <c r="C3430"/>
     </row>
     <row r="3431">
       <c r="A3431" t="s">
-        <v>6606</v>
+        <v>6607</v>
       </c>
       <c r="B3431" t="s">
-        <v>6607</v>
+        <v>2795</v>
       </c>
       <c r="C3431"/>
     </row>
@@ -52879,25 +52891,25 @@
     </row>
     <row r="3438">
       <c r="A3438" t="s">
-        <v>97</v>
+        <v>6620</v>
       </c>
       <c r="B3438" t="s">
-        <v>6620</v>
+        <v>6621</v>
       </c>
       <c r="C3438"/>
     </row>
     <row r="3439">
       <c r="A3439" t="s">
-        <v>6621</v>
+        <v>6622</v>
       </c>
       <c r="B3439" t="s">
-        <v>6622</v>
+        <v>6623</v>
       </c>
       <c r="C3439"/>
     </row>
     <row r="3440">
       <c r="A3440" t="s">
-        <v>6623</v>
+        <v>97</v>
       </c>
       <c r="B3440" t="s">
         <v>6624</v>
@@ -52909,25 +52921,25 @@
         <v>6625</v>
       </c>
       <c r="B3441" t="s">
-        <v>5277</v>
+        <v>6626</v>
       </c>
       <c r="C3441"/>
     </row>
     <row r="3442">
       <c r="A3442" t="s">
-        <v>6626</v>
+        <v>6627</v>
       </c>
       <c r="B3442" t="s">
-        <v>6627</v>
+        <v>6628</v>
       </c>
       <c r="C3442"/>
     </row>
     <row r="3443">
       <c r="A3443" t="s">
-        <v>6628</v>
+        <v>6629</v>
       </c>
       <c r="B3443" t="s">
-        <v>6629</v>
+        <v>5279</v>
       </c>
       <c r="C3443"/>
     </row>
@@ -52936,25 +52948,25 @@
         <v>6630</v>
       </c>
       <c r="B3444" t="s">
-        <v>3469</v>
+        <v>6631</v>
       </c>
       <c r="C3444"/>
     </row>
     <row r="3445">
       <c r="A3445" t="s">
-        <v>6631</v>
+        <v>6632</v>
       </c>
       <c r="B3445" t="s">
-        <v>6632</v>
+        <v>6633</v>
       </c>
       <c r="C3445"/>
     </row>
     <row r="3446">
       <c r="A3446" t="s">
-        <v>6633</v>
+        <v>6634</v>
       </c>
       <c r="B3446" t="s">
-        <v>6634</v>
+        <v>3471</v>
       </c>
       <c r="C3446"/>
     </row>
@@ -52999,40 +53011,40 @@
         <v>6643</v>
       </c>
       <c r="B3451" t="s">
-        <v>1268</v>
+        <v>6644</v>
       </c>
       <c r="C3451"/>
     </row>
     <row r="3452">
       <c r="A3452" t="s">
-        <v>6644</v>
+        <v>6645</v>
       </c>
       <c r="B3452" t="s">
-        <v>6645</v>
+        <v>6646</v>
       </c>
       <c r="C3452"/>
     </row>
     <row r="3453">
       <c r="A3453" t="s">
-        <v>333</v>
+        <v>6647</v>
       </c>
       <c r="B3453" t="s">
-        <v>6646</v>
+        <v>1270</v>
       </c>
       <c r="C3453"/>
     </row>
     <row r="3454">
       <c r="A3454" t="s">
-        <v>6647</v>
+        <v>6648</v>
       </c>
       <c r="B3454" t="s">
-        <v>6648</v>
+        <v>6649</v>
       </c>
       <c r="C3454"/>
     </row>
     <row r="3455">
       <c r="A3455" t="s">
-        <v>6649</v>
+        <v>335</v>
       </c>
       <c r="B3455" t="s">
         <v>6650</v>
@@ -53062,25 +53074,25 @@
         <v>6655</v>
       </c>
       <c r="B3458" t="s">
-        <v>264</v>
+        <v>6656</v>
       </c>
       <c r="C3458"/>
     </row>
     <row r="3459">
       <c r="A3459" t="s">
-        <v>6656</v>
+        <v>6657</v>
       </c>
       <c r="B3459" t="s">
-        <v>6657</v>
+        <v>6658</v>
       </c>
       <c r="C3459"/>
     </row>
     <row r="3460">
       <c r="A3460" t="s">
-        <v>6658</v>
+        <v>6659</v>
       </c>
       <c r="B3460" t="s">
-        <v>6659</v>
+        <v>264</v>
       </c>
       <c r="C3460"/>
     </row>
@@ -53089,52 +53101,52 @@
         <v>6660</v>
       </c>
       <c r="B3461" t="s">
-        <v>3164</v>
+        <v>6661</v>
       </c>
       <c r="C3461"/>
     </row>
     <row r="3462">
       <c r="A3462" t="s">
-        <v>6661</v>
+        <v>6662</v>
       </c>
       <c r="B3462" t="s">
-        <v>2504</v>
+        <v>6663</v>
       </c>
       <c r="C3462"/>
     </row>
     <row r="3463">
       <c r="A3463" t="s">
-        <v>6662</v>
+        <v>6664</v>
       </c>
       <c r="B3463" t="s">
-        <v>6663</v>
+        <v>3166</v>
       </c>
       <c r="C3463"/>
     </row>
     <row r="3464">
       <c r="A3464" t="s">
-        <v>6664</v>
+        <v>6665</v>
       </c>
       <c r="B3464" t="s">
-        <v>1729</v>
+        <v>2506</v>
       </c>
       <c r="C3464"/>
     </row>
     <row r="3465">
       <c r="A3465" t="s">
-        <v>6665</v>
+        <v>6666</v>
       </c>
       <c r="B3465" t="s">
-        <v>6666</v>
+        <v>6667</v>
       </c>
       <c r="C3465"/>
     </row>
     <row r="3466">
       <c r="A3466" t="s">
-        <v>6667</v>
+        <v>6668</v>
       </c>
       <c r="B3466" t="s">
-        <v>6668</v>
+        <v>1731</v>
       </c>
       <c r="C3466"/>
     </row>
@@ -53188,25 +53200,25 @@
         <v>6679</v>
       </c>
       <c r="B3472" t="s">
-        <v>2953</v>
+        <v>6680</v>
       </c>
       <c r="C3472"/>
     </row>
     <row r="3473">
       <c r="A3473" t="s">
-        <v>6680</v>
+        <v>6681</v>
       </c>
       <c r="B3473" t="s">
-        <v>6681</v>
+        <v>6682</v>
       </c>
       <c r="C3473"/>
     </row>
     <row r="3474">
       <c r="A3474" t="s">
-        <v>6682</v>
+        <v>6683</v>
       </c>
       <c r="B3474" t="s">
-        <v>6683</v>
+        <v>2955</v>
       </c>
       <c r="C3474"/>
     </row>
@@ -53215,25 +53227,25 @@
         <v>6684</v>
       </c>
       <c r="B3475" t="s">
-        <v>4187</v>
+        <v>6685</v>
       </c>
       <c r="C3475"/>
     </row>
     <row r="3476">
       <c r="A3476" t="s">
-        <v>6685</v>
+        <v>6686</v>
       </c>
       <c r="B3476" t="s">
-        <v>6686</v>
+        <v>6687</v>
       </c>
       <c r="C3476"/>
     </row>
     <row r="3477">
       <c r="A3477" t="s">
-        <v>6687</v>
+        <v>6688</v>
       </c>
       <c r="B3477" t="s">
-        <v>6688</v>
+        <v>4189</v>
       </c>
       <c r="C3477"/>
     </row>
@@ -53503,25 +53515,25 @@
         <v>6747</v>
       </c>
       <c r="B3507" t="s">
-        <v>667</v>
+        <v>6748</v>
       </c>
       <c r="C3507"/>
     </row>
     <row r="3508">
       <c r="A3508" t="s">
-        <v>6748</v>
+        <v>6749</v>
       </c>
       <c r="B3508" t="s">
-        <v>6749</v>
+        <v>6750</v>
       </c>
       <c r="C3508"/>
     </row>
     <row r="3509">
       <c r="A3509" t="s">
-        <v>6750</v>
+        <v>6751</v>
       </c>
       <c r="B3509" t="s">
-        <v>6751</v>
+        <v>669</v>
       </c>
       <c r="C3509"/>
     </row>
@@ -53530,25 +53542,25 @@
         <v>6752</v>
       </c>
       <c r="B3510" t="s">
-        <v>1032</v>
+        <v>6753</v>
       </c>
       <c r="C3510"/>
     </row>
     <row r="3511">
       <c r="A3511" t="s">
-        <v>6753</v>
+        <v>6754</v>
       </c>
       <c r="B3511" t="s">
-        <v>6754</v>
+        <v>6755</v>
       </c>
       <c r="C3511"/>
     </row>
     <row r="3512">
       <c r="A3512" t="s">
-        <v>6755</v>
+        <v>6756</v>
       </c>
       <c r="B3512" t="s">
-        <v>6756</v>
+        <v>1034</v>
       </c>
       <c r="C3512"/>
     </row>
@@ -53590,25 +53602,25 @@
     </row>
     <row r="3517">
       <c r="A3517" t="s">
-        <v>6193</v>
+        <v>6765</v>
       </c>
       <c r="B3517" t="s">
-        <v>6765</v>
+        <v>6766</v>
       </c>
       <c r="C3517"/>
     </row>
     <row r="3518">
       <c r="A3518" t="s">
-        <v>6766</v>
+        <v>6767</v>
       </c>
       <c r="B3518" t="s">
-        <v>6767</v>
+        <v>6768</v>
       </c>
       <c r="C3518"/>
     </row>
     <row r="3519">
       <c r="A3519" t="s">
-        <v>6768</v>
+        <v>6197</v>
       </c>
       <c r="B3519" t="s">
         <v>6769</v>
@@ -53629,25 +53641,25 @@
         <v>6772</v>
       </c>
       <c r="B3521" t="s">
-        <v>706</v>
+        <v>6773</v>
       </c>
       <c r="C3521"/>
     </row>
     <row r="3522">
       <c r="A3522" t="s">
-        <v>6773</v>
+        <v>6774</v>
       </c>
       <c r="B3522" t="s">
-        <v>6774</v>
+        <v>6775</v>
       </c>
       <c r="C3522"/>
     </row>
     <row r="3523">
       <c r="A3523" t="s">
-        <v>6775</v>
+        <v>6776</v>
       </c>
       <c r="B3523" t="s">
-        <v>6776</v>
+        <v>708</v>
       </c>
       <c r="C3523"/>
     </row>
@@ -53665,25 +53677,25 @@
         <v>6779</v>
       </c>
       <c r="B3525" t="s">
-        <v>1084</v>
+        <v>6780</v>
       </c>
       <c r="C3525"/>
     </row>
     <row r="3526">
       <c r="A3526" t="s">
-        <v>6780</v>
+        <v>6781</v>
       </c>
       <c r="B3526" t="s">
-        <v>6781</v>
+        <v>6782</v>
       </c>
       <c r="C3526"/>
     </row>
     <row r="3527">
       <c r="A3527" t="s">
-        <v>6782</v>
+        <v>6783</v>
       </c>
       <c r="B3527" t="s">
-        <v>6783</v>
+        <v>1086</v>
       </c>
       <c r="C3527"/>
     </row>
@@ -53707,25 +53719,25 @@
     </row>
     <row r="3530">
       <c r="A3530" t="s">
-        <v>3656</v>
+        <v>6788</v>
       </c>
       <c r="B3530" t="s">
-        <v>6788</v>
+        <v>6789</v>
       </c>
       <c r="C3530"/>
     </row>
     <row r="3531">
       <c r="A3531" t="s">
-        <v>6789</v>
+        <v>6790</v>
       </c>
       <c r="B3531" t="s">
-        <v>6790</v>
+        <v>6791</v>
       </c>
       <c r="C3531"/>
     </row>
     <row r="3532">
       <c r="A3532" t="s">
-        <v>6791</v>
+        <v>3658</v>
       </c>
       <c r="B3532" t="s">
         <v>6792</v>
@@ -53737,25 +53749,25 @@
         <v>6793</v>
       </c>
       <c r="B3533" t="s">
-        <v>1268</v>
+        <v>6794</v>
       </c>
       <c r="C3533"/>
     </row>
     <row r="3534">
       <c r="A3534" t="s">
-        <v>6794</v>
+        <v>6795</v>
       </c>
       <c r="B3534" t="s">
-        <v>6795</v>
+        <v>6796</v>
       </c>
       <c r="C3534"/>
     </row>
     <row r="3535">
       <c r="A3535" t="s">
-        <v>6796</v>
+        <v>6797</v>
       </c>
       <c r="B3535" t="s">
-        <v>6797</v>
+        <v>1270</v>
       </c>
       <c r="C3535"/>
     </row>
@@ -53773,25 +53785,25 @@
         <v>6800</v>
       </c>
       <c r="B3537" t="s">
-        <v>1264</v>
+        <v>6801</v>
       </c>
       <c r="C3537"/>
     </row>
     <row r="3538">
       <c r="A3538" t="s">
-        <v>6801</v>
+        <v>6802</v>
       </c>
       <c r="B3538" t="s">
-        <v>6802</v>
+        <v>6803</v>
       </c>
       <c r="C3538"/>
     </row>
     <row r="3539">
       <c r="A3539" t="s">
-        <v>6803</v>
+        <v>6804</v>
       </c>
       <c r="B3539" t="s">
-        <v>6804</v>
+        <v>1266</v>
       </c>
       <c r="C3539"/>
     </row>
@@ -53827,25 +53839,25 @@
         <v>6811</v>
       </c>
       <c r="B3543" t="s">
-        <v>4227</v>
+        <v>6812</v>
       </c>
       <c r="C3543"/>
     </row>
     <row r="3544">
       <c r="A3544" t="s">
-        <v>6812</v>
+        <v>6813</v>
       </c>
       <c r="B3544" t="s">
-        <v>6813</v>
+        <v>6814</v>
       </c>
       <c r="C3544"/>
     </row>
     <row r="3545">
       <c r="A3545" t="s">
-        <v>6814</v>
+        <v>6815</v>
       </c>
       <c r="B3545" t="s">
-        <v>6815</v>
+        <v>4229</v>
       </c>
       <c r="C3545"/>
     </row>
@@ -53923,25 +53935,25 @@
     </row>
     <row r="3554">
       <c r="A3554" t="s">
-        <v>5956</v>
+        <v>6832</v>
       </c>
       <c r="B3554" t="s">
-        <v>6832</v>
+        <v>6833</v>
       </c>
       <c r="C3554"/>
     </row>
     <row r="3555">
       <c r="A3555" t="s">
-        <v>6833</v>
+        <v>6834</v>
       </c>
       <c r="B3555" t="s">
-        <v>6834</v>
+        <v>6835</v>
       </c>
       <c r="C3555"/>
     </row>
     <row r="3556">
       <c r="A3556" t="s">
-        <v>6835</v>
+        <v>5960</v>
       </c>
       <c r="B3556" t="s">
         <v>6836</v>
@@ -54025,34 +54037,34 @@
         <v>6853</v>
       </c>
       <c r="B3565" t="s">
-        <v>3336</v>
+        <v>6854</v>
       </c>
       <c r="C3565"/>
     </row>
     <row r="3566">
       <c r="A3566" t="s">
-        <v>6854</v>
+        <v>6855</v>
       </c>
       <c r="B3566" t="s">
-        <v>3713</v>
+        <v>6856</v>
       </c>
       <c r="C3566"/>
     </row>
     <row r="3567">
       <c r="A3567" t="s">
-        <v>6855</v>
+        <v>6857</v>
       </c>
       <c r="B3567" t="s">
-        <v>6856</v>
+        <v>3338</v>
       </c>
       <c r="C3567"/>
     </row>
     <row r="3568">
       <c r="A3568" t="s">
-        <v>6857</v>
+        <v>6858</v>
       </c>
       <c r="B3568" t="s">
-        <v>6858</v>
+        <v>3715</v>
       </c>
       <c r="C3568"/>
     </row>
@@ -54061,25 +54073,25 @@
         <v>6859</v>
       </c>
       <c r="B3569" t="s">
-        <v>265</v>
+        <v>6860</v>
       </c>
       <c r="C3569"/>
     </row>
     <row r="3570">
       <c r="A3570" t="s">
-        <v>6860</v>
+        <v>6861</v>
       </c>
       <c r="B3570" t="s">
-        <v>6861</v>
+        <v>6862</v>
       </c>
       <c r="C3570"/>
     </row>
     <row r="3571">
       <c r="A3571" t="s">
-        <v>6862</v>
+        <v>6863</v>
       </c>
       <c r="B3571" t="s">
-        <v>6863</v>
+        <v>265</v>
       </c>
       <c r="C3571"/>
     </row>
@@ -54112,25 +54124,25 @@
     </row>
     <row r="3575">
       <c r="A3575" t="s">
-        <v>834</v>
+        <v>6870</v>
       </c>
       <c r="B3575" t="s">
-        <v>6870</v>
+        <v>6871</v>
       </c>
       <c r="C3575"/>
     </row>
     <row r="3576">
       <c r="A3576" t="s">
-        <v>6871</v>
+        <v>6872</v>
       </c>
       <c r="B3576" t="s">
-        <v>6872</v>
+        <v>6873</v>
       </c>
       <c r="C3576"/>
     </row>
     <row r="3577">
       <c r="A3577" t="s">
-        <v>6873</v>
+        <v>836</v>
       </c>
       <c r="B3577" t="s">
         <v>6874</v>
@@ -54148,25 +54160,25 @@
     </row>
     <row r="3579">
       <c r="A3579" t="s">
-        <v>2964</v>
+        <v>6877</v>
       </c>
       <c r="B3579" t="s">
-        <v>6877</v>
+        <v>6878</v>
       </c>
       <c r="C3579"/>
     </row>
     <row r="3580">
       <c r="A3580" t="s">
-        <v>6878</v>
+        <v>6879</v>
       </c>
       <c r="B3580" t="s">
-        <v>6879</v>
+        <v>6880</v>
       </c>
       <c r="C3580"/>
     </row>
     <row r="3581">
       <c r="A3581" t="s">
-        <v>6880</v>
+        <v>2966</v>
       </c>
       <c r="B3581" t="s">
         <v>6881</v>
@@ -54178,25 +54190,25 @@
         <v>6882</v>
       </c>
       <c r="B3582" t="s">
-        <v>6771</v>
+        <v>6883</v>
       </c>
       <c r="C3582"/>
     </row>
     <row r="3583">
       <c r="A3583" t="s">
-        <v>6883</v>
+        <v>6884</v>
       </c>
       <c r="B3583" t="s">
-        <v>6884</v>
+        <v>6885</v>
       </c>
       <c r="C3583"/>
     </row>
     <row r="3584">
       <c r="A3584" t="s">
-        <v>6885</v>
+        <v>6886</v>
       </c>
       <c r="B3584" t="s">
-        <v>6886</v>
+        <v>6775</v>
       </c>
       <c r="C3584"/>
     </row>
@@ -54214,25 +54226,25 @@
         <v>6889</v>
       </c>
       <c r="B3586" t="s">
-        <v>1162</v>
+        <v>6890</v>
       </c>
       <c r="C3586"/>
     </row>
     <row r="3587">
       <c r="A3587" t="s">
-        <v>6890</v>
+        <v>6891</v>
       </c>
       <c r="B3587" t="s">
-        <v>6891</v>
+        <v>6892</v>
       </c>
       <c r="C3587"/>
     </row>
     <row r="3588">
       <c r="A3588" t="s">
-        <v>6892</v>
+        <v>6893</v>
       </c>
       <c r="B3588" t="s">
-        <v>6893</v>
+        <v>1164</v>
       </c>
       <c r="C3588"/>
     </row>
@@ -54301,25 +54313,25 @@
     </row>
     <row r="3596">
       <c r="A3596" t="s">
-        <v>1878</v>
+        <v>6908</v>
       </c>
       <c r="B3596" t="s">
-        <v>6908</v>
+        <v>6909</v>
       </c>
       <c r="C3596"/>
     </row>
     <row r="3597">
       <c r="A3597" t="s">
-        <v>6909</v>
+        <v>6910</v>
       </c>
       <c r="B3597" t="s">
-        <v>6910</v>
+        <v>6911</v>
       </c>
       <c r="C3597"/>
     </row>
     <row r="3598">
       <c r="A3598" t="s">
-        <v>6911</v>
+        <v>1880</v>
       </c>
       <c r="B3598" t="s">
         <v>6912</v>
@@ -54349,25 +54361,25 @@
         <v>6917</v>
       </c>
       <c r="B3601" t="s">
-        <v>5468</v>
+        <v>6918</v>
       </c>
       <c r="C3601"/>
     </row>
     <row r="3602">
       <c r="A3602" t="s">
-        <v>6918</v>
+        <v>6919</v>
       </c>
       <c r="B3602" t="s">
-        <v>6919</v>
+        <v>6920</v>
       </c>
       <c r="C3602"/>
     </row>
     <row r="3603">
       <c r="A3603" t="s">
-        <v>6920</v>
+        <v>6921</v>
       </c>
       <c r="B3603" t="s">
-        <v>6921</v>
+        <v>5472</v>
       </c>
       <c r="C3603"/>
     </row>
@@ -54403,25 +54415,25 @@
         <v>6928</v>
       </c>
       <c r="B3607" t="s">
-        <v>1530</v>
+        <v>6929</v>
       </c>
       <c r="C3607"/>
     </row>
     <row r="3608">
       <c r="A3608" t="s">
-        <v>6929</v>
+        <v>6930</v>
       </c>
       <c r="B3608" t="s">
-        <v>6930</v>
+        <v>6931</v>
       </c>
       <c r="C3608"/>
     </row>
     <row r="3609">
       <c r="A3609" t="s">
-        <v>6931</v>
+        <v>6932</v>
       </c>
       <c r="B3609" t="s">
-        <v>6932</v>
+        <v>1532</v>
       </c>
       <c r="C3609"/>
     </row>
@@ -54481,25 +54493,25 @@
     </row>
     <row r="3616">
       <c r="A3616" t="s">
-        <v>6191</v>
+        <v>6945</v>
       </c>
       <c r="B3616" t="s">
-        <v>6945</v>
+        <v>6946</v>
       </c>
       <c r="C3616"/>
     </row>
     <row r="3617">
       <c r="A3617" t="s">
-        <v>6946</v>
+        <v>6947</v>
       </c>
       <c r="B3617" t="s">
-        <v>6947</v>
+        <v>6948</v>
       </c>
       <c r="C3617"/>
     </row>
     <row r="3618">
       <c r="A3618" t="s">
-        <v>6948</v>
+        <v>6195</v>
       </c>
       <c r="B3618" t="s">
         <v>6949</v>
@@ -54556,25 +54568,25 @@
         <v>6960</v>
       </c>
       <c r="B3624" t="s">
-        <v>309</v>
+        <v>6961</v>
       </c>
       <c r="C3624"/>
     </row>
     <row r="3625">
       <c r="A3625" t="s">
-        <v>6961</v>
+        <v>6962</v>
       </c>
       <c r="B3625" t="s">
-        <v>6962</v>
+        <v>6963</v>
       </c>
       <c r="C3625"/>
     </row>
     <row r="3626">
       <c r="A3626" t="s">
-        <v>6963</v>
+        <v>6964</v>
       </c>
       <c r="B3626" t="s">
-        <v>6964</v>
+        <v>309</v>
       </c>
       <c r="C3626"/>
     </row>
@@ -54619,25 +54631,25 @@
         <v>6973</v>
       </c>
       <c r="B3631" t="s">
-        <v>4235</v>
+        <v>6974</v>
       </c>
       <c r="C3631"/>
     </row>
     <row r="3632">
       <c r="A3632" t="s">
-        <v>6974</v>
+        <v>6975</v>
       </c>
       <c r="B3632" t="s">
-        <v>6975</v>
+        <v>6976</v>
       </c>
       <c r="C3632"/>
     </row>
     <row r="3633">
       <c r="A3633" t="s">
-        <v>6976</v>
+        <v>6977</v>
       </c>
       <c r="B3633" t="s">
-        <v>6977</v>
+        <v>4237</v>
       </c>
       <c r="C3633"/>
     </row>
@@ -54682,25 +54694,25 @@
         <v>6986</v>
       </c>
       <c r="B3638" t="s">
-        <v>3085</v>
+        <v>6987</v>
       </c>
       <c r="C3638"/>
     </row>
     <row r="3639">
       <c r="A3639" t="s">
-        <v>6987</v>
+        <v>6988</v>
       </c>
       <c r="B3639" t="s">
-        <v>6988</v>
+        <v>6989</v>
       </c>
       <c r="C3639"/>
     </row>
     <row r="3640">
       <c r="A3640" t="s">
-        <v>6989</v>
+        <v>6990</v>
       </c>
       <c r="B3640" t="s">
-        <v>6990</v>
+        <v>3087</v>
       </c>
       <c r="C3640"/>
     </row>
@@ -54763,49 +54775,49 @@
         <v>7003</v>
       </c>
       <c r="B3647" t="s">
-        <v>2476</v>
+        <v>7004</v>
       </c>
       <c r="C3647"/>
     </row>
     <row r="3648">
       <c r="A3648" t="s">
-        <v>7004</v>
+        <v>7005</v>
       </c>
       <c r="B3648" t="s">
-        <v>7005</v>
+        <v>7006</v>
       </c>
       <c r="C3648"/>
     </row>
     <row r="3649">
       <c r="A3649" t="s">
-        <v>7006</v>
+        <v>7007</v>
       </c>
       <c r="B3649" t="s">
-        <v>7007</v>
+        <v>2478</v>
       </c>
       <c r="C3649"/>
     </row>
     <row r="3650">
       <c r="A3650" t="s">
-        <v>2873</v>
+        <v>7008</v>
       </c>
       <c r="B3650" t="s">
-        <v>7008</v>
+        <v>7009</v>
       </c>
       <c r="C3650"/>
     </row>
     <row r="3651">
       <c r="A3651" t="s">
-        <v>7009</v>
+        <v>7010</v>
       </c>
       <c r="B3651" t="s">
-        <v>7010</v>
+        <v>7011</v>
       </c>
       <c r="C3651"/>
     </row>
     <row r="3652">
       <c r="A3652" t="s">
-        <v>7011</v>
+        <v>2875</v>
       </c>
       <c r="B3652" t="s">
         <v>7012</v>
@@ -54889,25 +54901,25 @@
         <v>7029</v>
       </c>
       <c r="B3661" t="s">
-        <v>7027</v>
+        <v>7030</v>
       </c>
       <c r="C3661"/>
     </row>
     <row r="3662">
       <c r="A3662" t="s">
-        <v>7030</v>
+        <v>7031</v>
       </c>
       <c r="B3662" t="s">
-        <v>7031</v>
+        <v>7032</v>
       </c>
       <c r="C3662"/>
     </row>
     <row r="3663">
       <c r="A3663" t="s">
-        <v>7032</v>
+        <v>7033</v>
       </c>
       <c r="B3663" t="s">
-        <v>7033</v>
+        <v>7031</v>
       </c>
       <c r="C3663"/>
     </row>
@@ -54943,34 +54955,34 @@
         <v>7040</v>
       </c>
       <c r="B3667" t="s">
-        <v>6179</v>
+        <v>7041</v>
       </c>
       <c r="C3667"/>
     </row>
     <row r="3668">
       <c r="A3668" t="s">
-        <v>7041</v>
+        <v>7042</v>
       </c>
       <c r="B3668" t="s">
-        <v>4144</v>
+        <v>7043</v>
       </c>
       <c r="C3668"/>
     </row>
     <row r="3669">
       <c r="A3669" t="s">
-        <v>7042</v>
+        <v>7044</v>
       </c>
       <c r="B3669" t="s">
-        <v>7043</v>
+        <v>6183</v>
       </c>
       <c r="C3669"/>
     </row>
     <row r="3670">
       <c r="A3670" t="s">
-        <v>7044</v>
+        <v>7045</v>
       </c>
       <c r="B3670" t="s">
-        <v>7045</v>
+        <v>4146</v>
       </c>
       <c r="C3670"/>
     </row>
@@ -54985,43 +54997,43 @@
     </row>
     <row r="3672">
       <c r="A3672" t="s">
-        <v>5264</v>
+        <v>7048</v>
       </c>
       <c r="B3672" t="s">
-        <v>7048</v>
+        <v>7049</v>
       </c>
       <c r="C3672"/>
     </row>
     <row r="3673">
       <c r="A3673" t="s">
-        <v>7049</v>
+        <v>7050</v>
       </c>
       <c r="B3673" t="s">
-        <v>7050</v>
+        <v>7051</v>
       </c>
       <c r="C3673"/>
     </row>
     <row r="3674">
       <c r="A3674" t="s">
-        <v>4473</v>
+        <v>5266</v>
       </c>
       <c r="B3674" t="s">
-        <v>7051</v>
+        <v>7052</v>
       </c>
       <c r="C3674"/>
     </row>
     <row r="3675">
       <c r="A3675" t="s">
-        <v>7052</v>
+        <v>7053</v>
       </c>
       <c r="B3675" t="s">
-        <v>7053</v>
+        <v>7054</v>
       </c>
       <c r="C3675"/>
     </row>
     <row r="3676">
       <c r="A3676" t="s">
-        <v>7054</v>
+        <v>4475</v>
       </c>
       <c r="B3676" t="s">
         <v>7055</v>
@@ -55141,25 +55153,25 @@
         <v>7080</v>
       </c>
       <c r="B3689" t="s">
-        <v>1020</v>
+        <v>7081</v>
       </c>
       <c r="C3689"/>
     </row>
     <row r="3690">
       <c r="A3690" t="s">
-        <v>7081</v>
+        <v>7082</v>
       </c>
       <c r="B3690" t="s">
-        <v>7082</v>
+        <v>7083</v>
       </c>
       <c r="C3690"/>
     </row>
     <row r="3691">
       <c r="A3691" t="s">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="B3691" t="s">
-        <v>7084</v>
+        <v>1022</v>
       </c>
       <c r="C3691"/>
     </row>
@@ -55237,43 +55249,43 @@
     </row>
     <row r="3700">
       <c r="A3700" t="s">
-        <v>4761</v>
+        <v>7101</v>
       </c>
       <c r="B3700" t="s">
-        <v>7101</v>
+        <v>7102</v>
       </c>
       <c r="C3700"/>
     </row>
     <row r="3701">
       <c r="A3701" t="s">
-        <v>7102</v>
+        <v>7103</v>
       </c>
       <c r="B3701" t="s">
-        <v>7103</v>
+        <v>7104</v>
       </c>
       <c r="C3701"/>
     </row>
     <row r="3702">
       <c r="A3702" t="s">
-        <v>3896</v>
+        <v>4763</v>
       </c>
       <c r="B3702" t="s">
-        <v>7104</v>
+        <v>7105</v>
       </c>
       <c r="C3702"/>
     </row>
     <row r="3703">
       <c r="A3703" t="s">
-        <v>7105</v>
+        <v>7106</v>
       </c>
       <c r="B3703" t="s">
-        <v>7106</v>
+        <v>7107</v>
       </c>
       <c r="C3703"/>
     </row>
     <row r="3704">
       <c r="A3704" t="s">
-        <v>7107</v>
+        <v>3898</v>
       </c>
       <c r="B3704" t="s">
         <v>7108</v>
@@ -55345,25 +55357,25 @@
     </row>
     <row r="3712">
       <c r="A3712" t="s">
-        <v>3091</v>
+        <v>7123</v>
       </c>
       <c r="B3712" t="s">
-        <v>7123</v>
+        <v>7124</v>
       </c>
       <c r="C3712"/>
     </row>
     <row r="3713">
       <c r="A3713" t="s">
-        <v>7124</v>
+        <v>7125</v>
       </c>
       <c r="B3713" t="s">
-        <v>7125</v>
+        <v>7126</v>
       </c>
       <c r="C3713"/>
     </row>
     <row r="3714">
       <c r="A3714" t="s">
-        <v>7126</v>
+        <v>3093</v>
       </c>
       <c r="B3714" t="s">
         <v>7127</v>
@@ -55390,25 +55402,25 @@
     </row>
     <row r="3717">
       <c r="A3717" t="s">
-        <v>781</v>
+        <v>7132</v>
       </c>
       <c r="B3717" t="s">
-        <v>7132</v>
+        <v>7133</v>
       </c>
       <c r="C3717"/>
     </row>
     <row r="3718">
       <c r="A3718" t="s">
-        <v>7133</v>
+        <v>7134</v>
       </c>
       <c r="B3718" t="s">
-        <v>7134</v>
+        <v>7135</v>
       </c>
       <c r="C3718"/>
     </row>
     <row r="3719">
       <c r="A3719" t="s">
-        <v>7135</v>
+        <v>783</v>
       </c>
       <c r="B3719" t="s">
         <v>7136</v>
@@ -55429,25 +55441,25 @@
         <v>7139</v>
       </c>
       <c r="B3721" t="s">
-        <v>5720</v>
+        <v>7140</v>
       </c>
       <c r="C3721"/>
     </row>
     <row r="3722">
       <c r="A3722" t="s">
-        <v>7140</v>
+        <v>7141</v>
       </c>
       <c r="B3722" t="s">
-        <v>7141</v>
+        <v>7142</v>
       </c>
       <c r="C3722"/>
     </row>
     <row r="3723">
       <c r="A3723" t="s">
-        <v>7142</v>
+        <v>7143</v>
       </c>
       <c r="B3723" t="s">
-        <v>7143</v>
+        <v>5724</v>
       </c>
       <c r="C3723"/>
     </row>
@@ -55471,25 +55483,25 @@
     </row>
     <row r="3726">
       <c r="A3726" t="s">
-        <v>3580</v>
+        <v>7148</v>
       </c>
       <c r="B3726" t="s">
-        <v>7148</v>
+        <v>7149</v>
       </c>
       <c r="C3726"/>
     </row>
     <row r="3727">
       <c r="A3727" t="s">
-        <v>7149</v>
+        <v>7150</v>
       </c>
       <c r="B3727" t="s">
-        <v>7150</v>
+        <v>7151</v>
       </c>
       <c r="C3727"/>
     </row>
     <row r="3728">
       <c r="A3728" t="s">
-        <v>7151</v>
+        <v>3582</v>
       </c>
       <c r="B3728" t="s">
         <v>7152</v>
@@ -55537,34 +55549,34 @@
         <v>7161</v>
       </c>
       <c r="B3733" t="s">
-        <v>2953</v>
+        <v>7162</v>
       </c>
       <c r="C3733"/>
     </row>
     <row r="3734">
       <c r="A3734" t="s">
-        <v>7162</v>
+        <v>7163</v>
       </c>
       <c r="B3734" t="s">
-        <v>6807</v>
+        <v>7164</v>
       </c>
       <c r="C3734"/>
     </row>
     <row r="3735">
       <c r="A3735" t="s">
-        <v>7163</v>
+        <v>7165</v>
       </c>
       <c r="B3735" t="s">
-        <v>7164</v>
+        <v>2955</v>
       </c>
       <c r="C3735"/>
     </row>
     <row r="3736">
       <c r="A3736" t="s">
-        <v>7165</v>
+        <v>7166</v>
       </c>
       <c r="B3736" t="s">
-        <v>7166</v>
+        <v>6811</v>
       </c>
       <c r="C3736"/>
     </row>
@@ -55582,34 +55594,34 @@
         <v>7169</v>
       </c>
       <c r="B3738" t="s">
-        <v>1268</v>
+        <v>7170</v>
       </c>
       <c r="C3738"/>
     </row>
     <row r="3739">
       <c r="A3739" t="s">
-        <v>7170</v>
+        <v>7171</v>
       </c>
       <c r="B3739" t="s">
-        <v>2254</v>
+        <v>7172</v>
       </c>
       <c r="C3739"/>
     </row>
     <row r="3740">
       <c r="A3740" t="s">
-        <v>7171</v>
+        <v>7173</v>
       </c>
       <c r="B3740" t="s">
-        <v>7172</v>
+        <v>1270</v>
       </c>
       <c r="C3740"/>
     </row>
     <row r="3741">
       <c r="A3741" t="s">
-        <v>7173</v>
+        <v>7174</v>
       </c>
       <c r="B3741" t="s">
-        <v>7174</v>
+        <v>2256</v>
       </c>
       <c r="C3741"/>
     </row>
@@ -55759,37 +55771,37 @@
     </row>
     <row r="3758">
       <c r="A3758" t="s">
-        <v>5921</v>
+        <v>7207</v>
       </c>
       <c r="B3758" t="s">
-        <v>7207</v>
+        <v>7208</v>
       </c>
       <c r="C3758"/>
     </row>
     <row r="3759">
       <c r="A3759" t="s">
-        <v>7208</v>
+        <v>7209</v>
       </c>
       <c r="B3759" t="s">
-        <v>5431</v>
+        <v>7210</v>
       </c>
       <c r="C3759"/>
     </row>
     <row r="3760">
       <c r="A3760" t="s">
-        <v>7209</v>
+        <v>5925</v>
       </c>
       <c r="B3760" t="s">
-        <v>7210</v>
+        <v>7211</v>
       </c>
       <c r="C3760"/>
     </row>
     <row r="3761">
       <c r="A3761" t="s">
-        <v>7211</v>
+        <v>7212</v>
       </c>
       <c r="B3761" t="s">
-        <v>7212</v>
+        <v>5433</v>
       </c>
       <c r="C3761"/>
     </row>
@@ -55807,25 +55819,25 @@
         <v>7215</v>
       </c>
       <c r="B3763" t="s">
-        <v>262</v>
+        <v>7216</v>
       </c>
       <c r="C3763"/>
     </row>
     <row r="3764">
       <c r="A3764" t="s">
-        <v>7216</v>
+        <v>7217</v>
       </c>
       <c r="B3764" t="s">
-        <v>7217</v>
+        <v>7218</v>
       </c>
       <c r="C3764"/>
     </row>
     <row r="3765">
       <c r="A3765" t="s">
-        <v>7218</v>
+        <v>7219</v>
       </c>
       <c r="B3765" t="s">
-        <v>7219</v>
+        <v>262</v>
       </c>
       <c r="C3765"/>
     </row>
@@ -55840,25 +55852,25 @@
     </row>
     <row r="3767">
       <c r="A3767" t="s">
-        <v>3485</v>
+        <v>7222</v>
       </c>
       <c r="B3767" t="s">
-        <v>7222</v>
+        <v>7223</v>
       </c>
       <c r="C3767"/>
     </row>
     <row r="3768">
       <c r="A3768" t="s">
-        <v>7223</v>
+        <v>7224</v>
       </c>
       <c r="B3768" t="s">
-        <v>7224</v>
+        <v>7225</v>
       </c>
       <c r="C3768"/>
     </row>
     <row r="3769">
       <c r="A3769" t="s">
-        <v>7225</v>
+        <v>3487</v>
       </c>
       <c r="B3769" t="s">
         <v>7226</v>
@@ -55915,70 +55927,70 @@
         <v>7237</v>
       </c>
       <c r="B3775" t="s">
-        <v>3665</v>
+        <v>7238</v>
       </c>
       <c r="C3775"/>
     </row>
     <row r="3776">
       <c r="A3776" t="s">
-        <v>7238</v>
+        <v>7239</v>
       </c>
       <c r="B3776" t="s">
-        <v>7239</v>
+        <v>7240</v>
       </c>
       <c r="C3776"/>
     </row>
     <row r="3777">
       <c r="A3777" t="s">
-        <v>7240</v>
+        <v>7241</v>
       </c>
       <c r="B3777" t="s">
-        <v>1090</v>
+        <v>3667</v>
       </c>
       <c r="C3777"/>
     </row>
     <row r="3778">
       <c r="A3778" t="s">
-        <v>7241</v>
+        <v>7242</v>
       </c>
       <c r="B3778" t="s">
-        <v>1313</v>
+        <v>7243</v>
       </c>
       <c r="C3778"/>
     </row>
     <row r="3779">
       <c r="A3779" t="s">
-        <v>7242</v>
+        <v>7244</v>
       </c>
       <c r="B3779" t="s">
-        <v>7243</v>
+        <v>1092</v>
       </c>
       <c r="C3779"/>
     </row>
     <row r="3780">
       <c r="A3780" t="s">
-        <v>7244</v>
+        <v>7245</v>
       </c>
       <c r="B3780" t="s">
-        <v>3839</v>
+        <v>1315</v>
       </c>
       <c r="C3780"/>
     </row>
     <row r="3781">
       <c r="A3781" t="s">
-        <v>7245</v>
+        <v>7246</v>
       </c>
       <c r="B3781" t="s">
-        <v>7246</v>
+        <v>7247</v>
       </c>
       <c r="C3781"/>
     </row>
     <row r="3782">
       <c r="A3782" t="s">
-        <v>7247</v>
+        <v>7248</v>
       </c>
       <c r="B3782" t="s">
-        <v>7248</v>
+        <v>3841</v>
       </c>
       <c r="C3782"/>
     </row>
@@ -55996,25 +56008,25 @@
         <v>7251</v>
       </c>
       <c r="B3784" t="s">
-        <v>4267</v>
+        <v>7252</v>
       </c>
       <c r="C3784"/>
     </row>
     <row r="3785">
       <c r="A3785" t="s">
-        <v>7252</v>
+        <v>7253</v>
       </c>
       <c r="B3785" t="s">
-        <v>7253</v>
+        <v>7254</v>
       </c>
       <c r="C3785"/>
     </row>
     <row r="3786">
       <c r="A3786" t="s">
-        <v>7254</v>
+        <v>7255</v>
       </c>
       <c r="B3786" t="s">
-        <v>7255</v>
+        <v>4269</v>
       </c>
       <c r="C3786"/>
     </row>
@@ -56032,34 +56044,34 @@
         <v>7258</v>
       </c>
       <c r="B3788" t="s">
-        <v>1160</v>
+        <v>7259</v>
       </c>
       <c r="C3788"/>
     </row>
     <row r="3789">
       <c r="A3789" t="s">
-        <v>7259</v>
+        <v>7260</v>
       </c>
       <c r="B3789" t="s">
-        <v>2957</v>
+        <v>7261</v>
       </c>
       <c r="C3789"/>
     </row>
     <row r="3790">
       <c r="A3790" t="s">
-        <v>7260</v>
+        <v>7262</v>
       </c>
       <c r="B3790" t="s">
-        <v>7261</v>
+        <v>1162</v>
       </c>
       <c r="C3790"/>
     </row>
     <row r="3791">
       <c r="A3791" t="s">
-        <v>7262</v>
+        <v>7263</v>
       </c>
       <c r="B3791" t="s">
-        <v>7263</v>
+        <v>2959</v>
       </c>
       <c r="C3791"/>
     </row>
@@ -56135,8 +56147,26 @@
       </c>
       <c r="C3799"/>
     </row>
+    <row r="3800">
+      <c r="A3800" t="s">
+        <v>7280</v>
+      </c>
+      <c r="B3800" t="s">
+        <v>7281</v>
+      </c>
+      <c r="C3800"/>
+    </row>
+    <row r="3801">
+      <c r="A3801" t="s">
+        <v>7282</v>
+      </c>
+      <c r="B3801" t="s">
+        <v>7283</v>
+      </c>
+      <c r="C3801"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C3799"/>
+  <autoFilter ref="A1:C3801"/>
   <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
